--- a/Pipeline Flagging/Data Diploy Flagged/Flagged_1000_Per_Class/Sains_Data_Kecerdasan_Artifisial_6_0.xlsx
+++ b/Pipeline Flagging/Data Diploy Flagged/Flagged_1000_Per_Class/Sains_Data_Kecerdasan_Artifisial_6_0.xlsx
@@ -56078,7 +56078,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -56088,7 +56088,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Penerapan Algoritma Machine Learning untuk Prediksi Harga Saham Menggunakan Python</t>
+          <t>Sistem Informasi Monitoring dan Analisis Data Produksi Berbasis Web pada Industri Manufaktur</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -56098,12 +56098,12 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>Pelatihan Python untuk Analisis Data Terapan</t>
+          <t>Pelatihan Wawasan Karir dan Analisis Data untuk Industri Produksi</t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>Microsoft Certified Data Analyst Associate</t>
+          <t>Analis Data Dasar (Sertifikasi BNSP)</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -56113,22 +56113,22 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Operator Produksi</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan alat analitik seperti Python dan SQL. Mengembangkan visualisasi data serta laporan untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim lintas fungsi dalam merancang solusi berbasis data yang efisien.</t>
+          <t>Bertanggung jawab mengoperasikan mesin produksi dan memastikan proses berjalan sesuai standar kualitas serta kuantitas. Mencatat dan memantau data produksi harian, melakukan pemeriksaan kualitas, serta melaporkan penyimpangan kepada supervisor. Menggunakan alat analisis dasar seperti Microsoft Excel dan Python untuk menganalisis tren produksi dan mendukung perbaikan proses.</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>2 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Python, SQL, Pandas, NumPy, Data Visualization, Microsoft Excel, Problem Solving, Communication, Teamwork, Machine Learning, Git, Tableau</t>
+          <t>Python, Microsoft Excel, Pandas, Structured Query Language, Data Visualization, Statistical Analysis, Git, Problem Solving, Teamwork, Communication, Quality Control, Process Improvement</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
@@ -56143,17 +56143,17 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda pada Data E-commerce</t>
+          <t>Pengembangan Sistem Informasi Analitik Penjualan Berbasis Python untuk Mendukung Keputusan Bisnis</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -56163,37 +56163,37 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Data Analytics for Business (Pelatihan Profesional)</t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Freelance Data Analyst</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber. Menyusun laporan berbasis data untuk mendukung pengambilan keputusan strategis perusahaan. Berkolaborasi dengan tim pengembangan dalam mengimplementasikan insight hasil analisis ke dalam sistem bisnis.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data penjualan serta operasional menggunakan Python dan Structured Query Language. Mengembangkan dashboard interaktif dengan Tableau atau Power BI untuk menyajikan insight bisnis dan rekomendasi kepada klien. Berkoordinasi langsung dengan klien untuk memahami kebutuhan dan memastikan solusi tersampaikan tepat waktu.</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>2 tahun 1 bulan 13 hari</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Statistical Analysis, Machine Learning, Problem Solving, Communication</t>
+          <t>Python, Structured Query Language (SQL), Microsoft Excel, Tableau, Power BI, Pandas, NumPy, Statistik, Data Visualization, Machine Learning, Git, Problem Solving, Communication, Time Management</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
@@ -56208,57 +56208,57 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SMK</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Manajemen Perpustakaan</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Analisis dan Penerapan Otomatisasi Proses Bisnis Menggunakan Bahasa Pemrograman Python pada Perusahaan Ritel</t>
+          <t>Tidak ada tugas akhir (tingkat SMK)</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>Pemrograman Python untuk Bisnis</t>
+          <t>Kecerdasan Buatan</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>Women in Tech: Python for Business</t>
+          <t>Dasar-Dasar Implementasi Kecerdasan Artifisial</t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>Python Programming Certification by Coursera</t>
+          <t>Sertifikasi Pengelolaan Perpustakaan Dasar - Perpustakaan Nasional Republik Indonesia</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>Pemrograman dan Analisis Data</t>
+          <t>Manajemen Perpustakaan dan Kearsipan</t>
         </is>
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Analis Data Bisnis</t>
+          <t>Staf Perpustakaan</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, menganalisis, dan memvisualisasikan data untuk mendukung pengambilan keputusan bisnis. Mengembangkan skrip otomatisasi menggunakan Python untuk efisiensi proses internal dan berkolaborasi dengan tim lintas departemen dalam penyusunan laporan kinerja strategis.</t>
+          <t>Bertanggung jawab atas pengelolaan koleksi dan layanan sirkulasi termasuk katalogisasi, peminjaman, pengembalian, serta pengolahan koleksi baru. Mengelola arsip digital, membantu pengguna dalam pencarian referensi, dan menerapkan alat digital serta dasar-dasar kecerdasan buatan untuk meningkatkan efisiensi layanan perpustakaan.</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>3 tahun 4 bulan 6 hari</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Python, Data Analysis, Pandas, SQL, Power BI, Microsoft Excel, Problem Solving, Communication, Teamwork, Business Intelligence, Data Visualization, Critical Thinking</t>
+          <t>Pengelolaan Koleksi Perpustakaan, Katalogisasi, Kearsipan Digital, Sistem Informasi Perpustakaan, Pelayanan Pengguna, Administrasi Perpustakaan, Microsoft Office (Word, Excel, PowerPoint), Basis Data MySQL, Penggunaan Alat Digital dan Kecerdasan Buatan untuk Pengelolaan Koleksi, Komunikasi, Pemecahan Masalah, Manajemen Sirkulasi</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -56278,12 +56278,12 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Telekomunikasi</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Prediksi Penjualan Menggunakan Metode Regresi Linier Berbasis Python</t>
+          <t>Implementasi Model Prediksi Kualitas Jaringan Telekomunikasi Menggunakan Machine Learning pada Data Lalu Lintas LTE</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -56293,12 +56293,12 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan SQL</t>
+          <t>Data Analytics untuk Telekomunikasi dengan Python dan SQL</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Google)</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -56308,22 +56308,22 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Analis Data Telekomunikasi</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Mengembangkan dashboard interaktif menggunakan alat visualisasi data. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi tren dan menghasilkan insight berbasis data.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data trafik jaringan untuk mendukung evaluasi performa. Mengembangkan model prediksi sederhana menggunakan Python dan scikit-learn serta membuat visualisasi dan dashboard untuk pelaporan kepada tim. Berkolaborasi dengan tim teknis untuk menginterpretasikan hasil analisis dan memberikan rekomendasi perbaikan operasional.</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Microsoft Excel, Data Visualization, Critical Thinking, Teamwork, Communication, Problem Solving, Statistical Analysis, Machine Learning</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Data Visualization (Matplotlib, Seaborn), Tableau, Git, Analisis Statistik, Pemecahan Masalah, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
@@ -56343,12 +56343,12 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda pada Perusahaan Retail</t>
+          <t>Sistem Deteksi dan Analisis Sentimen Pelanggan Menggunakan Pembelajaran Mesin Berbasis Python</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -56358,37 +56358,37 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Programming with Python for Data Science</t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Python for Data Science Certificate (Dicoding)</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Petugas Penghubung (Liaison Officer)</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data bisnis menggunakan bahasa pemrograman seperti Python dan SQL. Mengembangkan visualisasi data menggunakan Tableau untuk mendukung pengambilan keputusan strategis perusahaan. Berkolaborasi dengan tim lintas departemen untuk mengidentifikasi peluang optimasi berdasarkan hasil analisis.</t>
+          <t>Bertanggung jawab sebagai penghubung antara tim teknis dan pemangku kepentingan untuk memastikan komunikasi kebutuhan proyek berjalan efektif. Mengumpulkan dan mendokumentasikan kebutuhan, menjadwalkan pertemuan koordinasi, serta menyampaikan kemajuan dan hambatan proyek kepada manajemen. Membantu interpretasi hasil analisis data sederhana dan memastikan implementasi solusi sesuai dengan ekspektasi pemangku kepentingan.</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Teamwork, Statistical Analysis</t>
+          <t>Python, Data Analysis, MySQL, Microsoft Excel, Data Visualization, Communication, Stakeholder Management, Project Coordination, Report Writing, Teamwork, Problem Solving, Presentation Skills</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
@@ -56413,47 +56413,47 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Perancangan dan Implementasi Sistem Manajemen Basis Data Akademik Menggunakan SQL</t>
+          <t>Sistem Informasi Manajemen Portofolio Komik Digital Berbasis Web</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>Pemrograman Basis Data</t>
+          <t>Multimedia Digital</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>Pelatihan Database Design and Programming with SQL Oracle Academy</t>
+          <t>Pelatihan Digital Comic and Illustration</t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>Oracle Certified Associate, Database SQL</t>
+          <t>Microsoft Office Specialist - Microsoft</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>Manajemen Basis Data</t>
+          <t>Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Programmer Basis Data</t>
+          <t>Staff Administrasi</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk merancang, mengembangkan, dan memelihara struktur basis data. Melakukan optimasi query SQL, memastikan integritas data, serta bekerja sama dengan tim pengembang aplikasi untuk mengimplementasikan solusi penyimpanan data yang efisien.</t>
+          <t>Mengelola administrasi harian termasuk input data karyawan dan pelanggan ke sistem serta menyusun laporan administrasi bulanan. Bertanggung jawab mengarsipkan dan memelihara dokumen digital, menangani korespondensi, serta mendukung proses penggajian dan administrasi keuangan dasar. Berkoordinasi dengan tim lain untuk memastikan kelancaran operasional kantor dan pemutakhiran data pada sistem manajemen dokumen.</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>2 tahun 11 bulan 0 hari</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>SQL, Database Design, Oracle Database, Python, Data Modeling, Problem Solving, Teamwork, Communication, Git, Agile Methodology</t>
+          <t>Microsoft Office (Word, Excel, PowerPoint), Pengelolaan Arsip Digital, Pengelolaan Basis Data MySQL, Ilustrasi Digital dan Adobe Photoshop, HTML dan CSS dasar, Administrasi Perkantoran, Penginputan Data (Data Entry), Komunikasi, Manajemen Waktu, Pemecahan Masalah (Problem Solving), Versi Kontrol Dasar (Git), Pelayanan Pelanggan (Customer Service)</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
@@ -56468,17 +56468,17 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Manajemen Informatika</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Sistem Informasi Analisis Data Penjualan Berbasis Spreadsheet untuk Mendukung Pengambilan Keputusan pada Usaha Kecil Menengah</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -56493,32 +56493,32 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Junior Data Analyst (BNSP)</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>Analisis Data dan Statistik</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staff Teknologi Informasi</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengelola, membersihkan, dan menganalisis data untuk menghasilkan insight bisnis yang dapat ditindaklanjuti. Menggunakan bahasa pemrograman Python dan SQL untuk analisis serta visualisasi data. Berkolaborasi dengan tim bisnis dan teknologi untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data operasional menggunakan Python dan Microsoft Excel untuk menghasilkan laporan dan dashboard berkala. Mendukung pengelolaan basis data dan aplikasi internal serta melakukan pemeliharaan sistem dasar untuk memastikan kelancaran operasional. Berkolaborasi dengan tim lintas fungsi untuk menyediakan insight data yang mendukung pengambilan keputusan bisnis.</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 1 bulan 5 hari</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Machine Learning, Communication, Problem Solving, Teamwork</t>
+          <t>Python, Structured Query Language (SQL), Microsoft Excel, MySQL, Tableau, Power BI, Pembersihan Data, Visualisasi Data, Analisis Data, Git, Pemecahan Masalah, Kerja Tim, Komunikasi</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
@@ -56543,7 +56543,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Dashboard Analitik Penjualan Menggunakan Python dan Power BI</t>
+          <t>Sistem Informasi Analisis Penjualan Berbasis Power BI untuk Optimalisasi Keputusan Bisnis</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -56553,37 +56553,37 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Power BI Data Analyst Professional Training</t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Business Intelligence</t>
         </is>
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Analis Data Junior</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan bahasa pemrograman Python dan alat visualisasi seperti Power BI dan Tableau. Menyusun laporan berbasis data untuk mendukung pengambilan keputusan bisnis serta berkolaborasi dengan tim pengembangan dalam merancang model prediktif dan optimisasi performa data pipeline.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memodelkan data dari berbagai sumber untuk pembuatan dashboard interaktif menggunakan Power BI. Mengembangkan laporan dan visualisasi untuk mendukung pengambilan keputusan bisnis serta mengoptimalkan performa model data dan rumus DAX. Berkolaborasi dengan pemangku kepentingan lintas fungsi untuk menentukan kebutuhan analitik dan menyajikan insight secara jelas.</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Data Visualization, Machine Learning, Statistical Analysis, Excel, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Power BI, SQL, Python, Microsoft Excel, DAX (Data Analysis Expressions), Data Visualization, Data Modeling, ETL, Business Intelligence, Git, Communication, Problem Solving, Teamwork</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
@@ -56603,12 +56603,12 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Business Intelligence untuk Mendukung Pengambilan Keputusan Penjualan</t>
+          <t>Sistem Klasifikasi dan Analisis Sentimen Ulasan Pelanggan Menggunakan Metode Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
@@ -56618,12 +56618,12 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Analyst Dengan Power BI dan SQL</t>
+          <t>Pelatihan Data Analytics dan Visualisasi dengan Python</t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -56633,22 +56633,22 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Analis Business Intelligence</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data bisnis untuk menghasilkan laporan dan visualisasi yang mendukung pengambilan keputusan strategis. Mengembangkan dashboard interaktif menggunakan Power BI serta memastikan kualitas dan integritas data. Berkolaborasi dengan tim manajemen dan pengembang sistem untuk meningkatkan efisiensi pelaporan data.</t>
+          <t>Bertanggung jawab melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan Structured Query Language (SQL). Mengembangkan model prediktif sederhana serta visualisasi interaktif untuk mendukung pengambilan keputusan bisnis dan menyusun laporan hasil analisis. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk menerjemahkan kebutuhan bisnis menjadi solusi data yang dapat diimplementasikan.</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Microsoft Power BI, SQL, Python, Data Visualization, Data Cleaning, Statistical Analysis, Communication, Problem Solving, Time Management, Teamwork, Microsoft Excel, Dashboard Design</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, Matplotlib, Seaborn, Machine Learning, Statistical Analysis, Data Cleaning, Git, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
@@ -56668,52 +56668,52 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Ilmu Komunikasi</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Analisis Sentimen Media Sosial Menggunakan Algoritma Naive Bayes untuk Prediksi Opini Publik</t>
+          <t>Analisis Pengaruh Strategi Konten terhadap Engagement Media Sosial pada Usaha Kecil dan Menengah (Studi Kasus pada UKM)</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Pemasaran Digital</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Social Media Analyst: Analisis Data dan Strategi Konten</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (BNSP)</t>
+          <t>Google Analytics Individual Qualification (Google)</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Pemasaran Digital</t>
         </is>
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Analis Data Junior</t>
+          <t>Analis Media Sosial</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber. Membuat visualisasi data dan laporan analitik untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim pengembangan dan manajemen dalam merancang strategi berbasis data.</t>
+          <t>Bertanggung jawab mengumpulkan dan menganalisis data kinerja konten media sosial menggunakan alat analytics untuk menghasilkan insight yang meningkatkan engagement dan konversi. Menyusun laporan berkala dan rekomendasi strategi konten serta berkolaborasi dengan tim konten dan pemasaran untuk mengimplementasikan serta mengoptimalkan kampanye berdasarkan hasil analisis.</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Critical Thinking, Machine Learning, Power BI</t>
+          <t>Analisis Data, Google Analytics, Facebook Ads Manager, Strategi Konten, Social Media Monitoring, Search Engine Optimization, SQL, Python, Microsoft Excel, Hootsuite, Pelaporan dan Visualisasi Data, Pemecahan Masalah, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -56733,12 +56733,12 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Analisis Regresi Linear Berganda untuk Memprediksi Penjualan Berdasarkan Data Historis</t>
+          <t>Analisis dan Visualisasi Data Transaksi Kas Menggunakan Microsoft Power BI untuk Optimalisasi Proses Rekonsiliasi</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -56748,37 +56748,37 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>Pelatihan Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Pelatihan Analis Data dengan Microsoft Power BI</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) — Microsoft</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>Data Analisis</t>
+          <t>Analisis Data dan Business Intelligence</t>
         </is>
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Petugas Pengelolaan Cash Vault</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk menghasilkan laporan dan insight bisnis. Membuat visualisasi data serta dashboard interaktif untuk mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengoptimalkan proses berbasis data.</t>
+          <t>Bertanggung jawab atas penerimaan, penyimpanan, dan pengeluaran kas di fasilitas cash vault serta memastikan keakuratan pencatatan transaksi harian. Melakukan rekonsiliasi kas, penyusunan laporan keuangan harian dan mingguan menggunakan Microsoft Excel dan Power BI, serta memastikan kepatuhan terhadap prosedur keamanan dan kebijakan perusahaan. Berkolaborasi dengan tim keuangan untuk mengidentifikasi dan menyelesaikan selisih kas serta meningkatkan efisiensi proses operasional.</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>0 tahun 4 bulan 0 hari</t>
+          <t>2 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork</t>
+          <t>Microsoft Power BI, Microsoft Excel, Structured Query Language (SQL), Data Analysis, Financial Reconciliation, Cash Handling, Inventory Management, Risk Assessment, Attention to Detail, Communication, Teamwork, Reporting and Dashboarding</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -56798,12 +56798,12 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda pada Perusahaan Ritel</t>
+          <t>Penerapan Regresi Berganda dan Klasterisasi untuk Prediksi dan Segmentasi Data Keuangan Menggunakan Metode Statistik dan Machine Learning</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
@@ -56813,37 +56813,37 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Mengembangkan visualisasi data yang informatif menggunakan alat analisis seperti Python dan Power BI. Berkolaborasi dengan tim lintas departemen untuk mengidentifikasi tren dan peluang berdasarkan data yang tersedia.</t>
+          <t>Melakukan pembersihan dan pra-pemrosesan data untuk mendukung analisis kuantitatif. Melaksanakan analisis eksploratori, membuat visualisasi dan menyusun laporan temuan untuk tim proyek. Berkolaborasi dengan anggota tim lain untuk mengimplementasikan model statistik dan merekomendasikan perbaikan berbasis data.</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Machine Learning, Communication, Critical Thinking, Problem Solving, Teamwork</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, Power BI, Statistik, Machine Learning, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
@@ -56863,12 +56863,12 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Analisis Data Pemilih Menggunakan Metode Statistik dan Pembelajaran Mesin untuk Prediksi Partisipasi Pemilu</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -56878,12 +56878,12 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst dengan Python dan SQL</t>
+          <t>Pelatihan Data Analyst: Pengolahan Data dan Analisis dengan Python</t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Sertifikat Data Analyst dari Badan Nasional Sertifikasi Profesi</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -56893,22 +56893,22 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Anggota Kelompok Penyelenggara Pemungutan Suara</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan alat statistik dan perangkat lunak analisis data. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim lintas divisi untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Bertugas mengelola tata kelola tempat pemungutan suara termasuk verifikasi daftar pemilih, pengaturan logistik, dan pelaksanaan proses pemungutan suara sesuai aturan. Melakukan penghitungan surat suara, pencatatan hasil, serta menyusun dan menyerahkan laporan resmi kepada panitia penyelenggara. Berkoordinasi dengan tim pengawas dan memberikan informasi kepada pemilih untuk memastikan kelancaran proses pemungutan suara.</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Power BI, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Machine Learning</t>
+          <t>Python, R, SQL, Data Visualization, Statistik, Pandas, NumPy, Microsoft Excel, Git, Machine Learning, Data Cleaning, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
@@ -56928,52 +56928,52 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Pendidikan Matematika</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Analitik Penjualan Menggunakan Business Intelligence Tools Berbasis Web</t>
+          <t>Pengembangan Aplikasi Penilaian Hasil Belajar Matematika Berbasis Web untuk Sekolah Menengah</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Keamanan Siber</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>Python for Data Analytics and Visualization Training</t>
+          <t>Pelatihan Dasar Keamanan AI oleh ElevAIte</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Certified Data Entry Specialist (Badan Nasional Sertifikasi Profesi)</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Administrasi Data</t>
         </is>
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Data Entry Associate</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data bisnis untuk menghasilkan insight yang dapat digunakan dalam pengambilan keputusan. Mengembangkan visualisasi interaktif menggunakan Power BI dan Python. Berkolaborasi dengan tim produk dan manajemen untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Melakukan input dan verifikasi data ke dalam sistem basis data dengan akurasi tinggi, serta memastikan konsistensi dan kualitas data melalui proses validasi dan pembersihan. Memelihara dan mengorganisir arsip digital, berkoordinasi dengan tim terkait untuk memperbaiki kesalahan data dan menyusun laporan berkala. Mengikuti prosedur keamanan data untuk melindungi informasi sensitif dan mendukung kelancaran operasi administrasi data.</t>
         </is>
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Microsoft Excel</t>
+          <t>Microsoft Excel, Google Sheets, Data Entry, Data Validation, Database Management, Structured Query Language (SQL), Python for Data Processing, Data Cleaning, Attention to Detail, Communication, Time Management, Data Security Awareness</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
@@ -56998,47 +56998,47 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Algoritma Regresi Linier Berganda pada Data Marketplace</t>
+          <t>Analisis Prediktif Penjualan Menggunakan Regresi dan Pohon Keputusan untuk Business Intelligence pada Perusahaan Ritel</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
+          <t>Cloud Computing</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>Introduction to Cloud Computing for Data Analytics</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
           <t>Data Analytics</t>
         </is>
       </c>
-      <c r="E871" t="inlineStr">
-        <is>
-          <t>Pelatihan Wawasan Karir dan Aplikasi Data Analytics</t>
-        </is>
-      </c>
-      <c r="F871" t="inlineStr">
-        <is>
-          <t>Google Data Analytics Professional Certificate</t>
-        </is>
-      </c>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>Analisis Data</t>
-        </is>
-      </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Business Intelligence Intern</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data bisnis untuk menghasilkan insight yang mendukung pengambilan keputusan strategis. Membuat visualisasi data menggunakan alat seperti Tableau dan Power BI serta berkolaborasi dengan tim produk dan pemasaran untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Melakukan ekstraksi, transformasi, dan pemuatan data (ETL) dari berbagai sumber menggunakan Structured Query Language dan Python untuk mendukung analisis bisnis. Mengembangkan dan memelihara dashboard interaktif menggunakan Power BI dan Tableau serta menyajikan insight kepada tim produk dan manajemen. Berkolaborasi dengan tim lintas fungsi untuk menyempurnakan metrik bisnis dan meningkatkan kualitas data.</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Python, SQL, R, Tableau, Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Critical Thinking, Communication, Problem Solving, Teamwork</t>
+          <t>Structured Query Language (SQL), Python, Tableau, Power BI, Microsoft Excel (Advanced), Data Visualization, Statistical Analysis, Extract Transform Load (ETL), MySQL, Git, Problem Solving, Communication, Machine Learning</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
@@ -57053,57 +57053,57 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SMA</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Ilmu Komunikasi</t>
+          <t>Ilmu Pengetahuan Alam</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Analisis Persepsi Masyarakat terhadap Citra Merek Melalui Aktivitas Media Sosial di Instagram</t>
+          <t>Tidak ada tugas akhir (tingkat SMA)</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>Pengantar Analisis Media Sosial</t>
+          <t>Python untuk Otomatisasi Administrasi dan Pengolahan Data</t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>Social Media Analytics Professional (BNSP)</t>
+          <t>Certified Python Programmer (Python Institute)</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial dan Komunikasi Digital</t>
+          <t>Pemrograman Python</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Analis Media Sosial</t>
+          <t>Staf Administrasi Bahan Baku</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk memantau, menganalisis, dan melaporkan kinerja konten di berbagai platform media sosial. Mengidentifikasi tren serta insight audiens untuk mendukung strategi pemasaran digital dan peningkatan engagement. Berkolaborasi dengan tim pemasaran dan kreatif untuk mengoptimalkan kampanye berbasis data.</t>
+          <t>Bertanggung jawab atas pencatatan, penerimaan, dan pengendalian stok bahan baku serta pemrosesan dokumen pengadaan. Berkoordinasi dengan tim gudang dan pemasok untuk memastikan ketersediaan bahan dan melakukan pelaporan stok secara berkala. Menggunakan spreadsheet dan skrip Python untuk otomatisasi proses administrasi dan pembuatan laporan analitik sederhana.</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>4 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Analisis Data, Media Monitoring, Digital Marketing, Statistik, Google Analytics, Microsoft Excel, Communication, Problem Solving, Teamwork, Social Media Strategy</t>
+          <t>Manajemen Inventaris, Microsoft Excel, Python, Pengolahan Data, SQL, Sistem Enterprise Resource Planning, Pengelolaan Dokumen, Analisis Data, Pemecahan Masalah, Komunikasi, Kerja Tim, Ketelitian</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
@@ -57123,12 +57123,12 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Penjualan Menggunakan Algoritma Machine Learning</t>
+          <t>Rancang Bangun Sistem Informasi Manajemen Penjualan Berbasis Web untuk Optimalisasi Proses Bisnis pada Perusahaan Retail</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -57138,37 +57138,37 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Bootcamp</t>
+          <t>Pelatihan Data Analytics untuk Business Intelligence dengan Python</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>Data Scientist Associate (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Staf Sistem Informasi</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan insight bisnis yang akurat. Mengembangkan dashboard interaktif dan laporan visualisasi data menggunakan Python dan Power BI. Berkolaborasi dengan tim produk dan manajemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab untuk mengelola dan memelihara sistem informasi perusahaan termasuk pemeliharaan basis data dan integrasi antar sistem. Melakukan analisis data dan pembuatan laporan bisnis menggunakan Python dan Power BI untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim pengembang dan pemangku kepentingan untuk implementasi fitur baru, troubleshooting, dan optimasi proses operasional.</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Machine Learning, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork, Time Management, Data Cleaning</t>
+          <t>Python, SQL, Microsoft Excel, Power BI, MySQL, Sistem Manajemen Basis Data, Analisis Data, Pengembangan Sistem Informasi, API RESTful, Git, Problem Solving, Kerja Tim, Komunikasi, Metodologi Agile, Pengujian Perangkat Lunak</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
@@ -57188,12 +57188,12 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sosiologi</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Manajemen Data Mahasiswa Berbasis Web Menggunakan Framework Django</t>
+          <t>Analisis Sentimen Opini Publik terhadap Kebijakan Publik Menggunakan Metode Text Mining (Studi Kasus: Twitter)</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -57203,12 +57203,12 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>Python for Data Analysis and Machine Learning</t>
+          <t>Pelatihan Analis Data - Python untuk Analisis Data dan Visualisasi</t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -57218,22 +57218,22 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber menggunakan Python dan SQL. Membuat visualisasi data dan laporan untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim pengembang dan manajemen dalam merancang solusi berbasis data.</t>
+          <t>Melakukan pembersihan dan pengolahan data menggunakan Python dan SQL untuk mendukung analisis. Membuat visualisasi dan dashboard untuk menyajikan temuan analitis serta menyusun laporan hasil analisis. Berkolaborasi dengan tim untuk menyusun rekomendasi berbasis data dan mendukung kegiatan monitoring data.</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 30 hari</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Python, Pandas, NumPy, SQL, Data Visualization, Machine Learning, Problem Solving, Critical Thinking, Communication, Teamwork, Git, Tableau</t>
+          <t>Python, SQL, Pandas, NumPy, Data Visualization, Tableau, Power BI, Statistical Analysis, Data Cleaning, Excel, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
@@ -57248,17 +57248,17 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Prediksi Penjualan Menggunakan Metode Regresi pada Perusahaan Ritel</t>
+          <t>Analisis Penjualan Berbasis Sistem Informasi Menggunakan Metode K-Means dan Visualisasi Dashboard</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -57268,12 +57268,12 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>Pelatihan Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Data Analytics Bootcamp (Python &amp; SQL)</t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -57288,17 +57288,17 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan laporan dan insight bisnis. Membuat visualisasi data dengan menggunakan alat seperti Power BI dan Tableau. Bekerja sama dengan tim pengembang untuk mengotomatisasi proses analitik dan pelaporan.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan transformasi data dari berbagai sumber untuk mendukung keputusan bisnis. Mengembangkan analisis statistik dan model sederhana serta membuat visualisasi dan dashboard untuk menyajikan insight kepada tim lintas fungsi. Berkolaborasi dengan tim produk dan manajemen untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Power BI, Tableau, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork, Machine Learning, Data Cleaning</t>
+          <t>Python, SQL, Pandas, NumPy, Matplotlib, Seaborn, Tableau, Power BI, Git, Machine Learning, Statistical Analysis, Data Cleaning, Data Visualization, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
@@ -57313,32 +57313,32 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SMK</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Komputer dan Jaringan</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Business Intelligence untuk Analisis Penjualan Menggunakan Microsoft Power BI</t>
+          <t>Tidak ada tugas akhir (tingkat SMK)</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>Data Processing</t>
+          <t>Business Intelligence</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Engineer Professional</t>
+          <t>Business Intelligence Analyst Bootcamp</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -57348,22 +57348,22 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Business Intelligence Engineer</t>
+          <t>Peserta On Job Training Business Intelligence</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, memproses, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan bisnis yang informatif. Mengembangkan dashboard interaktif menggunakan Power BI dan SQL untuk membantu pengambilan keputusan strategis. Berkolaborasi dengan tim data dan manajemen untuk mengoptimalkan proses analisis dan penyajian data.</t>
+          <t>Melaksanakan tugas pendukung dalam pengumpulan, pembersihan, dan pemrosesan data untuk kebutuhan analisis bisnis. Membantu pembuatan dashboard dan laporan menggunakan Power BI serta berkolaborasi dengan tim untuk menyusun insight dan rekomendasi berdasarkan data. Melakukan dokumentasi proses dan turut serta dalam pengujian kualitas data serta perbaikan proses Extract, Transform, Load.</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>2 tahun 7 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>SQL, Python, Power BI, Tableau, Data Warehousing, ETL Process, Analytical Thinking, Problem Solving, Communication, Teamwork, Microsoft Excel, Data Visualization</t>
+          <t>Power BI, SQL, Python, Microsoft Excel, Extract, Transform, Load (ETL), Data Visualization, Data Cleaning, Business Intelligence, MySQL, Git, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
@@ -57383,12 +57383,12 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Analisis Data Menggunakan Bahasa Pemrograman Python Berbasis Web</t>
+          <t>Sistem Analitik Penjualan Berbasis Data untuk Prediksi Permintaan Menggunakan Metode Regresi dan K-Means</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -57398,12 +57398,12 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>Pelatihan Python for Data Analysis</t>
+          <t>Workshop Wawasan Karir di Bidang Data Analytics: Python, Structured Query Language, dan Dashboarding</t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -57413,22 +57413,22 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, menganalisis, dan memvisualisasikan data guna mendukung pengambilan keputusan bisnis. Mengembangkan skrip otomatisasi analisis data serta membuat dashboard interaktif menggunakan Python dan berbagai library analisis. Berkolaborasi dengan tim pengembang dan manajemen untuk meningkatkan efisiensi proses bisnis.</t>
+          <t>Melakukan pembersihan dan transformasi data menggunakan Python dan Structured Query Language untuk menyiapkan dataset analitik. Membangun model prediktif sederhana dan membuat dashboard visualisasi menggunakan Tableau atau Power BI serta menyusun laporan dan rekomendasi untuk pemangku kepentingan. Berkolaborasi dengan tim produk dan pemasaran untuk menerjemahkan hasil analisis menjadi tindakan bisnis.</t>
         </is>
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Python, Pandas, NumPy, SQL, Data Visualization, Machine Learning, Git, Communication, Problem Solving, Teamwork, Power BI, Presentation Skill</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Tableau, Power BI, Git, Data Cleaning, Statistical Analysis, Data Visualization, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
@@ -57448,27 +57448,27 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Business Intelligence Tool Tableau</t>
+          <t>Analisis Faktor Risiko Diabetes Tipe 2 pada Masyarakat Menggunakan Metode Statistik dan Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics dan Pengenalan Python untuk Analisis Data</t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (Microsoft)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -57478,22 +57478,22 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan laporan dan insight bisnis yang akurat. Menggunakan alat visualisasi seperti Tableau dan Power BI untuk membantu pengambilan keputusan strategis. Berkolaborasi dengan tim manajemen dan pengembang untuk memastikan integrasi data yang efektif.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data kesehatan menggunakan Python dan R untuk mendukung penelitian. Membuat visualisasi data dan laporan temuan menggunakan Tableau dan Microsoft Excel serta berkolaborasi dengan tim untuk menyusun rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Excel Lanjutan, Data Visualization, Analytical Thinking, Communication, Problem Solving, Teamwork, Time Management, Presentation Skills</t>
+          <t>Python, R, SQL, Pandas, NumPy, Statistik dan Analisis Data, Visualisasi Data dengan Tableau, Microsoft Excel, Machine Learning dasar, Pembersihan dan Pengolahan Data, Git, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
@@ -57513,12 +57513,12 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Perencanaan Wilayah dan Kota</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Analisis Data Penjualan Menggunakan Bahasa Pemrograman Python</t>
+          <t>Analisis Spasial Potensi Ruang Terbuka Hijau Menggunakan Sistem Informasi Geografis (Studi Kasus Kota Semarang)</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -57528,37 +57528,37 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>Pelatihan Python untuk Analisis Data dan Otomasi</t>
+          <t>Fundamental Data Science untuk Analisis Perencanaan Wilayah dan Kota</t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>Python Programming Certification (BNSP)</t>
+          <t>Sertifikat GIS dan Analisis Spasial - Esri Indonesia</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>Pemrograman dan Analisis Data</t>
+          <t>Sistem Informasi Geografis</t>
         </is>
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Programmer Data Analytics</t>
+          <t>Asisten Ahli Perencana Wilayah dan Kota</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengembangkan dan mengoptimalkan program berbasis Python untuk analisis data. Melakukan pengolahan, visualisasi, dan interpretasi data untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim pengembang dalam mengintegrasikan algoritma analisis ke dalam sistem perusahaan.</t>
+          <t>Melakukan pengumpulan, verifikasi, dan analisis data spasial serta non-spasial untuk mendukung perencanaan tata ruang kota. Menyusun peta tematik, laporan teknis, dan rekomendasi kebijakan menggunakan perangkat Sistem Informasi Geografis serta alat analisis data seperti Python dan R. Berkoordinasi dengan tim perencana dan pemangku kepentingan untuk pelaksanaan proyek perencanaan dan pemantauan hasil.</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Python, Data Analysis, Pandas, NumPy, SQL, Machine Learning, Problem Solving, Communication, Teamwork, Git, Data Visualization, Statistics</t>
+          <t>Sistem Informasi Geografis (GIS), ArcGIS, QGIS, Analisis Spasial, Python, R, Visualisasi Data, Structured Query Language (SQL), Pemrosesan Citra Satelit (Remote Sensing), Kartografi, Manajemen Proyek, Komunikasi, Kerjasama Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
@@ -57578,52 +57578,52 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda pada Perusahaan Ritel</t>
+          <t>Implementasi Sistem Entri dan Validasi Data Berbasis Web untuk Meningkatkan Akurasi Pengolahan Data</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Keamanan Siber</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Pengenalan Data Analytics dalam Industri Digital</t>
+          <t>Pelatihan Dasar Keamanan Kecerdasan Buatan oleh ElevAIte</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Competent For Graphic Design Level III (KKNI) - Lembaga Sertifikasi Profesi; Junior Data Entry Specialist (Badan Nasional Sertifikasi Profesi)</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Desain Komunikasi Visual; Administrasi Data</t>
         </is>
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staf Pengolahan Data dan Entri</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data dan laporan menggunakan alat analisis modern serta berkolaborasi dengan tim lintas departemen untuk mengidentifikasi tren dan peluang peningkatan kinerja.</t>
+          <t>Bertanggung jawab melakukan entri data secara akurat ke dalam sistem perusahaan serta memverifikasi dan membersihkan data untuk menjaga integritas informasi. Menyusun laporan rutin tentang kualitas data dan melakukan koordinasi dengan tim terkait untuk proses perbaikan data. Menggunakan spreadsheet dan sistem manajemen basis data untuk pengolahan, penyimpanan, dan retrieval data.</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Statistics, Critical Thinking</t>
+          <t>Microsoft Excel, Google Sheets, Entri Data, Verifikasi Data, Pembersihan Data, Pengelolaan Basis Data MySQL, Penggunaan Sistem Manajemen Dokumen, Kecepatan Mengetik, Perhatian terhadap Detail, Komunikasi, Manajemen Waktu, Problem Solving, Kerja Tim</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
@@ -57648,7 +57648,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Dashboard Analitik Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Sistem Informasi Business Intelligence untuk Analisis Penjualan Berbasis Power BI</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -57658,37 +57658,37 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>Pelatihan Python untuk Analisis Data dan Visualisasi Statistik</t>
+          <t>Power BI Data Analyst Training (Microsoft Learn)</t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Business Intelligence dan Visualisasi Data</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Business Intelligence</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Mengembangkan laporan dan dashboard interaktif menggunakan Power BI dan SQL. Berkolaborasi dengan tim manajemen untuk mengidentifikasi peluang peningkatan kinerja berdasarkan data analitik.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memodelkan data dari berbagai sumber melalui proses Extract, Transform, Load untuk analisis. Mengembangkan dan memelihara dashboard interaktif serta laporan bisnis menggunakan Power BI dan DAX untuk mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim lintas fungsi untuk menerjemahkan kebutuhan bisnis menjadi metrik dan insight yang dapat diukur.</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Data Cleaning, Problem Solving, Communication, Teamwork, Statistical Analysis</t>
+          <t>Power BI, Microsoft Excel, Structured Query Language, DAX, Data Visualization, Data Modeling, Python for Data Analysis, Extract Transform Load, Dashboard Design, Data Cleaning, Communication, Problem Solving</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
@@ -57708,34 +57708,34 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Business Intelligence Tools Berbasis Web</t>
+          <t>Sistem Prediksi Permintaan Barang Berbasis Pembelajaran Mesin pada Data Penjualan Ritel</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
+          <t>Data Science</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>Data Analytics Bootcamp dengan Python dan SQL</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
           <t>Data Analytics</t>
         </is>
       </c>
-      <c r="E882" t="inlineStr">
-        <is>
-          <t>Wawasan Karir dalam Bidang Data Analytics</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>Certified Data Analyst (BNSP)</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>Analisis Data</t>
-        </is>
-      </c>
       <c r="H882" t="inlineStr">
         <is>
           <t>Analis Data</t>
@@ -57743,17 +57743,17 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber. Mengidentifikasi tren dan pola untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data yang informatif dan menyajikan laporan hasil analisis kepada manajemen.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan transformasi data dari berbagai sumber untuk mendukung analisis bisnis. Mengembangkan model analitik dan visualisasi menggunakan Python serta alat visualisasi untuk menyajikan insight kepada tim produk dan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan rekomendasi berbasis data dan memonitor performa solusi analitik.</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Teamwork, Statistical Analysis</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Tableau, Power BI, MySQL, Git, Data Visualization, Machine Learning, Analisis Statistik, ETL, Problem Solving, Komunikasi, Pengolahan Data Besar</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
@@ -57773,12 +57773,12 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Prediksi Penjualan Menggunakan Algoritma Machine Learning Berbasis Python</t>
+          <t>Sistem Informasi Penunjang Keputusan Penjualan Berbasis Web Menggunakan Python untuk Analisis Data</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
@@ -57788,37 +57788,37 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>Pelatihan Python untuk Analisis Data Terapan</t>
+          <t>Women in Tech: Python for Business - Python untuk Analisis Data dan Otomasi Bisnis</t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Certified Entry-Level Python Programmer (PCEP) - Python Institute</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Pengembangan Perangkat Lunak</t>
         </is>
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Pengembang Perangkat Lunak</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengembangan dan pemeliharaan aplikasi berbasis Python untuk analisis data dan otomatisasi proses bisnis. Melakukan analisis kebutuhan, menulis kode yang efisien, serta menguji dan mengoptimalkan performa aplikasi. Berkolaborasi dengan tim pengembang, analis, dan pemangku kepentingan dalam setiap tahap proyek.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL untuk mendukung keputusan bisnis. Mengembangkan visualisasi dan dashboard serta mengotomasi proses pelaporan untuk meningkatkan efisiensi tim. Berkolaborasi dengan tim pemasaran dan manajemen produk untuk memahami kebutuhan data dan menyajikan insight yang dapat ditindaklanjuti.</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 3 bulan 12 hari</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Python, Data Analysis, Pandas, NumPy, SQL, Version Control (Git), Problem Solving, Communication, Teamwork, Machine Learning, RESTful API Development, Agile Methodology</t>
+          <t>Python, Pandas, NumPy, Structured Query Language (SQL), Data Cleaning, Data Visualization dengan Matplotlib dan Seaborn, Tableau, Git, Problem Solving, Communication, Teamwork, RESTful API</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -57838,52 +57838,52 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Ilmu Komunikasi</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Analisis Strategi Konten Media Sosial dalam Meningkatkan Brand Engagement pada Perusahaan Startup</t>
+          <t>Sistem Informasi Analitik Penjualan Berbasis Python untuk Pengambilan Keputusan Bisnis</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>Pelatihan Profesional Social Media Analyst</t>
+          <t>Women in Tech: Python for Business</t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>Certified Social Media Analyst (BNSP)</t>
+          <t>Certified Associate in Python Programming - Python Institute</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial dan Pemasaran Digital</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Analis Media Sosial</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam menganalisis performa kampanye media sosial menggunakan data analytics untuk meningkatkan engagement dan awareness. Melakukan riset tren digital, membuat laporan performa, serta memberikan rekomendasi strategi konten berdasarkan data audiens. Berkolaborasi dengan tim pemasaran untuk mengoptimalkan strategi pemasaran digital.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data penjualan menggunakan Python dan library terkait untuk menghasilkan insight bisnis. Membuat visualisasi data dan laporan analitik untuk mendukung pengambilan keputusan oleh tim pemasaran dan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan solusi otomatisasi dan dashboard yang dapat digunakan secara rutin.</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Google Analytics, Social Media Strategy, Content Analysis, Digital Marketing, Communication, Data Visualization, Copywriting, Teamwork, Problem Solving, Microsoft Excel, Reporting, Trend Analysis</t>
+          <t>Python, Pandas, NumPy, SQL, Data Visualization (Matplotlib dan Seaborn), Machine Learning, Data Cleaning, Git, RESTful API, Tableau, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
@@ -57903,12 +57903,12 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Teknik Elektro</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Algoritma Machine Learning Berbasis Python</t>
+          <t>Perancangan dan Implementasi Sistem Monitoring Konsumsi Energi Berbasis Internet of Things serta Analisis Data Menggunakan Power BI</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
@@ -57918,37 +57918,37 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>Pelatihan Fundamental Data Science dengan Python dan Machine Learning</t>
+          <t>Power BI Data Analyst</t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>Certified Data Scientist (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Business Intelligence</t>
         </is>
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Magang Data Analyst</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengelola, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Menggunakan alat analisis seperti Python dan SQL untuk membuat dashboard dan laporan visualisasi data. Bekerja sama dengan tim bisnis dan teknologi informasi untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Mengumpulkan, membersihkan, dan menganalisis dataset menggunakan Power BI dan Python untuk mendukung keputusan proyek. Membuat dashboard interaktif dan laporan visualisasi KPI untuk tim proyek serta melakukan interpretasi hasil analisis. Berkolaborasi dengan tim lintas fungsi untuk memberikan rekomendasi berbasis data dan meningkatkan kualitas proses monitoring.</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Python, SQL, Machine Learning, Data Visualization, Power BI, Statistics, Problem Solving, Communication, Teamwork, Pandas, NumPy, Tableau</t>
+          <t>Power BI, Python, SQL, Microsoft Excel, Data Visualization, Data Cleaning, Statistical Analysis, Machine Learning, Git, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
@@ -57968,12 +57968,12 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Implementasi Analisis Data Penjualan Menggunakan Python untuk Optimalisasi Strategi Bisnis</t>
+          <t>Analisis Prediktif Perilaku Pelanggan Menggunakan Metode Machine Learning pada Data Transaksi E-commerce</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
@@ -57983,12 +57983,12 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>Women in Tech: Python for Business</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics — Pelatihan Dasar Data Science dan Analisis Data dengan Python</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>Python Data Analysis Professional Certificate (Coursera)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -57998,22 +57998,22 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Analis Data Bisnis</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna mendukung keputusan strategis perusahaan. Mengembangkan model analisis bisnis menggunakan Python untuk mengidentifikasi tren penjualan dan peluang pasar. Berkolaborasi dengan tim manajemen untuk merancang rekomendasi berbasis data.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan Structured Query Language untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data dan dashboard interaktif, menyusun laporan insight, serta berkolaborasi dengan tim produk dan pemasaran untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, Pandas, Microsoft Excel, Problem Solving, Analytical Thinking, Communication, Machine Learning, Teamwork</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Machine Learning, Data Visualization (Matplotlib, Seaborn), Tableau, Power BI, Microsoft Excel, Git, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
@@ -58033,52 +58033,52 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Informasi Manajemen Karyawan Berbasis Web untuk Efisiensi Proses Administrasi HRD</t>
+          <t>Prediksi Churn Pelanggan pada Platform E-commerce Menggunakan Metode Machine Learning</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>Pelatihan Alibaba Cloud Computing (ACA &amp; ACP)</t>
+          <t>Fundamental Data Science (Python dan Machine Learning)</t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>Alibaba Cloud Certified Associate (ACA)</t>
+          <t>IBM Data Science Professional Certificate (IBM / Coursera)</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Administrator Human Resource Department</t>
+          <t>Magang Data Science</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengelolaan administrasi data karyawan, termasuk absensi, rekrutmen, dan arsip digital. Melakukan koordinasi dengan divisi lain terkait kebutuhan sumber daya manusia serta mendukung proses pelaporan dan pemutakhiran data menggunakan sistem berbasis cloud.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan melakukan eksplorasi data menggunakan Python dan library terkait. Mengembangkan, melatih, dan mengevaluasi model machine learning untuk kebutuhan analitik serta menyajikan hasil melalui visualisasi dan laporan. Berkolaborasi dengan tim produk dan pengembang untuk mengimplementasikan insight ke dalam sistem informasi perusahaan.</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Manajemen Data Karyawan, Microsoft Excel, Administrasi Perkantoran, Komunikasi, Kerja Tim, Pemecahan Masalah, Cloud Computing, Manajemen Waktu, Pengelolaan Dokumen Digital, Microsoft Office</t>
+          <t>Python, Machine Learning, Data Analysis, Pandas, NumPy, Scikit-learn, TensorFlow, MySQL, Data Visualization, Matplotlib, Seaborn, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
@@ -58098,12 +58098,12 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Pendidikan Guru Sekolah Dasar</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Harga Properti Menggunakan Machine Learning Berbasis Python</t>
+          <t>Analisis Pengaruh Penerapan Pembelajaran Berbasis Data terhadap Peningkatan Hasil Belajar Matematika di Sekolah Dasar</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
@@ -58113,12 +58113,12 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>Pelatihan Fundamental Data Science dengan Python dan Machine Learning</t>
+          <t>Pelatihan Wawasan Karir dan Praktikum Dasar Data Analytics untuk Pendidikan</t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -58128,22 +58128,22 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Mahasiswa S1 Pendidikan Guru Sekolah Dasar</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan bahasa pemrograman Python dan SQL. Membuat visualisasi data interaktif serta menyusun laporan analisis untuk mendukung pengambilan keputusan strategis perusahaan. Berkolaborasi dengan tim produk dan manajemen untuk mengidentifikasi tren dan peluang bisnis berdasarkan data.</t>
+          <t>Melakukan penelitian dan analisis data untuk tugas akhir serta mengumpulkan dan mengolah data hasil belajar siswa. Mengikuti kegiatan praktikum data analytics untuk menerapkan teknik visualisasi dan statistik dalam konteks pendidikan. Berkolaborasi dengan dosen pembimbing dan rekan mahasiswa dalam penyusunan laporan dan presentasi hasil penelitian.</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 7 bulan 13 hari</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Machine Learning, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork, Pandas, NumPy</t>
+          <t>Python, Microsoft Excel, SQL, R, Tableau, Analisis Data, Statistik Deskriptif, Pengolahan Data, Git, Pemecahan Masalah, Komunikasi, Metodologi Pembelajaran</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
@@ -58168,7 +58168,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Algoritma Regresi Linear Berbasis Python</t>
+          <t>Penerapan Algoritma Pembelajaran Mesin untuk Klasifikasi Pelanggan dan Visualisasi Insight pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
@@ -58178,37 +58178,37 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Training with Python and Machine Learning</t>
+          <t>Pelatihan Python untuk Data Analytics dan Visualisasi</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>Data Science Professional Certification (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate - Coursera</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>Analisis Data dan Machine Learning</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan alat statistik dan bahasa pemrograman seperti Python dan SQL. Membuat visualisasi dan laporan hasil analisis untuk mendukung pengambilan keputusan perusahaan. Berkolaborasi dengan tim pengembang dan manajemen untuk mengimplementasikan solusi berbasis data.</t>
+          <t>Bertanggung jawab melakukan pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Mengembangkan model statistik dan pembelajaran mesin sederhana serta membuat visualisasi insight menggunakan Python dan alat visualisasi. Berkolaborasi dengan tim lintas fungsi untuk mengkomunikasikan temuan dan membantu implementasi hasil analisis ke dalam strategi produk.</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Machine Learning, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork, Pandas, NumPy</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Visualisasi Data dengan Matplotlib dan Seaborn, Tableau, Pembersihan Data, Analisis Statistik, Machine Learning, Git, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -58233,7 +58233,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Dashboard Analitik Penjualan Menggunakan Tableau dan Python</t>
+          <t>Sistem Informasi Analisis Penjualan Berbasis Python untuk Mendukung Pengambilan Keputusan</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
@@ -58243,37 +58243,37 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst Menggunakan Python dan SQL</t>
+          <t>Women in Tech: Python for Business (Python untuk Analisis Data Bisnis)</t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>Associate Data Analyst Certification (BNSP)</t>
+          <t>Python for Data Analysis Certificate (Women in Tech)</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan alat seperti Python dan SQL untuk mendukung pengambilan keputusan bisnis. Mengembangkan laporan visual interaktif menggunakan Tableau dan Power BI. Berkolaborasi dengan tim bisnis untuk mengidentifikasi pola dan tren dari data.</t>
+          <t>Mengumpulkan, membersihkan, dan menganalisis data bisnis menggunakan Python dan library seperti pandas serta NumPy. Membuat visualisasi dan laporan insight untuk mendukung pengambilan keputusan bisnis serta menyajikan temuan kepada tim produk dan pemasaran. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 3 bulan 12 hari</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Power BI, Data Visualization, Data Cleaning, Statistical Analysis, Problem Solving, Communication, Teamwork</t>
+          <t>Python, Pandas, NumPy, Data Visualization, SQL, Machine Learning, Git, Microsoft Excel, Tableau, Problem Solving, Communication, Teamwork, RESTful API</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
@@ -58293,52 +58293,52 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Algoritma Machine Learning untuk Prediksi Tren Data Penjualan</t>
+          <t>Analisis Perilaku Pembelian Pelanggan Menggunakan Data Mining dan Visualisasi pada Sistem Informasi Penjualan</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Analisis Data Menggunakan Python</t>
+          <t>Python for Data Analysis and SQL (Bootcamp)</t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>Analisis Data dan Visualisasi</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Peserta Program Pengembangan Karir Data Analyst Cohort</t>
+          <t>Junior Data Analyst</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Mengikuti program pelatihan intensif bidang analisis data yang berfokus pada pengolahan data, pembuatan visualisasi, dan pemodelan prediktif. Berkolaborasi dengan mentor dan peserta lain untuk menyelesaikan studi kasus menggunakan bahasa pemrograman Python dan alat visualisasi seperti Power BI.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data penjualan menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Mengembangkan dashboard interaktif di Tableau untuk visualisasi temuan serta menyusun laporan analisis berkala untuk stakeholder. Berkolaborasi dengan tim produk dan pemasaran untuk mengidentifikasi kebutuhan data dan metrik kinerja.</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>0 tahun 4 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Statistics, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Python, SQL, Pandas, NumPy, Tableau, Microsoft Excel, Git, Data Visualization, Statistical Analysis, Machine Learning, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
@@ -58358,12 +58358,12 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Permintaan Produk Menggunakan Metode Regresi Linear Berganda pada Data Penjualan Retail</t>
+          <t>Prediksi Permintaan Produk Menggunakan Regresi Linier dan Metode Ensemble pada Data Penjualan</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
@@ -58373,37 +58373,37 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Pelatihan Data Analytics: Python dan SQL</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna menghasilkan wawasan yang mendukung pengambilan keputusan bisnis. Mengembangkan laporan visualisasi data menggunakan alat seperti Tableau atau Power BI serta bekerja sama dengan tim lintas fungsi untuk mengidentifikasi peluang peningkatan kinerja dan efisiensi.</t>
+          <t>Melakukan analisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi dan dashboard insight menggunakan Tableau atau Power BI serta menyiapkan laporan analitik. Melakukan pembersihan, transformasi data, dan berkolaborasi dengan tim produk untuk merancang metrik serta menguji hipotesis bisnis.</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Machine Learning, Data Visualization, Statistical Analysis, Communication, Problem Solving, Teamwork, Critical Thinking</t>
+          <t>Python, R, SQL, Pandas, NumPy, Data Visualization, Tableau, Power BI, Machine Learning, Statistik, Data Cleaning, Git, Microsoft Excel, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -58423,52 +58423,52 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Sipil</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Python dan Tableau untuk Meningkatkan Strategi Pemasaran</t>
+          <t>Analisis Prediktif Kerusakan Struktur Bangunan Menggunakan Machine Learning dan Visualisasi dengan Power BI</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Aplikasi Data Analytics dalam Industri</t>
+          <t>Power BI Data Analyst (Pelatihan Analisis Data dan Visualisasi)</t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Microsoft Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Analisis Data dan Business Intelligence</t>
         </is>
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data menggunakan bahasa pemrograman dan alat visualisasi seperti Python, SQL, dan Tableau. Menyusun laporan analisis yang membantu pengambilan keputusan bisnis bersama tim manajemen.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data teknis konstruksi menggunakan Power BI dan Python. Membuat dashboard visualisasi interaktif untuk memantau kondisi struktur dan menyajikan insight kepada tim proyek. Berkolaborasi dengan tim teknik sipil untuk menginterpretasikan data dan memberikan rekomendasi berbasis bukti.</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>0 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Power BI, Data Visualization, Statistical Analysis, Data Cleaning, Communication, Problem Solving, Critical Thinking, Teamwork</t>
+          <t>Power BI, Microsoft Excel, Python, Structured Query Language (SQL), Data Cleaning, Machine Learning, Data Visualization, Statistical Analysis, Sistem Informasi Geografis (GIS), Interpretasi Data Struktur, Git, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
@@ -58488,12 +58488,12 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda pada Perusahaan Retail</t>
+          <t>Rancang Bangun Sistem Informasi Manajemen Pembelajaran Berbasis Web untuk Program Pendidikan Teknologi Informasi</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
@@ -58503,37 +58503,37 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Women in Tech: Python for Business</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Certificate in Python for Business (Women in Tech)</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staff Administrasi Sistem</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan insight yang mendukung pengambilan keputusan bisnis. Menggunakan alat seperti Python, SQL, dan Tableau untuk membuat visualisasi data dan laporan performa. Berkolaborasi dengan tim lintas divisi untuk mengidentifikasi peluang peningkatan efisiensi operasional.</t>
+          <t>Bertanggung jawab mengelola dan memelihara sistem administrasi internal serta mengimplementasikan skrip Python untuk automasi proses bisnis. Melakukan pemantauan performa sistem, backup data, dan troubleshooting sehari-hari. Berkolaborasi dengan tim teknologi informasi dan pengguna untuk dokumentasi teknis serta pelatihan penggunaan sistem.</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>2 tahun 3 bulan 6 hari</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Python, Analisis Data, Pemrograman Berorientasi Objek, Automasi Proses Bisnis, SQL, MySQL, Git, RESTful API, Docker, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
@@ -58553,12 +58553,12 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Analisis Regresi Linear Berganda untuk Prediksi Harga Komoditas Pertanian di Wilayah Pedesaan</t>
+          <t>Pengembangan Sistem Analisis Penjualan Berbasis Python untuk Mendukung Keputusan Bisnis</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
@@ -58568,12 +58568,12 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>Pelatihan Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Women in Tech: Python for Business</t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>Data Science Practitioner (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Google)</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -58583,22 +58583,22 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Magang Divisi Statistik Harga Pedesaan</t>
+          <t>Magang dan Anggota Tim Teknologi Informasi</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Mengumpulkan, mengolah, dan menganalisis data harga komoditas pertanian dari wilayah pedesaan. Membantu dalam pembuatan laporan statistik dan visualisasi data untuk mendukung pengambilan keputusan di instansi terkait. Berkolaborasi dengan tim analis data untuk meningkatkan akurasi dan efisiensi proses pengolahan data.</t>
+          <t>Melakukan analisis data bisnis menggunakan Python untuk menghasilkan insight yang mendukung pengambilan keputusan. Mengembangkan dan mengotomatisasi proses pembersihan data, pembuatan visualisasi, serta penyusunan laporan untuk tim. Berkolaborasi dengan tim produk dan pemasaran dalam merumuskan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Python, R, Microsoft Excel, SQL, Data Visualization, Statistik Deskriptif, Problem Solving, Communication, Teamwork, Machine Learning</t>
+          <t>Python, Analisis Data, Pandas, NumPy, Visualisasi Data, SQL, Git, Pemecahan Masalah, Kerja Tim, Komunikasi, Automasi Skrip, Pengembangan RESTful API</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
@@ -58618,12 +58618,12 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Algoritma Machine Learning Berbasis Python</t>
+          <t>Sistem Informasi Business Intelligence untuk Analisis Penjualan Berbasis Power BI</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -58633,37 +58633,37 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Bootcamp</t>
+          <t>Pelatihan Power BI untuk Analis Data (Power BI Data Analyst Training)</t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>Certified Data Scientist (BNSP)</t>
+          <t>Microsoft Certified: Power BI Data Analyst Associate (PL-300) - Microsoft</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Business Intelligence dan Analisis Data</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data Business Intelligence</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan bisnis yang informatif. Menggunakan alat seperti Python, SQL, dan Tableau untuk visualisasi data serta membantu manajemen dalam pengambilan keputusan berbasis data.</t>
+          <t>Mengembangkan dan memelihara dashboard interaktif menggunakan Power BI untuk mendukung pengambilan keputusan bisnis. Melakukan pemodelan data, pembuatan kueri SQL, dan transformasi data (ETL) untuk memastikan kualitas dan konsistensi data. Berkolaborasi dengan tim lintas fungsi untuk menyajikan insight dan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Python, SQL, Machine Learning, Data Visualization, Tableau, Excel, Problem Solving, Communication, Analytical Thinking, Teamwork, Statistics, Data Cleaning</t>
+          <t>Power BI, Structured Query Language (SQL), Python, Microsoft Excel, DAX (Data Analysis Expressions), Data Modeling, ETL (Extract, Transform, Load), Data Visualization, Business Intelligence, Statistical Analysis, Communication, Problem Solving, Teamwork, Git</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -58683,12 +58683,12 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Manajemen</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Harga Saham Menggunakan Model Regresi Linier Berganda</t>
+          <t>Analisis Pengaruh Implementasi Data Analytics terhadap Efektivitas Manajemen Sumber Daya Manusia</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -58698,37 +58698,37 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Bootcamp</t>
+          <t>Data Analytics untuk Analisis Sumber Daya Manusia (Python dan SQL)</t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Project Management: Professional Certificate (Google / Coursera)</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Manajemen Proyek</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Magang Data Analyst</t>
+          <t>Staf Pengembangan Sumber Daya Manusia, Dukungan Teknis, dan Manajemen Data</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Membantu tim analisis data dalam pengolahan dan pembersihan data menggunakan Python dan SQL. Melakukan visualisasi data untuk mendukung pengambilan keputusan bisnis serta membuat laporan hasil analisis kepada pembimbing dan tim proyek.</t>
+          <t>Bertanggung jawab mengelola proses pengembangan sumber daya manusia termasuk rekrutmen, pelatihan, dan penilaian kinerja karyawan. Menangani dukungan teknis tingkat awal serta mengelola dan menganalisis data karyawan menggunakan alat Data Analytics untuk menyusun laporan dan rekomendasi kebijakan.</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>2 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Python, SQL, Pandas, Data Visualization, Microsoft Excel, Problem Solving, Communication, Teamwork, Machine Learning, Statistics</t>
+          <t>Python, SQL, Microsoft Excel (Advanced), Power BI, Data Visualization, Manajemen Sumber Daya Manusia, Rekrutmen, Penilaian Kinerja, Troubleshooting Teknis, Manajemen Basis Data, Manajemen Proyek, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
@@ -58748,52 +58748,52 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Machine Learning untuk Prediksi Penjualan Menggunakan Python</t>
+          <t>Sistem Informasi Manajemen Promosi Pariwisata Berbasis Web dengan Integrasi Analitik Media Sosial</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Pemasaran Digital dan Analisis Media Sosial</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Programming with Python for Data Science</t>
+          <t>Optimasi Instagram menggunakan Instagram Insights untuk Pemasaran Pariwisata</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>Data Analyst Associate Certification by DataCamp</t>
+          <t>Google Analytics Individual Qualification - Google</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>Data Analysis dan Visualisasi</t>
+          <t>Analisis Data Digital</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Analis Data - Program Magang</t>
+          <t>Junior Teknologi dan Inovasi Pariwisata</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan insight bagi pengambilan keputusan bisnis. Menghasilkan visualisasi data interaktif dan laporan mendalam menggunakan Python, SQL, dan alat visualisasi seperti Tableau. Berkolaborasi dengan tim pengembang dan stakeholder untuk menyusun dashboard dan metrik performa utama.</t>
+          <t>Bertanggung jawab dalam mengembangkan dan menerapkan solusi teknologi untuk meningkatkan promosi dan pengalaman wisata, termasuk optimasi konten Instagram menggunakan data dari Instagram Insights. Melakukan analisis performa kampanye digital, menyusun rekomendasi berbasis data, dan berkolaborasi dengan pemangku kepentingan serta tim pemasaran untuk mengimplementasikan inovasi produk dan layanan.</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>0 tahun 5 bulan 0 hari</t>
+          <t>0 tahun 10 bulan 0 hari</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Analysis, Machine Learning, Data Visualization, Tableau, Microsoft Excel, Git, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Social Media Marketing, Instagram Insights Analysis, Content Creation, Digital Marketing, Google Analytics, Search Engine Optimization, Data Analysis, Adobe Photoshop, HTML, CSS, Communication, Teamwork, Problem Solving, Project Management</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
@@ -58813,52 +58813,52 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Proses Bisnis dengan Penerapan Business Intelligence Menggunakan Power BI</t>
+          <t>Perancangan dan Implementasi Sistem Manajemen Basis Data untuk Aplikasi Inventaris Berbasis Web</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Analitik dan Optimalisasi Bisnis</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>Pelatihan Analitik dan Optimalisasi Bisnis Madya 2</t>
+          <t>Pelatihan Desain Basis Data dan Pemrograman Basis Data dengan SQL</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>Business Intelligence Analyst Professional Certificate (BNSP)</t>
+          <t>Oracle Certified Professional: MySQL 5.7 Database Administrator (Oracle)</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>Analisis Data dan Optimalisasi Bisnis</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Analis Data Bisnis</t>
+          <t>Administrator Basis Data Junior</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, menganalisis, dan menginterpretasikan data bisnis guna mendukung keputusan strategis perusahaan. Mengembangkan model analisis menggunakan alat seperti Excel, Python, dan Power BI. Berkolaborasi dengan tim teknologi dan manajemen untuk meningkatkan efisiensi proses bisnis berdasarkan hasil analisis.</t>
+          <t>Bertanggung jawab untuk merancang, mengimplementasikan, dan memelihara basis data MySQL serta melakukan optimasi query untuk meningkatkan performa aplikasi. Melaksanakan prosedur backup dan recovery, pemantauan kinerja, serta penanganan insiden terkait database. Berkolaborasi dengan tim pengembang untuk integrasi database dan penerapan praktik keamanan data.</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 4 bulan 12 hari</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Data Visualization, Statistik Bisnis, Business Process Optimization, Critical Thinking, Communication, Project Management, Problem Solving</t>
+          <t>Structured Query Language (SQL), MySQL, PostgreSQL, Perancangan Basis Data, Normalisasi Data, Indexing dan Optimasi Query, Backup dan Recovery Basis Data, Keamanan Basis Data, Proses ekstraksi transformasi dan pemuatan data (ETL), Git, Pemantauan Performa Basis Data, Problem Solving, Teamwork, Komunikasi</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
@@ -58878,12 +58878,12 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear pada Sistem Informasi Berbasis Web</t>
+          <t>Pemodelan Prediktif Perilaku Konsumen pada Platform E-commerce Menggunakan Metode Statistik dan Machine Learning</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
@@ -58893,37 +58893,37 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Fundamental Data Science</t>
+          <t>Fundamental Data Science untuk Analisis Bisnis dan Pemasaran</t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>Data Science Practitioner (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Google/Coursera)</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Magang Data Analyst</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Bertanggung jawab membantu tim dalam pengumpulan, pembersihan, dan analisis data untuk kebutuhan riset internal perusahaan. Membuat visualisasi data dan laporan hasil analisis menggunakan alat seperti Python dan Tableau. Berkolaborasi dengan tim produk untuk memberikan insight berbasis data dalam proses pengambilan keputusan.</t>
+          <t>Bertanggung jawab menganalisis kinerja kampanye pemasaran digital menggunakan alat analitik seperti Google Analytics dan Microsoft Excel. Membantu perencanaan dan optimasi konten media sosial serta iklan berbayar, melakukan segmentasi audiens, dan menyusun laporan berkala untuk tim pemasaran. Berkolaborasi dengan tim desain dan produk untuk menerapkan strategi pemasaran berbasis data.</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Statistics, Communication, Problem Solving, Machine Learning, Teamwork</t>
+          <t>Python, MySQL, Google Analytics, Search Engine Optimization, Search Engine Marketing, Social Media Marketing, Data Visualization, Machine Learning, Microsoft Excel, Tableau, Pandas, NumPy, Git, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
@@ -58943,52 +58943,52 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Proses Bisnis Menggunakan Pendekatan Business Intelligence pada Perusahaan Ritel</t>
+          <t>Rancang Bangun Sistem Manajemen Inventaris Berbasis Web dengan Desain Basis Data dan Optimasi Query SQL</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Analitik dan Optimalisasi Bisnis</t>
+          <t>Pengembangan Basis Data</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>Pelatihan Analitik dan Optimalisasi Bisnis Tingkat Madya</t>
+          <t>Pelatihan Desain Basis Data dan Pemrograman Basis Data menggunakan SQL</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>Certified Business Analysis Professional (CBAP)</t>
+          <t>Oracle Database SQL Certified Associate (Oracle)</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Bisnis</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Analis Proses Bisnis</t>
+          <t>Pengembang Basis Data</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Melakukan analisis terhadap proses bisnis untuk mengidentifikasi area yang dapat dioptimalkan. Mengembangkan model bisnis berbasis data untuk meningkatkan efisiensi operasional dan profitabilitas. Berkolaborasi dengan tim lintas departemen untuk merancang solusi sistem informasi yang mendukung pengambilan keputusan strategis.</t>
+          <t>Mengembangkan dan memelihara struktur basis data termasuk perancangan skema, normalisasi, serta implementasi stored procedure dan trigger. Melakukan optimasi query dan tuning performa untuk memastikan respon yang cepat serta keandalan data, serta berkolaborasi dengan tim pengembang untuk integrasi API dan migrasi data.</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>2 tahun 7 bulan 10 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Business Process Analysis, Data Analysis, SQL, Microsoft Excel, Power BI, Communication, Problem Solving, Teamwork, Critical Thinking, Project Management</t>
+          <t>Structured Query Language (SQL), Desain Basis Data, Normalisasi Database, Pengoptimalan Query, MySQL, PostgreSQL, Pembuatan Stored Procedure dan Function, Pemodelan Data (ERD), Backup dan Recovery Basis Data, Performance Tuning, Git, Pemecahan Masalah, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
@@ -59003,17 +59003,17 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Teknik Kimia</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Optimasi Proses Pemisahan Bioetanol Menggunakan Teknologi Membran Berbasis Zeolit</t>
+          <t>Implementasi Sistem Informasi Manajemen Aset Berbasis Web Menggunakan Python dan PostgreSQL</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -59023,37 +59023,37 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan Machine Learning</t>
+          <t>Pelatihan Fundamental Data Science dengan Python</t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Assistant Data Analyst</t>
+          <t>Magang Manajemen Aset</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Bertanggung jawab membantu proses pengumpulan, pembersihan, dan analisis data menggunakan bahasa pemrograman Python serta alat analitik lainnya. Mendukung tim dalam membuat visualisasi data dan laporan untuk pengambilan keputusan bisnis berbasis data.</t>
+          <t>Membantu pengelolaan dan pemeliharaan basis data aset perusahaan serta melakukan input dan validasi data aset. Melakukan analisis data aset untuk menghasilkan laporan berkala dan rekomendasi optimasi, serta berkolaborasi dengan tim keuangan dan teknologi informasi untuk memastikan akurasi dan ketersediaan informasi aset.</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, Machine Learning, Microsoft Excel, Problem Solving, Communication, Teamwork, Pandas, Tableau</t>
+          <t>Python, SQL, Pandas, NumPy, PostgreSQL, Data Visualization, Machine Learning, Git, Data Analysis, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
@@ -59078,47 +59078,47 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Dashboard Business Intelligence untuk Pemantauan Kinerja Penjualan Menggunakan Tableau</t>
+          <t>Sistem Informasi Manajemen Inventaris Berbasis Web untuk Usaha Mikro, Kecil, dan Menengah</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Pengembangan Perangkat Lunak</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Analyst dengan Power BI dan SQL</t>
+          <t>Pelatihan Konsep Pemrograman dan Logika Komputasi</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Sertifikat Kompetensi Administrasi Perkantoran (BNSP)</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Analis Business Intelligence</t>
+          <t>Staf Administrasi</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data bisnis guna menghasilkan laporan performa perusahaan. Mengembangkan dashboard interaktif untuk mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim lintas departemen untuk mengidentifikasi tren dan peluang bisnis baru.</t>
+          <t>Bertanggung jawab melakukan input dan pengelolaan data administrasi harian serta memastikan kelengkapan dokumen dan arsip digital. Mendukung pembuatan laporan berkala menggunakan sistem informasi perusahaan dan berkoordinasi dengan tim teknologi informasi untuk pemeliharaan data dan perbaikan alur kerja. Melayani permintaan internal terkait dokumen serta membantu proses digitalisasi dan optimasi prosedur administrasi.</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Microsoft Power BI, SQL, Python, Data Visualization, Data Analysis, Excel, Problem Solving, Communication, Teamwork, Critical Thinking, Tableau, Business Intelligence Tools</t>
+          <t>Pemrograman Python, HTML, CSS, MySQL, Structured Query Language (SQL), Git, Microsoft Excel, Sistem Informasi Manajemen, Analisis Data Dasar, Problem Solving, Komunikasi, Manajemen Waktu, Pengelolaan Dokumen, Dasar RESTful API</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
@@ -59138,52 +59138,52 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Manajemen Pemasaran</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Strategi Pemasaran Digital Berbasis Kecerdasan Buatan untuk Peningkatan Penjualan Produk UMKM</t>
+          <t>Sistem Informasi Business Intelligence untuk Analisis Penjualan Menggunakan Power BI</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>Pemasaran Digital dan Kecerdasan Buatan</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>Training of Trainers Pemasaran Digital Dengan Kecerdasan Buatan (AI) untuk Wirausaha</t>
+          <t>Power BI Data Analyst Training (Microsoft Power BI)</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>Digital Marketing Professional (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>Pemasaran Digital</t>
+          <t>Business Intelligence dan Analisis Data</t>
         </is>
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Spesialis Pemasaran Digital</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam merancang, mengimplementasikan, dan menganalisis kampanye pemasaran digital untuk meningkatkan brand awareness dan konversi penjualan. Mengoptimalkan strategi pemasaran dengan pemanfaatan data analitik dan kecerdasan buatan. Berkolaborasi dengan tim kreatif dan bisnis untuk mencapai target penjualan yang telah ditentukan.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memproses data dari berbagai sumber untuk keperluan analisis. Mengembangkan dashboard dan laporan interaktif menggunakan Microsoft Power BI dan menerapkan Data Analysis Expressions (DAX) untuk visualisasi serta insight bisnis. Berkolaborasi dengan pemangku kepentingan untuk menyampaikan rekomendasi berbasis data dan mendukung pengambilan keputusan.</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Digital Marketing, Search Engine Optimization, Google Ads, Content Creation, Social Media Management, Data Analysis, Communication, Teamwork, Strategic Planning, Artificial Intelligence Application</t>
+          <t>Power BI, SQL, Python, Data Analysis, Data Visualization, Data Analysis Expressions (DAX), Extract, Transform, Load (ETL), Microsoft Excel, Data Cleaning, Tableau, Statistical Analysis, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
@@ -59203,52 +59203,52 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Manajemen Keuangan</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Tableau untuk Mendukung Pengambilan Keputusan Bisnis</t>
+          <t>Analisis Pengaruh Penggunaan Power BI dalam Pelaporan Kinerja Keuangan: Studi Kasus pada Perusahaan Manufaktur di Indonesia</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Power BI Data Analyst Training (Financial Reporting and Dashboarding)</t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft, Certified Financial Planner (CFP) - FPSB Indonesia</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Business Intelligence dan Analisis Data, Perencanaan Keuangan</t>
         </is>
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Penasihat Keuangan</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Melakukan analisis data untuk mengidentifikasi tren bisnis dan memberikan rekomendasi berbasis data. Mengelola dan membersihkan dataset besar menggunakan Python dan SQL. Membuat visualisasi interaktif menggunakan Tableau dan Power BI untuk mendukung laporan manajemen.</t>
+          <t>Bertanggung jawab memberikan nasihat keuangan dan menyusun rencana keuangan jangka pendek dan jangka panjang bagi klien individu dan korporat. Melakukan analisis kinerja investasi, pengelolaan portofolio, serta penilaian risiko menggunakan alat analisis data seperti Power BI dan Microsoft Excel. Menyusun laporan keuangan dan dashboard untuk memantau perkembangan investasi serta berkomunikasi secara rutin dengan klien mengenai rekomendasi dan strategi keuangan.</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 9 bulan 3 hari</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Data Cleaning, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Analisis Keuangan, Pengelolaan Investasi, Penilaian Risiko, Power BI, Analisis Data, Microsoft Excel, Structured Query Language (SQL), Financial Modeling, Penyusunan Laporan Keuangan, Komunikasi, Manajemen Hubungan Klien, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
@@ -59268,52 +59268,52 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Rekomendasi Produk Menggunakan Metode Collaborative Filtering Berbasis Web</t>
+          <t>Implementasi Sistem Informasi Analitik untuk Prediksi Retensi Pelanggan pada Platform E-Commerce Menggunakan Algoritma Machine Learning</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Data Analytics with Python and SQL</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Kompetensi Sistem Analis (BNSP)</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Analisis Sistem Informasi</t>
         </is>
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Staff Intern Manajemen Produk dan Merek</t>
+          <t>Digital Business Partnership Specialist</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Membantu tim manajemen produk dalam menganalisis data pasar dan perilaku konsumen untuk pengembangan strategi merek. Mengelola laporan performa produk, membuat presentasi hasil analisis, serta berkoordinasi dengan tim pemasaran untuk implementasi kampanye promosi.</t>
+          <t>Bertanggung jawab membangun dan mengelola kemitraan digital dengan pihak eksternal untuk mendukung strategi bisnis digital perusahaan. Melakukan analisis data untuk mengidentifikasi peluang kolaborasi, memonitor kinerja kemitraan berdasarkan KPI, serta berkoordinasi lintas tim untuk implementasi dan optimasi inisiatif bersama.</t>
         </is>
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>0 tahun 6 bulan 0 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Data Visualization, Python, SQL, Google Analytics, Market Research, Communication, Problem Solving, Teamwork, Time Management</t>
+          <t>Python, SQL, Machine Learning, Data Analysis, Data Visualization, Tableau, Power BI, Microsoft Excel, Sistem Informasi Analisis, RESTful API, Git, Problem Solving, Teamwork, Communication, Agile Methodology</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -59333,12 +59333,12 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Teknik Geofisika</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Analisis Prediktif Penjualan Ritel Menggunakan Metode Regresi Linier Berganda</t>
+          <t>Analisis Data Seismik untuk Identifikasi Struktur Bawah Permukaan Menggunakan Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -59348,37 +59348,37 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst dengan Python dan SQL</t>
+          <t>Wawasan Karir dan Dasar-dasar Analisis Data dengan Python</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Sertifikat Keselamatan dan Kesehatan Kerja (K3) Dasar - Badan Nasional Sertifikasi Profesi (BNSP)</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Keselamatan dan Kesehatan Kerja</t>
         </is>
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Trainee Keselamatan, Kesehatan, dan Lingkungan Kerja</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data bisnis untuk mendukung pengambilan keputusan strategis. Mengembangkan visualisasi data menggunakan tools analitik dan membuat laporan berbasis data. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi tren dan peluang peningkatan efisiensi operasional.</t>
+          <t>Melaksanakan pemantauan dan pengawasan terhadap penerapan prosedur keselamatan, kesehatan, dan lingkungan kerja di lokasi proyek. Membantu identifikasi potensi bahaya, melakukan inspeksi rutin, serta mendokumentasikan temuan dan rekomendasi perbaikan. Berkoordinasi dengan tim proyek untuk memastikan kepatuhan terhadap standar K3 dan mitigasi risiko.</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Problem Solving, Communication, Machine Learning, Teamwork</t>
+          <t>Python, Analisis Data, Pemrosesan Data Seismik, MATLAB, Sistem Informasi Geografis (GIS), Microsoft Excel, Structured Query Language (SQL), Penilaian Risiko, Prosedur Keselamatan dan Kesehatan Kerja, Inspeksi dan Pemantauan Lapangan, Penulisan Laporan Teknis, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -59398,12 +59398,12 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda pada Data Ritel</t>
+          <t>Implementasi Model Prediksi Penjualan Menggunakan Machine Learning pada Sistem Informasi Perusahaan Retail</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -59413,37 +59413,37 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Wawasan Karir dan Praktik Dasar Data Analytics dengan Python</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan berbagai alat analitik. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi tren dan peluang peningkatan kinerja perusahaan.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan library terkait untuk menghasilkan insight bisnis yang dapat ditindaklanjuti. Membangun dan memelihara dashboard serta laporan menggunakan Tableau atau Power BI, serta berkolaborasi dengan tim produk dan pemangku kepentingan untuk mengomunikasikan hasil analisis dan rekomendasi.</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Machine Learning, Data Cleaning, Critical Thinking</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, scikit-learn, Data Visualization, Tableau, Power BI, Git, Docker, Statistical Analysis, Problem Solving, Communication, Teamwork, Machine Learning</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
@@ -59458,32 +59458,32 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SMK</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Otomotif</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Informasi Penjualan Berbasis Data Analytics untuk Optimalisasi Keputusan Bisnis</t>
+          <t>Tidak ada tugas akhir (tingkat SMK)</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Digitalisasi UMKM</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Digitalisasi UMKM Berbasis Syariah</t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>Data Analyst Associate Certification (BNSP)</t>
+          <t>Junior Data Analyst (BNSP)</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -59493,22 +59493,22 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Analis Data Junior</t>
+          <t>Mitra Pendataan dan Pengolahan Data</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna menghasilkan insight bisnis yang relevan. Membuat visualisasi data menggunakan alat analisis seperti Tableau dan Power BI. Berkolaborasi dengan tim manajemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab untuk melakukan pendataan lapangan UMKM termasuk pengumpulan, verifikasi, dan perekaman data menggunakan formulir digital dan spreadsheet. Mengolah, membersihkan, dan memvalidasi data untuk keperluan pelaporan serta menyusun laporan ringkasan dan visualisasi sederhana. Berkoordinasi dengan tim pelatihan dan pemangku kepentingan untuk memastikan kualitas data dan kepatuhan terhadap prinsip syariah dalam proses digitalisasi.</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>3 tahun 7 bulan 25 hari</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Problem Solving, Communication, Teamwork, Statistical Analysis</t>
+          <t>Pengumpulan Data Lapangan, Pengolahan Data, Pembersihan Data, Microsoft Excel, Google Sheets, SQL (Structured Query Language), Python untuk Analisis Data, Visualisasi Data (Tableau, Power BI), Manajemen Basis Data, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
@@ -59528,52 +59528,52 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Perencanaan Wilayah dan Kota</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Dashboard Interaktif untuk Pemantauan Kinerja Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Analisis Spasial Perubahan Penggunaan Lahan Menggunakan Sistem Informasi Geografis (Studi Kasus: Kota Bandung)</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Produksi Konten Digital</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan SQL oleh Digital Talent Scholarship</t>
+          <t>Pelatihan Video Content Creator: Produksi dan Editing Konten Digital</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Esri Technical Certification: ArcGIS Desktop Associate (Esri)</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Sistem Informasi Geografis</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Operator Sistem Informasi Geografis</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan alat seperti Python dan SQL untuk menghasilkan insight bisnis. Membuat visualisasi data yang informatif menggunakan Tableau dan Google Data Studio. Berkolaborasi dengan tim produk dan manajemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab mengumpulkan, memproses, dan menganalisis data spasial menggunakan perangkat lunak GIS seperti ArcGIS dan QGIS. Menyusun peta tematik, melakukan pemrosesan citra satelit, serta memelihara basis data geografis menggunakan PostgreSQL/PostGIS. Berkolaborasi dengan tim perencanaan kota untuk menyediakan output analisis dan visualisasi yang mendukung pengambilan keputusan.</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 6 bulan 24 hari</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Google Data Studio, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Teamwork, Statistical Analysis, Critical Thinking</t>
+          <t>Sistem Informasi Geografis, ArcGIS, QGIS, Pengolahan Data Spasial, Analisis Spasial, Python untuk Analisis Geospasial, PostgreSQL/PostGIS, Pengolahan Citra Satelit, Pembuatan Peta (Kartografi), Video Editing, Produksi Konten Video, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
@@ -59593,52 +59593,52 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Ilmu Administrasi Negara</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Harga Rumah Menggunakan Machine Learning Berbasis Python</t>
+          <t>Analisis Sistem Administrasi Publik dan Efektivitas Pelayanan Berbasis Teknologi Informasi</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Pengoperasian Sistem Komputer dan Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science Fundamental dengan Python</t>
+          <t>Operator Komputer Madya</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>Certified Data Scientist (BNSP)</t>
+          <t>Sertifikat Kompetensi Pengelola Administrasi Perkantoran (BNSP)</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Asisten Dosen</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Melakukan analisis data untuk menghasilkan insight bisnis, membersihkan dan memproses data menggunakan Python dan SQL. Membuat visualisasi data interaktif serta menyusun laporan hasil analisis untuk mendukung pengambilan keputusan strategis perusahaan.</t>
+          <t>Membantu dosen dalam menyiapkan bahan ajar, menyusun materi kuliah, dan memfasilitasi kegiatan praktikum serta tutorial. Melakukan pengoreksian tugas dan ujian, mengelola administrasi perkuliahan, serta mendukung kegiatan penelitian dan publikasi akademik.</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Python, SQL, Machine Learning, Data Visualization, Pandas, NumPy, Problem Solving, Communication, Tableau, Teamwork, Data Cleaning, Statistical Analysis</t>
+          <t>Pengoperasian Komputer, Microsoft Office (Word, Excel, PowerPoint), Pengelolaan Administrasi Akademik, Pengolahan Data, Basis Data MySQL, Pengarsipan Digital, Komunikasi, Kerja Sama Tim, Penelitian Akademik, Pembimbingan Mahasiswa, Penggunaan Learning Management System, Manajemen Waktu</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
@@ -59658,12 +59658,12 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda pada Perusahaan Retail</t>
+          <t>Sistem Pendukung Keputusan Penjualan Berbasis Data Mining untuk Meningkatkan Strategi Pemasaran pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
@@ -59673,17 +59673,17 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (Microsoft)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
@@ -59693,17 +59693,17 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan bahasa pemrograman dan perangkat statistik. Menghasilkan laporan dan visualisasi data yang mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi peluang peningkatan kinerja bisnis melalui analisis berbasis data.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL untuk menghasilkan insight bisnis. Membuat visualisasi dan laporan berkala menggunakan Tableau atau Power BI serta berkolaborasi dengan tim produk untuk merekomendasikan tindakan berbasis data.</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Statistik Deskriptif, Machine Learning, Data Visualization, Communication, Problem Solving, Critical Thinking, Teamwork</t>
+          <t>Python, SQL, Pandas, NumPy, Machine Learning, Data Visualization, Tableau, Power BI, Statistik, Git, Pemecahan Masalah, Komunikasi</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
@@ -59723,52 +59723,52 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Agribisnis</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Analisis Efisiensi Penggunaan Lahan dan Faktor Produksi pada Usaha Tani Padi di Kabupaten Sleman</t>
+          <t>Analisis Prediktif Penjualan Menggunakan Teknik Pembelajaran Mesin pada Platform E-commerce Berbasis Sistem Informasi</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>Pelatihan Dasar AWS Cloud Foundation</t>
+          <t>Pelatihan Data Analytics dan Pemrosesan Data Menggunakan Python dan SQL</t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>AWS Certified Cloud Practitioner</t>
+          <t>Google Data Analytics Professional Certificate - Google</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Assistant Research</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Membantu peneliti utama dalam pengumpulan dan analisis data penelitian terkait pertanian digital berbasis teknologi cloud. Melakukan pengolahan data menggunakan perangkat lunak statistik serta menyiapkan laporan hasil penelitian untuk presentasi internal dan eksternal.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan mengolah data menggunakan Python dan SQL untuk mendukung kebutuhan analisis. Mengembangkan model prediktif serta membuat visualisasi dan dashboard interaktif untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk menerjemahkan kebutuhan bisnis menjadi solusi data yang dapat diimplementasikan.</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>1 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Data Analysis, Microsoft Excel, Cloud Computing, Research Methodology, Statistical Software (SPSS), Communication, Teamwork, Problem Solving, Report Writing, Time Management</t>
+          <t>Python, SQL, Pandas, NumPy, Machine Learning, Data Visualization, Tableau, Power BI, Git, Data Cleaning, Statistik, Komunikasi, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
@@ -59788,12 +59788,12 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Teknik Elektro</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Monitoring Konsumsi Energi Listrik Berbasis Internet of Things untuk Efisiensi Energi Rumah Tangga</t>
+          <t>Implementasi Sistem Business Intelligence untuk Analisis Penjualan Menggunakan Power BI pada Perusahaan Ritel</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
@@ -59803,37 +59803,37 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>Pelatihan Fundamental Data Science Menggunakan Python dan Statistik Terapan</t>
+          <t>Pelatihan Power BI Data Analyst (Dashboard, DAX, dan ETL)</t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Power BI Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>Analisis Data dan Visualisasi</t>
+          <t>Business Intelligence</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Analis Business Intelligence</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Membantu dalam proses pengumpulan, pembersihan, dan analisis data menggunakan Python dan Power BI. Membuat laporan visual dan dashboard untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim data senior untuk mengoptimalkan alur kerja analisis data dan presentasi hasil kepada manajemen.</t>
+          <t>Mengembangkan dan memelihara dashboard interaktif menggunakan Power BI untuk mendukung pengambilan keputusan bisnis. Melakukan pemodelan data, pembersihan data, penerapan DAX, serta integrasi sumber data melalui proses ETL. Berkolaborasi dengan pemangku kepentingan untuk menyampaikan insight, laporan berkala, dan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>0 tahun 4 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Python, Power BI, SQL, Data Visualization, Statistical Analysis, Microsoft Excel, Problem Solving, Communication, Machine Learning, Teamwork</t>
+          <t>Power BI, SQL, Python, Microsoft Excel, DAX (Data Analysis Expressions), Data Modeling, ETL (Extract Transform Load), Data Visualization, MySQL, Git, Statistical Analysis, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
@@ -59853,12 +59853,12 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Harga Saham Menggunakan Metode Regresi Linier Berganda Berbasis Python</t>
+          <t>Sistem Informasi Visualisasi Data Analitik Berbasis Web untuk Mendukung Pengambilan Keputusan</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
@@ -59868,37 +59868,37 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Penerapan Data Analytics di Industri</t>
+          <t>Visualisasi Data untuk Analisis Bisnis dengan Python, Matplotlib, Seaborn dan D3.js</t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Google Data Analytics Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science dan Visualisasi Data</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Spesialis Visualisasi Data</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Mengembangkan visualisasi data informatif menggunakan alat seperti Tableau dan Power BI. Berkolaborasi dengan tim lintas fungsi untuk menerjemahkan hasil analisis menjadi rekomendasi strategis yang berdampak.</t>
+          <t>Mengembangkan dashboard interaktif dan visualisasi data untuk mendukung analisis bisnis menggunakan Python, D3.js, serta alat visualisasi komersial. Melakukan pembersihan, transformasi, dan analisis data untuk menyediakan insight yang akurat bagi stakeholder. Berkolaborasi dengan tim produk dan manajemen untuk menerjemahkan kebutuhan bisnis menjadi representasi data yang mudah dipahami dan dioptimalkan.</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Excel, Machine Learning, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Python, JavaScript, D3.js, Matplotlib, Seaborn, SQL, PostgreSQL, Tableau, Power BI, Git, Data Cleaning, Statistical Analysis, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
@@ -59918,52 +59918,52 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Perencanaan Wilayah dan Kota</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Perencanaan Pengembangan Kawasan Permukiman Berbasis Keberlanjutan di Kota Bandung</t>
+          <t>Implementasi Model Pembelajaran Mesin untuk Prediksi Penjualan pada Platform E-commerce Berbasis Python</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>Desain Grafis dan Komunikasi Visual</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>Pelatihan Junior Graphic Designer BNSP</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor (Workshop)</t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>Sertifikasi Kompetensi Desainer Grafis (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>Desain Grafis</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Field Staff Akses Reforma Agraria</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan data dan verifikasi lapangan untuk program Reforma Agraria. Memfasilitasi masyarakat dalam proses legalisasi aset dan akses reform. Berkoordinasi dengan instansi pemerintah daerah untuk mendukung implementasi kebijakan agraria.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data dan menyusun laporan insights menggunakan Matplotlib dan Tableau serta berkolaborasi dengan tim produk untuk menyajikan temuan. Melakukan evaluasi model machine learning sederhana dan membantu implementasi solusi analitis.</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>1 tahun 5 bulan 0 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Adobe Photoshop, Adobe Illustrator, Layout Design, Data Collection, Geographic Information Systems, Public Communication, Teamwork, Problem Solving, Project Coordination, Report Writing</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Matplotlib, Tableau, Git, Machine Learning, Statistical Analysis, Data Cleaning, Data Visualization, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
@@ -59983,12 +59983,12 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Teknik Geofisika</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Analisis Struktur Bawah Permukaan Menggunakan Metode Seismik Refleksi di Wilayah Pantai Utara Jawa</t>
+          <t>Analisis Prediktif Penjualan dengan Metode Regresi dan Visualisasi Menggunakan Power BI</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
@@ -59998,37 +59998,37 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science dengan Python untuk Analisis Geospasial</t>
+          <t>Pelatihan Power BI untuk Analis Data</t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Internship Data Scientist</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Membantu tim dalam mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL. Membuat visualisasi data untuk menjelaskan pola dan tren yang relevan bagi pengambilan keputusan bisnis. Berkolaborasi dengan tim riset dan pengembangan untuk merancang model prediktif sederhana.</t>
+          <t>Melakukan pengolahan dan analisis data menggunakan Power BI dan Python untuk mendukung pengambilan keputusan bisnis. Membuat dashboard interaktif, visualisasi data, dan laporan berkala serta melakukan pembersihan data dan transformasi ETL. Berkolaborasi dengan tim untuk mengumpulkan kebutuhan bisnis dan menyampaikan insight secara jelas.</t>
         </is>
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, Machine Learning, Microsoft Excel, Critical Thinking, Communication, Teamwork, Pandas, NumPy</t>
+          <t>Power BI, Python, SQL, Data Visualization, Statistik, Microsoft Excel, Data Cleaning, ETL, Tableau, Machine Learning, Git, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L917" t="inlineStr">
@@ -60048,52 +60048,52 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Perancangan Basis Data Sistem Informasi Akademik Berbasis Web pada Universitas XYZ</t>
+          <t>Implementasi Sistem Analisis Sentimen Berbasis Pembelajaran Mesin untuk Mendukung Keputusan Bisnis pada Platform E-Commerce</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>Manajemen Basis Data</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>Pelatihan Database Design and Programming with SQL</t>
+          <t>Microsoft Azure Artificial Intelligence Engineer Training</t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>Oracle Certified Associate, MySQL Database Administration</t>
+          <t>Microsoft Certified: Azure AI Engineer Associate (Microsoft)</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>Manajemen Basis Data</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Analis Basis Data</t>
+          <t>Analis Bisnis Magang</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam merancang, mengembangkan, dan mengelola struktur basis data sesuai kebutuhan sistem. Melakukan optimasi performa query, menjaga integritas data, serta mendukung tim pengembang dalam implementasi fitur berbasis data. Berkoordinasi dengan tim infrastruktur untuk menjaga keamanan dan ketersediaan data.</t>
+          <t>Mengumpulkan dan menganalisis kebutuhan bisnis dengan berkoordinasi bersama pemangku kepentingan untuk merumuskan solusi berbasis data. Melakukan analisis data dasar, menyusun laporan insight bisnis, serta mendukung tim pengembangan dalam pembuatan user story dan pengujian fitur. Menggunakan alat analisis seperti Microsoft Excel, Power BI, dan layanan Azure untuk mendukung pengambilan keputusan.</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 7 bulan 13 hari</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>SQL, MySQL, Database Design, Data Modeling, PL/SQL, Python, Problem Solving, Communication, Analytical Thinking, Teamwork, Version Control, Query Optimization</t>
+          <t>Python, Structured Query Language (SQL), Microsoft Azure, Azure Cognitive Services, Power BI, Microsoft Excel, Requirement Gathering, Stakeholder Management, Data Analysis, Communication, Problem Solving, Unified Modeling Language (UML), RESTful API</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
@@ -60113,52 +60113,52 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Manajemen</t>
+          <t>Kimia</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Analisis Strategi Pemasaran Digital untuk Meningkatkan Brand Awareness pada Perusahaan Ritel Online</t>
+          <t>Sintesis dan Karakterisasi Senyawa Organik sebagai Antioksidan untuk Aplikasi Farmasi</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Pemasaran Digital</t>
+          <t>Pengembangan Media Pembelajaran Digital</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>Pelatihan Dasar Pemasaran Digital oleh Kementerian Komunikasi dan Informatika</t>
+          <t>Media Digital bagi Guru dan Tenaga Kependidikan (Cakap Digital)</t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Digital Marketing Professional (BNSP)</t>
+          <t>Sertifikat Literasi Digital untuk Pendidik — Cakap Digital</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>Pemasaran Digital</t>
+          <t>Teknologi Pendidikan dan Pengembangan Media Pembelajaran Digital</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Magang Pemasaran Digital</t>
+          <t>Administrator Sistem Informasi Pendidikan</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Membantu tim pemasaran dalam merancang dan menjalankan kampanye digital melalui media sosial dan email marketing. Melakukan analisis data performa kampanye menggunakan alat analitik untuk memberikan rekomendasi perbaikan strategi promosi. Berkolaborasi dengan tim konten untuk meningkatkan engagement audiens.</t>
+          <t>Bertanggung jawab mengelola dan memelihara sistem informasi administrasi pendidikan, termasuk penginputan data peserta, pembaruan konten digital, dan pembuatan laporan berkala. Mendukung proses pembelajaran dengan menyiapkan materi digital dan berkoordinasi dengan tenaga kependidikan untuk pelaksanaan pelatihan serta memberikan dukungan teknis tingkat dasar kepada pengguna. Melakukan backup data rutin dan memastikan keamanan dasar data administrasi.</t>
         </is>
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>Digital Marketing, Social Media Management, Content Creation, Google Analytics, Search Engine Optimization, Copywriting, Teamwork, Communication, Data Analysis, Problem Solving</t>
+          <t>Manajemen Administrasi Perkantoran, Microsoft Office (Word, Excel, PowerPoint), Google Workspace, Manajemen Konten Digital, Pengembangan Media Pembelajaran Digital, Pengolahan Data dan Analisis menggunakan MySQL, Entri Data, Komunikasi Efektif, Pelayanan Publik, Pemecahan Masalah, Kolaborasi Tim</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
@@ -60183,47 +60183,47 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Implementasi Algoritma Pembelajaran Mesin untuk Klasifikasi Data Pelanggan pada Sistem Penjualan Online</t>
+          <t>Sistem Analisis Big Data untuk Prediksi Permintaan Pelanggan Menggunakan Python</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Kecerdasan Artifisial</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>Pelatihan Dasar-Dasar Implementasi Kecerdasan Artifisial</t>
+          <t>Pelatihan Big Data menggunakan Python: Pemrosesan dan Analisis Data</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Azure AI Fundamentals</t>
+          <t>Python for Data Science Professional Certificate (IBM)</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>Kecerdasan Buatan</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Staff Data Entry</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Menginput, memeriksa, dan memperbarui data pelanggan ke dalam sistem database perusahaan. Memastikan keakuratan dan konsistensi data serta berkoordinasi dengan tim administrasi dan analisis data untuk menjaga kelancaran proses bisnis.</t>
+          <t>Mengumpulkan, membersihkan, dan memproses dataset besar menggunakan Python dan pustaka terkait untuk mendukung analisis bisnis. Mengembangkan model analitik dan visualisasi data untuk memberikan insight yang dapat ditindaklanjuti serta berkolaborasi dengan tim produk dan pemangku kepentingan untuk mengimplementasikan solusi data. Menyusun dokumentasi teknis dan melakukan pemeliharaan pipeline data agar berjalan efisien.</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Data Entry Management, SQL, Python, Attention to Detail, Time Management, Communication, Teamwork, Database Maintenance, Problem Solving</t>
+          <t>Python, Pandas, NumPy, PySpark, Hadoop, Structured Query Language (SQL), Data Visualization, Machine Learning, Data Cleaning, Git, Docker, Communication, Problem Solving</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
@@ -60243,52 +60243,52 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Performa Akademik Mahasiswa Menggunakan Regresi Linear Berganda</t>
+          <t>Sistem Pemrosesan dan Analisis Big Data Menggunakan Python dan Apache Spark</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Big Data dengan Python dan Apache Spark</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Pelayan Restoran</t>
+          <t>Magang Data Scientist</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk melayani pelanggan dengan ramah dan profesional, mencatat pesanan dengan akurat, serta memastikan kepuasan pelanggan. Menjaga kebersihan area kerja dan membantu tim dalam memberikan pengalaman makan yang menyenangkan bagi pelanggan.</t>
+          <t>Membantu tim dalam mengumpulkan, membersihkan, dan memproses data besar menggunakan Python dan Apache Spark. Berkontribusi pada pembuatan model analitik serta visualisasi data untuk mendukung pengambilan keputusan, dan berkolaborasi dengan tim untuk menerapkan solusi yang dioptimalkan.</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>Customer Service, Komunikasi, Kerja Tim, Time Management, Problem Solving, Manajemen Stres, Etika Profesional, Ketelitian, Adaptabilitas, Pelayanan Pelanggan</t>
+          <t>Python, Apache Spark, Pandas, NumPy, SQL, Hadoop, Machine Learning, Data Visualization, Git, Docker, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
@@ -60308,27 +60308,27 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Analisis Data Pelanggan Menggunakan Metode Clustering untuk Meningkatkan Strategi Pemasaran</t>
+          <t>Penerapan Metode Machine Learning untuk Prediksi Churn Pelanggan pada Perusahaan E-Commerce (Studi Kasus)</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Artificial Intelligence for Junior Developer — Machine Learning dan Analisis Data</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>Data Analyst Associate Certification (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -60338,22 +60338,22 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Data dan Pertumbuhan (Magang)</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data interaktif dan laporan analisis menggunakan tools seperti Python, Excel, dan Tableau. Bekerja sama dengan tim manajemen dalam merancang strategi berbasis data.</t>
+          <t>Bertanggung jawab menganalisis data pengguna dan metrik pertumbuhan untuk mengidentifikasi peluang peningkatan retensi dan akuisisi. Membuat dashboard dan laporan menggunakan SQL serta alat visualisasi, melakukan eksperimen A/B, dan berkolaborasi dengan tim pemasaran untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Teamwork, Communication, Critical Thinking, Machine Learning, Power BI</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Tableau, Google Analytics, Microsoft Excel, A/B Testing, Data Visualization, Git, Komunikasi, Kerja Tim, Problem Solving</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
@@ -60373,52 +60373,52 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Manajemen Pendidikan</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Perancangan dan Implementasi Basis Data Akademik Berbasis Web Menggunakan MySQL dan PHP</t>
+          <t>Sistem Informasi Administrasi Sekolah Berbasis Web untuk Meningkatkan Efisiensi Pengelolaan Data Siswa</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Manajemen Basis Data</t>
+          <t>Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>Pelatihan Dasar Database Foundation BNSP</t>
+          <t>Pelatihan Aplikasi Perkantoran bagi Guru dan Tenaga Kependidikan</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>Oracle Certified Associate, MySQL Database Administrator</t>
+          <t>Sertifikasi Administrasi Perkantoran dari BNSP</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>Administrasi Basis Data</t>
+          <t>Administrasi Perkantoran</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Administrator Basis Data</t>
+          <t>Staff Administrasi Sekolah</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengelola dan memelihara sistem basis data untuk memastikan keamanan, integritas, dan ketersediaan data. Melakukan backup dan recovery data, optimasi performa query, serta mendukung tim pengembang dalam desain skema database yang efisien.</t>
+          <t>Bertanggung jawab mengelola kegiatan administrasi sekolah termasuk pengelolaan data siswa, pembuatan laporan, dan pengarsipan digital menggunakan aplikasi perkantoran. Menyusun dan mengkoordinasikan dokumen akademik serta berkolaborasi dengan guru dalam pengelolaan jadwal dan kehadiran. Melakukan pengolahan data menggunakan spreadsheet serta memastikan keamanan dan keteraturan arsip administrasi.</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>2 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>MySQL, PostgreSQL, SQL Server, Database Design, Data Backup and Recovery, Performance Optimization, Problem Solving, Teamwork, Communication, Linux Server Administration, Version Control (Git), Analytical Thinking</t>
+          <t>Microsoft Excel, Microsoft Word, Microsoft PowerPoint, Google Workspace, Pengolahan Data, Manajemen Data, Sistem Informasi Akademik, Administrasi Perkantoran, Pengelolaan Arsip Digital, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
@@ -60438,52 +60438,52 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linier Berganda Berbasis Python</t>
+          <t>Sistem Informasi Manajemen Inventori Berbasis Web dengan Perancangan Basis Data Relasional dan Optimasi Query</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Basis Data</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>Bootcamp Data Analytics untuk Perempuan</t>
+          <t>Database Design &amp; Programming with SQL</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Oracle Certified Professional: MySQL 5.7 Database Administrator (Oracle)</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Pengembang Basis Data</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan alat seperti Python dan SQL untuk menghasilkan laporan dan insight bisnis. Mengembangkan dashboard interaktif dengan Tableau untuk membantu pengambilan keputusan. Berkolaborasi dengan tim marketing dan manajemen untuk mengidentifikasi peluang peningkatan performa bisnis.</t>
+          <t>Merancang dan mengimplementasikan skema basis data relasional untuk aplikasi internal serta menulis query SQL kompleks dan stored procedure untuk kebutuhan bisnis. Melakukan optimasi performa query, pengindeksan, serta backup dan recovery data untuk memastikan ketersediaan dan integritas data. Bekerja sama dengan tim pengembang aplikasi untuk integrasi database dan mendukung pembuatan laporan serta analisis data.</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>2 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Google Data Studio, Data Visualization, Problem Solving, Communication, Critical Thinking, Statistical Analysis, Machine Learning, Teamwork</t>
+          <t>Perancangan Basis Data Relasional, SQL, MySQL, PostgreSQL, Indeksasi dan Optimasi Query, Stored Procedure, Backup dan Recovery Basis Data, Normalisasi Basis Data, Pemodelan ER, Monitoring Performa Basis Data, Git, Problem Solving, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
@@ -60503,52 +60503,52 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Ilmu Komunikasi</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Strategi Komunikasi Digital dalam Meningkatkan Brand Awareness UMKM melalui Platform Fintech Syariah</t>
+          <t>Prediksi Penjualan Berbasis Machine Learning pada Data Penjualan Ritel menggunakan Python dan SQL</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>Keuangan Digital Syariah</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>Pelatihan Permodalan Fintech Syariah untuk UMKM</t>
+          <t>Pelatihan Data Analyst: Python, SQL, dan Visualisasi Data</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>Sertifikasi Keuangan Digital Syariah (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Google / Coursera)</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>Keuangan Digital dan Fintech Syariah</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Staf Administrasi Keuangan</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengelolaan administrasi keuangan harian perusahaan, termasuk pencatatan transaksi dan pembuatan laporan keuangan bulanan. Mengelola data mitra UMKM dan membantu proses perencanaan dan evaluasi keuangan berbasis sistem digital syariah.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Mengembangkan dashboard dan visualisasi interaktif menggunakan Tableau atau Power BI serta menyajikan insight kepada stakeholder. Berkolaborasi dengan tim produk dan pemasaran untuk menyusun rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>1 tahun 3 bulan 22 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Komunikasi, Manajemen Keuangan, Microsoft Excel, Analisis Data, Penulisan Laporan, Problem Solving, Teamwork, Pengelolaan Basis Data, Digital Literacy, Time Management</t>
+          <t>Python, SQL, Pandas, NumPy, Data Cleaning, Exploratory Data Analysis, Data Visualization, Tableau, Power BI, Machine Learning, Statistical Analysis, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
@@ -60568,12 +60568,12 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Akuntansi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Analisis Pengaruh Penerapan Sistem Akuntansi Manajemen terhadap Efisiensi Kinerja Keuangan Perusahaan</t>
+          <t>Implementasi Pipeline Pengolahan Big Data Menggunakan Python dan Apache Spark untuk Analisis Transaksi</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
@@ -60583,37 +60583,37 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python</t>
+          <t>Big Data Processing with Python and Apache Spark</t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Consulting Intern</t>
+          <t>Junior Data Engineer</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Membantu tim konsultan dalam melakukan analisis data keuangan dan operasional klien. Menyusun laporan berbasis data untuk mendukung pengambilan keputusan strategis. Berkolaborasi dengan tim dalam penyusunan rekomendasi solusi bisnis berbasis data.</t>
+          <t>Mengembangkan dan memelihara pipeline pengolahan data besar menggunakan Python dan Apache Spark untuk kebutuhan analisis. Melakukan proses ETL, optimasi performa pemrosesan data, serta memastikan kualitas dan konsistensi data. Berkolaborasi dengan tim data scientist dan tim infrastruktur untuk implementasi dan deployment solusi data.</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Python, SQL, Data Visualization, Financial Analysis, Communication, Critical Thinking, Teamwork, Problem Solving, Tableau</t>
+          <t>Python, Apache Spark, Pandas, NumPy, SQL, Hadoop, ETL, Data Modeling, Machine Learning, Docker, Version Control (Git), Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
@@ -60638,7 +60638,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Tableau dan Python</t>
+          <t>Implementasi Sistem Business Intelligence untuk Analisis Penjualan Menggunakan Power BI (Studi Kasus pada Perusahaan Ritel)</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -60648,37 +60648,37 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Power BI Data Analyst (Analisis dan Visualisasi Data menggunakan Microsoft Power BI)</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Analisis Data dan Business Intelligence</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Business Intelligence</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Mengumpulkan, membersihkan, dan mengolah data dari berbagai sumber untuk menghasilkan laporan analisis yang akurat. Menggunakan alat visualisasi seperti Power BI dan Tableau untuk mendukung pengambilan keputusan strategis perusahaan. Bekerja sama dengan tim lintas divisi untuk merancang metrik kinerja dan mengidentifikasi peluang peningkatan efisiensi bisnis.</t>
+          <t>Mengembangkan dan memelihara dashboard serta laporan interaktif menggunakan Microsoft Power BI untuk mendukung pengambilan keputusan bisnis. Melakukan ekstraksi, transformasi, dan pemodelan data serta pembuatan rumus DAX untuk analisis mendalam. Berkolaborasi dengan pemangku kepentingan untuk menentukan kebutuhan laporan dan meningkatkan kualitas data.</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Microsoft Excel, Data Visualization, Business Intelligence, Communication, Problem Solving, Teamwork, Statistical Analysis, Data Cleaning</t>
+          <t>Power BI, Microsoft SQL Server, DAX (Data Analysis Expressions), SQL, Excel Lanjutan, Data Visualization, Data Modeling, ETL, Python untuk Analisis Data, Git, Problem Solving, Communication, Stakeholder Management</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -60698,52 +60698,52 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Basis Data Akademik Berbasis Web Menggunakan MySQL dan PHP</t>
+          <t>Sistem Pendukung Keputusan untuk Analisis Data Penjualan Berbasis Machine Learning</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Database</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>Database Design and Programming with SQL</t>
+          <t>Pelatihan Wawasan Karir dan Dasar Data Analytics</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>Oracle Certified Associate, MySQL Database Administrator</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>Manajemen Basis Data</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Staff Pengembang Basis Data</t>
+          <t>Mahasiswa Teknik Informatika</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam merancang, mengimplementasikan, dan memelihara struktur basis data perusahaan. Melakukan optimasi query, backup data, serta menjamin keamanan dan ketersediaan data. Berkolaborasi dengan tim developer untuk memastikan integrasi data yang efisien dalam aplikasi internal.</t>
+          <t>Mengembangkan proyek akademik dan melakukan analisis data menggunakan Python serta library data science. Mengumpulkan, membersihkan, dan memvisualisasikan dataset untuk mendukung pengambilan keputusan serta berkolaborasi dalam tim untuk menyusun laporan dan presentasi hasil.</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>SQL, MySQL, PostgreSQL, Database Design, Data Modeling, Performance Optimization, Python, Problem Solving, Communication, Teamwork, Git, Agile Methodology</t>
+          <t>Python, Structured Query Language, Pandas, NumPy, Scikit-learn, Data Visualization, Data Cleaning, Machine Learning, Matplotlib, Seaborn, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
@@ -60763,12 +60763,12 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Microsoft Power BI untuk Pengambilan Keputusan Bisnis</t>
+          <t>Analisis Perilaku Pelanggan pada Platform E-Commerce Menggunakan Metode Clustering K-Means dan Visualisasi Data</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
@@ -60778,37 +60778,37 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>Pelatihan Power BI Data Analyst Profesional</t>
+          <t>Pelatihan Data Analyst: Data Processing dan Visualisasi menggunakan Python</t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Bertanggung jawab melakukan analisis data untuk menghasilkan laporan yang mendukung strategi bisnis perusahaan. Mengembangkan dashboard interaktif menggunakan Power BI dan melakukan data cleaning serta data transformation untuk meningkatkan akurasi laporan. Berkolaborasi dengan tim manajemen untuk mengidentifikasi tren dan peluang dari data perusahaan.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan mengolah data dari berbagai sumber menggunakan Python dan Structured Query Language. Melakukan analisis statistik serta membuat visualisasi dan laporan untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk menerjemahkan temuan data menjadi rekomendasi yang dapat diimplementasikan.</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Microsoft Power BI, SQL, Python, Data Visualization, Data Cleaning, Business Intelligence, Critical Thinking, Problem Solving, Teamwork, Communication</t>
+          <t>Python, R, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Power BI, Tableau, Data Visualization, Data Cleaning, Statistical Analysis, Machine Learning, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
@@ -60828,12 +60828,12 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Power BI untuk Mendukung Pengambilan Keputusan Bisnis</t>
+          <t>Implementasi Dashboard Business Intelligence untuk Analisis Penjualan Menggunakan Power BI (Studi Kasus Perusahaan Ritel)</t>
         </is>
       </c>
       <c r="D930" t="inlineStr">
@@ -60843,37 +60843,37 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Pelatihan Power BI Data Analyst Professional</t>
+          <t>Pelatihan Power BI untuk Analis Data</t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Power BI Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (PL-300) - Microsoft</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
         <is>
-          <t>Data Analysis dan Business Intelligence</t>
+          <t>Analisis Data dan Business Intelligence</t>
         </is>
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Analis Data Bisnis</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Mengumpulkan, membersihkan, dan menganalisis data bisnis untuk mendukung pengambilan keputusan strategis perusahaan. Membuat dashboard interaktif menggunakan Power BI agar manajemen dapat memantau kinerja operasional secara real-time. Berkolaborasi dengan tim lintas departemen untuk mengidentifikasi tren dan peluang peningkatan efisiensi bisnis.</t>
+          <t>Membantu tim dalam mengumpulkan dan membersihkan data dari berbagai sumber serta menyiapkan dataset untuk analisis. Mengembangkan dan memelihara dashboard interaktif menggunakan Power BI untuk menyajikan insight bisnis serta membuat laporan rutin. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk menerjemahkan kebutuhan bisnis menjadi visualisasi yang informatif.</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Power BI, SQL, Microsoft Excel, Python, Data Visualization, Business Analysis, Problem Solving, Communication, Data Cleaning, Statistical Analysis, Dashboard Development, Teamwork</t>
+          <t>Power BI, Microsoft Excel, Structured Query Language (SQL), Python, Data Cleaning, Data Visualization, Business Intelligence, Microsoft Power Query, Data Analysis Expressions (DAX), Version Control with Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
@@ -60893,12 +60893,12 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Power BI untuk Mendukung Pengambilan Keputusan Bisnis</t>
+          <t>Sistem Informasi Analitik Penjualan Berbasis Web untuk Mendukung Pengambilan Keputusan</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -60908,12 +60908,12 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>Power BI Data Analyst Training</t>
+          <t>Pelatihan Wawasan Karir dan Dasar Data Analytics</t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Power BI Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -60923,22 +60923,22 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Asisten Administrasi Magang</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data untuk menghasilkan laporan yang mendukung pengambilan keputusan bisnis. Membuat visualisasi data interaktif menggunakan Power BI dan memastikan kualitas serta konsistensi data. Berkolaborasi dengan tim lintas fungsi untuk memahami kebutuhan analitis organisasi.</t>
+          <t>Melaksanakan tugas administrasi harian termasuk input data, pengarsipan dokumen, dan pengelolaan jadwal. Membantu pembuatan laporan dan visualisasi data sederhana menggunakan Microsoft Excel dan Power BI untuk mendukung tim operasional. Berkoordinasi dengan tim internal untuk memastikan kelancaran proses administrasi dan pelayanan kepada pemangku kepentingan.</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>0 tahun 4 bulan 0 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
         <is>
-          <t>Power BI, SQL, Python, Data Visualization, Data Cleaning, Microsoft Excel, Statistical Analysis, Problem Solving, Communication, Teamwork</t>
+          <t>Microsoft Excel, Power BI, Python, Structured Query Language (SQL), MySQL, Data Cleaning, Data Visualization, Reporting, Time Management, Communication, Teamwork, Problem Solving, Documentation, Customer Service</t>
         </is>
       </c>
       <c r="L931" t="inlineStr">
@@ -60958,52 +60958,52 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Komunikasi dan Penyiaran Islam</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Strategi Komunikasi Dakwah Digital melalui Media Sosial di Era Transformasi Teknologi Informasi</t>
+          <t>Sistem Informasi Analisis Perilaku Pembeli dan Kinerja Penjualan pada Platform TikTok Shop Menggunakan Power BI</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Power BI Data Analyst oleh Microsoft</t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>Junior Data Analyst (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Microsoft)</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Analisis Data dan Business Intelligence</t>
         </is>
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Promotor Produk</t>
+          <t>Spesialis Affiliate Pemasaran TikTok Shop</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam memperkenalkan dan mempromosikan produk kepada pelanggan di lokasi penjualan. Melakukan demonstrasi produk, menjawab pertanyaan konsumen, serta mengumpulkan umpan balik pelanggan untuk peningkatan strategi pemasaran. Berkoordinasi dengan tim penjualan untuk mencapai target promosi harian dan bulanan.</t>
+          <t>Bertanggung jawab mengelola dan mengoptimasi program afiliasi di platform TikTok Shop untuk meningkatkan konversi dan penjualan. Melakukan analisis performa kampanye menggunakan Power BI dan menyusun laporan berkala untuk tim pemasaran. Berkoordinasi dengan affiliate, tim konten, dan tim produk untuk merancang strategi promosi yang efektif.</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>1 tahun 6 bulan 0 hari</t>
+          <t>1 tahun 8 bulan 21 hari</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Komunikasi, Public Speaking, Marketing, Data Analysis, Microsoft Excel, Customer Relationship Management, Problem Solving, Teamwork, Negotiation, Time Management</t>
+          <t>Power BI, Analisis Data, Microsoft Excel Lanjutan, SQL, Google Analytics, Manajemen Afiliasi, Strategi Pemasaran Digital, Social Media Marketing, Komunikasi, Kerja Tim, Problem Solving, Pelaporan Bisnis</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
@@ -61023,12 +61023,12 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>Ekonomi Pembangunan</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Analisis Pengaruh Investasi dan Konsumsi Terhadap Pertumbuhan Ekonomi di Indonesia</t>
+          <t>Perancangan Sistem Dashboard Analitik untuk Optimalisasi Keputusan Bisnis Berbasis Python dan Tableau</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
@@ -61038,27 +61038,27 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>Pelatihan Fundamental Data Science dengan Python</t>
+          <t>Pelatihan Wawasan Karir dan Dasar Data Analytics: Python dan Tableau</t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>Basic Cyber Security Certification by BNSP</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>Keamanan Informasi dan Infrastruktur Jaringan</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Analis Data (Magang)</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Membantu tim pengembangan bisnis dalam mengidentifikasi peluang pasar baru dan melakukan analisis tren industri. Menyusun laporan riset pasar dan mendukung proses perencanaan strategi penjualan untuk meningkatkan pertumbuhan perusahaan.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan tim. Membuat visualisasi interaktif menggunakan Tableau dan Microsoft Power BI serta menyusun laporan analitik berkala. Berkolaborasi dengan tim produk untuk menerjemahkan kebutuhan bisnis menjadi metrik dan dashboard yang dapat dioperasikan.</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
@@ -61068,7 +61068,7 @@
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>Data Analysis, Microsoft Excel, Python, Business Strategy, Market Research, Communication, Teamwork, Problem Solving, Presentation Skills, Negotiation</t>
+          <t>Python, SQL (Structured Query Language), Pandas, NumPy, Tableau, Microsoft Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Machine Learning, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L933" t="inlineStr">
@@ -61088,12 +61088,12 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>Pembangunan Wilayah</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Analisis Pengaruh Infrastruktur terhadap Pertumbuhan Ekonomi Wilayah Perkotaan</t>
+          <t>Analisis Prediksi Penjualan Berbasis Machine Learning pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -61103,12 +61103,12 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science dengan Python untuk Analisis dan Visualisasi Data</t>
+          <t>Python for Data Analysis and Visualization</t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
@@ -61118,22 +61118,22 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Anggota Tim Penjualan</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Bertugas membantu proses penjualan produk dengan memberikan informasi kepada pelanggan secara akurat. Melakukan analisis kebutuhan pelanggan, menyusun laporan penjualan, serta mendukung strategi promosi untuk mencapai target tim. Berkolaborasi dengan tim pemasaran dan manajemen untuk meningkatkan kepuasan pelanggan.</t>
+          <t>Bertanggung jawab untuk membersihkan, memproses, dan menganalisis dataset menggunakan Python dan SQL guna mendukung pengambilan keputusan bisnis. Membuat visualisasi data dan dashboard interaktif, menyusun laporan analitis, serta berkolaborasi dengan tim produk dan pemangku kepentingan untuk mengidentifikasi kebutuhan data dan metrik kinerja.</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>0 tahun 7 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 12 hari</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>Komunikasi, Negosiasi, Microsoft Excel, Analisis Data, Customer Relationship Management, Presentasi, Teamwork, Problem Solving, Pengolahan Data, Adaptabilitas</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Tableau, Power BI, Data Visualization, Statistical Analysis, Machine Learning, Git, Communication, Problem Solving</t>
         </is>
       </c>
       <c r="L934" t="inlineStr">
@@ -61158,7 +61158,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Analisis Visualisasi Data Penjualan Menggunakan Power BI untuk Mendukung Keputusan Manajerial</t>
+          <t>Implementasi Sistem Informasi Business Intelligence untuk Analisis Penjualan Berbasis Python dan Power BI</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
@@ -61168,37 +61168,37 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>Power BI Data Analyst</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics dan Dasar-dasar Python untuk Analisis Data</t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
         <is>
-          <t>Analisis Data dan Visualisasi</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Analis Data dan Business Intelligence</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengolah dan menganalisis data bisnis menggunakan Power BI dan SQL. Membuat dashboard interaktif serta laporan visual yang membantu manajemen dalam pengambilan keputusan strategis. Berkolaborasi dengan tim lintas divisi untuk memastikan keakuratan serta konsistensi data dalam setiap laporan.</t>
+          <t>Membantu tim dalam pengumpulan, pembersihan, dan transformasi data menggunakan Python dan SQL. Membuat visualisasi dan dashboard interaktif menggunakan Power BI atau Tableau serta menyusun laporan analisis untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi kebutuhan data dan meningkatkan proses pengolahan data.</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>0 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>Power BI, Microsoft Excel, SQL, Data Visualization, Data Analysis, Python, Communication, Problem Solving, Analytical Thinking, Teamwork, ETL Process, Dashboard Design</t>
+          <t>Python, Structured Query Language (SQL), Microsoft Excel, Pandas, NumPy, Data Visualization (Matplotlib, Seaborn), Power BI, Tableau, Git, Statistical Analysis, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
@@ -61218,12 +61218,12 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Dashboard Analitik untuk Pendukung Keputusan Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Sistem Pemantauan dan Analisis Kualitas Jaringan Berbasis Power BI dengan Metode Machine Learning</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
@@ -61233,37 +61233,37 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan Tableau</t>
+          <t>Power BI Data Analyst (Microsoft Power BI)</t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>TensorFlow Developer Certificate (TensorFlow)</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Machine Learning dan Data Science</t>
         </is>
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Quality Assurance Jaringan</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan dan insight bisnis. Mengembangkan visualisasi data menggunakan tools seperti Tableau dan Power BI. Bekerja sama dengan tim bisnis dalam proses pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab memantau dan menganalisis kualitas jaringan menggunakan alat pemantauan dan pengumpulan log untuk memastikan kestabilan dan ketersediaan layanan. Mengembangkan dashboard dan laporan Power BI untuk visualisasi performa jaringan serta melakukan pengujian kinerja, identifikasi akar penyebab gangguan, dan langkah perbaikan untuk memenuhi Service Level Agreement. Berkolaborasi dengan tim operasi dan pengembang untuk implementasi solusi optimasi dan pencegahan masalah jaringan.</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Machine Learning, Data Cleaning</t>
+          <t>Python, SQL, Power BI, TensorFlow, Network Monitoring, Wireshark, SNMP, TCP/IP, Linux, Git, Data Analysis, Performance Testing, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L936" t="inlineStr">
@@ -61283,52 +61283,52 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Dashboard Business Intelligence untuk Monitoring Kinerja Penjualan Menggunakan Power BI</t>
+          <t>Sistem Prediksi Permintaan Produk Berbasis Machine Learning pada Platform E-Commerce</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Analyst dengan Power BI dan SQL</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>Analisis Data dan Visualisasi</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Analis Business Intelligence</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, menganalisis, dan memvisualisasikan data untuk mendukung pengambilan keputusan strategis perusahaan. Mengembangkan laporan dan dashboard interaktif menggunakan Power BI serta melakukan optimasi model data untuk meningkatkan efisiensi analisis. Berkolaborasi dengan tim pemasaran dan manajemen untuk mengidentifikasi tren dan peluang bisnis.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Mengembangkan model prediktif sederhana dan menyajikan visualisasi data menggunakan alat seperti Tableau, Matplotlib, dan Seaborn untuk stakeholder. Berkolaborasi dengan tim produk dan pemasaran untuk mengidentifikasi kebutuhan analisis serta meningkatkan kualitas dan integritas data.</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>2 tahun 8 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>SQL, Power BI, Python, Data Visualization, Microsoft Excel, Analytical Thinking, Communication, Problem Solving, ETL Process, Teamwork</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Machine Learning, Visualisasi Data (Matplotlib, Seaborn), Tableau, Power BI, Git, Statistik, Pengolahan Data, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
@@ -61348,12 +61348,12 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Dashboard Analitik Penjualan Menggunakan Power BI</t>
+          <t>Analisis Prediksi Churn Pelanggan Menggunakan Algoritma Random Forest pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -61363,12 +61363,12 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>Pelatihan Python for Data Analysis</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -61378,22 +61378,22 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan dan insight bisnis. Mengembangkan dashboard interaktif menggunakan alat visualisasi seperti Power BI dan Tableau. Bekerja sama dengan tim manajemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Melakukan pembersihan dan pemrosesan data menggunakan Python dan Structured Query Language untuk mendukung kebutuhan analisis. Mengembangkan model prediktif sederhana, membuat visualisasi insight menggunakan Tableau dan Matplotlib, serta menyusun laporan analisis untuk pemangku kepentingan. Berkolaborasi dengan tim produk dan pemasaran untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>2 tahun 8 bulan 15 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Critical Thinking, Statistics, Teamwork</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Data Visualization with Tableau, Matplotlib, Seaborn, Machine Learning, Statistical Analysis, Data Cleaning, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
@@ -61413,52 +61413,52 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Perancangan dan Implementasi Sistem Database Akademik Berbasis Web Menggunakan MySQL dan PHP</t>
+          <t>Sistem Informasi Manajemen Persediaan Berbasis Web untuk Optimalisasi Proses Gudang</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Manajemen Database dan Pengembangan Sistem</t>
+          <t>Administrasi Sistem dan Operasional Komputer</t>
         </is>
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>Pelatihan Database Design &amp; Database Programming with SQL</t>
+          <t>Pelatihan Operator Komputer Madya</t>
         </is>
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>Oracle Certified SQL Developer Associate</t>
+          <t>Sertifikasi Operator Komputer Madya (BNSP)</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>Manajemen Database</t>
+          <t>Administrasi Sistem dan Operasional Komputer</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Staff Administrasi Gudang</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam merancang, mengelola, dan memelihara struktur database perusahaan untuk memastikan integritas dan keamanan data. Melakukan optimasi query SQL, backup data rutin, serta berkoordinasi dengan tim pengembang aplikasi untuk kebutuhan integrasi sistem.</t>
+          <t>Bertanggung jawab untuk mengelola data persediaan dan melakukan pencatatan masuk-keluar barang menggunakan sistem informasi gudang. Melaksanakan stock opname berkala, menyiapkan laporan inventory untuk manajemen, serta berkoordinasi dengan tim logistik untuk pengiriman dan penerimaan barang. Memastikan akurasi data dan kelengkapan dokumen administrasi gudang.</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 11 bulan 2 hari</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>SQL, MySQL, Database Design, Data Analysis, Oracle Database, Problem Solving, Teamwork, Communication, Analytical Thinking, Data Security, Backup and Recovery, Query Optimization</t>
+          <t>Manajemen Persediaan, Sistem Informasi Gudang, Microsoft Excel, Database MySQL, Pengolahan Data, Enterprise Resource Planning, Pengelolaan Dokumen Administrasi, Komunikasi, Kerja Tim, Problem Solving, Pengoperasian Perangkat Keras Komputer, Pelayanan Pelanggan</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
@@ -61478,52 +61478,52 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Perancangan Dashboard Analisis Pengembangan Sumber Daya Manusia Berbasis Web</t>
+          <t>Sistem Analitik Penjualan Berbasis Machine Learning untuk Optimalisasi Strategi Pemasaran</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>Analisis Data dan Pengembangan SDM Digital</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>Pelatihan Pemanfaatan Dashboard Pengembangan SDM Digital</t>
+          <t>Python for Data Analysis dan Visualisasi Data (Workshop Karir)</t>
         </is>
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>Analisis Data dan Manajemen SDM</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Analis Pengembangan Sumber Daya Manusia Digital</t>
+          <t>Staf Intern Data Analytics</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Bertanggung jawab melakukan analisis kebutuhan pelatihan dan kinerja sumber daya manusia menggunakan dashboard digital. Mengembangkan laporan visualisasi data yang mendukung pengambilan keputusan strategis dalam pengembangan SDM. Bekerja sama dengan departemen teknologi informasi untuk optimalisasi sistem pemantauan kinerja pegawai.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan transformasi data dari berbagai sumber untuk kebutuhan analisis. Melaksanakan analisis eksploratori dan membuat visualisasi serta dashboard untuk mendukung pengambilan keputusan tim. Berkolaborasi dengan tim produk dan manajemen dalam penerapan insight serta evaluasi performa model analitik.</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 5 bulan 15 hari</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
         <is>
-          <t>Data Analysis, Microsoft Excel, Power BI, SQL, Dashboard Development, Communication, Problem Solving, Teamwork, Project Management, Analytical Thinking</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-Learn, Data Visualization, Tableau, Microsoft Excel, Git, Data Cleaning, Statistical Analysis, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L940" t="inlineStr">
@@ -61548,7 +61548,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Harga Saham Menggunakan Metode Regresi Linier Berganda</t>
+          <t>Penerapan Metode Pembelajaran Mesin untuk Prediksi Churn Pelanggan pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
@@ -61558,37 +61558,37 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>Fundamental Data Science with Python</t>
+          <t>Pelatihan Data Analytics: Python, Pandas, dan Visualisasi untuk Analisis Data</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>Data Science Practitioner (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>Analisis Data dan Statistik</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Praktikan Analis Data</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan dan pembersihan data menggunakan Python dan Excel. Membuat visualisasi data untuk mendukung analisis statistik. Membantu tim data dalam menyusun laporan hasil analisis dan memberikan insight berbasis data kepada pembimbing lapangan.</t>
+          <t>Melakukan pembersihan dan transformasi data serta eksplorasi data untuk mendukung pengambilan keputusan bisnis. Mengembangkan model analitik sederhana, membuat visualisasi dan dashboard untuk menyajikan insight kepada tim bisnis, serta berkolaborasi dengan pemangku kepentingan untuk menyusun rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
         <is>
-          <t>Python, R, SQL, Data Visualization, Machine Learning, Microsoft Excel, Communication, Teamwork, Problem Solving, Statistical Analysis</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, Power BI, Git, Machine Learning, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L941" t="inlineStr">
@@ -61608,52 +61608,52 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Ekonomi Syariah</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Analisis Efisiensi Pengelolaan Dana Zakat Menggunakan Metode Data Envelopment Analysis pada Lembaga Amil Zakat</t>
+          <t>Implementasi Model Pembelajaran Mesin untuk Klasifikasi Sentimen pada Ulasan Produk E-Commerce</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>Data Analysis</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Fundamental Data Science</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>Certified Graphic Designer (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>Desain Komunikasi Visual</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Staf Analis Data</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk membuat dan mengembangkan desain visual yang mendukung kebutuhan promosi perusahaan. Melakukan penelitian pasar untuk menghasilkan konsep desain yang efektif dan menarik. Berkolaborasi dengan tim pemasaran untuk menyusun strategi komunikasi visual yang konsisten dengan identitas merek.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL guna menghasilkan insight yang mendukung pengambilan keputusan bisnis. Membuat visualisasi data dan laporan berkala menggunakan Tableau atau Matplotlib serta berkolaborasi dengan tim produk dan pemasaran untuk mengidentifikasi kebutuhan analisis. Melakukan evaluasi dan pengujian model dasar serta mendokumentasikan metodologi dan hasil analisis.</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
         <is>
-          <t>Adobe Photoshop, Adobe Illustrator, Adobe InDesign, Canva, Kreativitas, Komunikasi, Teamwork, Manajemen Waktu, Problem Solving, Pemahaman Branding</t>
+          <t>Python, SQL, Machine Learning, Data Visualization, Tableau, Pandas, NumPy, Scikit-learn, Git, Statistical Analysis, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L942" t="inlineStr">
@@ -61673,52 +61673,52 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>Ilmu Komunikasi</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Analisis Strategi Pemasaran Digital melalui Media Sosial untuk Meningkatkan Brand Awareness pada Usaha Mikro di Jakarta</t>
+          <t>Penerapan Metode Regresi dan Random Forest untuk Prediksi Pencapaian Akademik Mahasiswa</t>
         </is>
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial dan Pemasaran Digital</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>Pelatihan Profesional Social Media Analyst BNSP</t>
+          <t>Pelatihan Data Analytics untuk Bisnis dan Riset</t>
         </is>
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>Certified Social Media Analyst (BNSP)</t>
+          <t>Data Science Bootcamp - Studi Independen Bersertifikat Kampus Merdeka (Cycle 6)</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>Pemasaran Digital dan Analisis Media Sosial</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Analis Media Sosial</t>
+          <t>Tutor Matematika</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam menganalisis performa media sosial perusahaan menggunakan berbagai metrik dan tools analitik. Menyusun laporan kinerja konten serta memberikan rekomendasi strategi untuk meningkatkan engagement dan jangkauan audiens. Bekerja sama dengan tim konten dan pemasaran untuk memastikan strategi media sosial sejalan dengan tujuan bisnis perusahaan.</t>
+          <t>Memberikan bimbingan dan pengajaran mata pelajaran matematika kepada siswa secara individu dan kelompok, termasuk penyusunan materi pembelajaran dan latihan soal. Mengukur kemajuan siswa dengan analisis hasil latihan, memberikan umpan balik konstruktif, serta berkoordinasi dengan orang tua dan guru untuk merancang strategi peningkatan pembelajaran.</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 7 bulan 0 hari</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
         <is>
-          <t>Social Media Analytics, Digital Marketing, Google Analytics, Data Visualization, Content Strategy, SEO Optimization, Communication, Critical Thinking, Team Collaboration, Time Management</t>
+          <t>Python, R, SQL, Machine Learning, Statistical Analysis, Data Visualization, Pandas, NumPy, Scikit-Learn, Matplotlib, Microsoft Excel, Git, Communication, Problem Solving, Teaching</t>
         </is>
       </c>
       <c r="L943" t="inlineStr">
@@ -61738,12 +61738,12 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Penjualan Menggunakan Machine Learning Berbasis Python</t>
+          <t>Implementasi Sistem Analitik Big Data untuk Prediksi Kepuasan Layanan Publik (Studi Kasus pada Sistem Administrasi Pemerintahan)</t>
         </is>
       </c>
       <c r="D944" t="inlineStr">
@@ -61753,37 +61753,37 @@
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Bootcamp</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics dan Big Data</t>
         </is>
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Sertifikat MySkill Short Course: Data Analytics</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Manajemen Data</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Magang Virtual Berbasis Proyek di Bidang Big Data Analytics</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber menggunakan Python dan SQL. Membuat visualisasi data interaktif serta laporan analitis untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim produk dan manajemen untuk mengidentifikasi insight dan peluang peningkatan performa.</t>
+          <t>Melakukan pembersihan, transformasi, dan analisis dataset berskala besar untuk mendukung pengambilan keputusan berbasis data. Membangun pipeline ETL sederhana, menerapkan model analitik menggunakan Python dan Apache Spark, serta membuat visualisasi hasil analisis untuk disajikan kepada tim proyek. Berkolaborasi secara virtual dengan anggota tim, melaporkan temuan, dan merekomendasikan perbaikan berbasis data.</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
         <is>
-          <t>Python, SQL, Pandas, NumPy, Matplotlib, Data Visualization, Machine Learning, Communication, Problem Solving, Critical Thinking</t>
+          <t>Python, Structured Query Language (SQL), R, Pandas, NumPy, Apache Hadoop, Apache Spark, Scikit-learn, Data Cleaning, ETL, Data Visualization, Tableau, Power BI, Git, Docker, Machine Learning, Statistical Analysis, Problem Solving, Teamwork, Communication, Agile Methodology, Big Data Processing</t>
         </is>
       </c>
       <c r="L944" t="inlineStr">
@@ -61803,52 +61803,52 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Business Intelligence untuk Pengambilan Keputusan Penjualan</t>
+          <t>Implementasi Model Pembelajaran Mesin untuk Analisis Perilaku Pelanggan pada Platform E‑commerce</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>Data Processing dan Business Intelligence</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Engineer BNSP</t>
+          <t>Pelatihan Karir Data Analytics: Python dan Visualisasi Data</t>
         </is>
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Certificate (Google via Coursera)</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Business Intelligence Engineer</t>
+          <t>Mahasiswa Magang Analis Data</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data untuk menghasilkan laporan dan visualisasi yang mendukung pengambilan keputusan manajemen. Mengembangkan dan memelihara dashboard interaktif menggunakan Power BI serta melakukan integrasi data dari berbagai sumber. Berkolaborasi dengan tim data dan divisi bisnis untuk memastikan kualitas dan akurasi informasi.</t>
+          <t>Bertanggung jawab melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python (Pandas, NumPy) dan Structured Query Language (SQL) untuk mendukung pengambilan keputusan. Membuat visualisasi data dan dashboard menggunakan Tableau serta menyusun laporan analitis dan insight untuk stakeholder. Berkolaborasi dengan tim produk dan pemasaran serta mempresentasikan temuan secara berkala.</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>SQL, Python, Power BI, Tableau, Data Warehousing, ETL Processing, Analytical Thinking, Communication, Problem Solving, Teamwork, Microsoft Excel, Data Visualization</t>
+          <t>Python, SQL, Microsoft Excel, Pandas, NumPy, Data Visualization, Tableau, Statistical Analysis, Machine Learning, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L945" t="inlineStr">
@@ -61868,12 +61868,12 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Algoritma Random Forest pada Data Historis Penjualan Retail</t>
+          <t>Analisis Prediktif Perilaku Pembeli pada Platform E-commerce Menggunakan Metode Machine Learning</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
@@ -61883,37 +61883,37 @@
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>Fundamental Data Science Bootcamp with Python and Machine Learning</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics - Pelatihan Python dan Visualisasi Data</t>
         </is>
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>Data Science Professional Certificate (Coursera)</t>
+          <t>Google Data Analytics Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>Data Science dan Analisis Data</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Bertanggung jawab menganalisis dan memvisualisasikan data bisnis untuk mendukung pengambilan keputusan strategis. Mengolah data menggunakan bahasa pemrograman Python dan melakukan eksplorasi data secara mendalam. Berkolaborasi dengan tim pengembangan dan manajemen dalam merancang dashboard interaktif untuk laporan kinerja perusahaan.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Membangun model prediktif dan membuat visualisasi serta dashboard untuk menyajikan insight kepada tim produk dan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 8 bulan 12 hari</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
         <is>
-          <t>Python, SQL, Machine Learning, Data Visualization, Pandas, NumPy, Tableau, Communication, Problem Solving, Teamwork, Statistical Analysis, Data Cleaning</t>
+          <t>Python, SQL, Pandas, NumPy, Data Visualization, Tableau, Machine Learning, Statistik, Microsoft Excel, Git, Data Cleaning, Communication, Problem Solving, Exploratory Data Analysis, Docker</t>
         </is>
       </c>
       <c r="L946" t="inlineStr">
@@ -61938,7 +61938,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Informasi Penjualan Online pada Toko Retail Berbasis Web</t>
+          <t>Sistem Pendukung Keputusan untuk Analisis Penjualan Berbasis Data Mining pada Perusahaan Ritel</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
@@ -61948,12 +61948,12 @@
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Wawasan Karir dan Dasar Data Analytics dengan Python</t>
         </is>
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>Data Analyst Associate Certification (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -61963,22 +61963,22 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Magang Data Analyst</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Mendukung tim analisis data dalam pengumpulan, pembersihan, dan visualisasi data untuk kebutuhan laporan bisnis. Membantu dalam pembuatan dashboard menggunakan alat seperti Tableau dan Google Data Studio. Berkolaborasi dengan tim senior untuk menemukan insight dari data yang dapat meningkatkan efisiensi operasional.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis dataset untuk menghasilkan insight bisnis yang dapat ditindaklanjuti. Membuat visualisasi dan dashboard menggunakan Power BI atau Tableau serta menyusun laporan dan presentasi untuk pemangku kepentingan. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan solusi berbasis data dan melakukan pemodelan prediktif sederhana.</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Google Data Studio, Data Visualization, Statistical Analysis, Machine Learning, Communication, Teamwork, Problem Solving, Critical Thinking</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Power BI, Tableau, Git, Data Cleaning, Statistical Analysis, Machine Learning, Data Visualization, Communication, Teamwork, Problem Solving, Docker</t>
         </is>
       </c>
       <c r="L947" t="inlineStr">
@@ -61998,27 +61998,27 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Sistem Informasi Manajemen Sirkulasi Perpustakaan Berbasis Web dengan Analisis Data Pengguna</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics oleh Diploy Academy</t>
+          <t>Pelatihan Python untuk Analisis Data dan Visualisasi</t>
         </is>
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -62028,22 +62028,22 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Asisten Perpustakaan Adam Kurniawan</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data yang informatif menggunakan Tableau dan Power BI. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi tren dan peluang peningkatan kinerja perusahaan.</t>
+          <t>Melaksanakan layanan pemustaka termasuk peminjaman, pengembalian, dan penataan koleksi fisik serta digital. Mengelola input data katalog, melakukan pembersihan data dan analisis penggunaan perpustakaan untuk menyusun laporan statistik bulanan. Berkolaborasi dengan tim perpustakaan untuk meningkatkan efisiensi alur kerja dan mendukung implementasi sistem informasi perpustakaan.</t>
         </is>
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Statistik, Data Visualization, Machine Learning, Communication, Problem Solving</t>
+          <t>Python, SQL, Microsoft Excel, Data Visualization, Statistik, Tableau, Power BI, MySQL, Pandas, Git, Data Cleaning, Problem Solving, Communication, Documentation</t>
         </is>
       </c>
       <c r="L948" t="inlineStr">
@@ -62063,12 +62063,12 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Matematika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Harga Saham Menggunakan Regresi Linier Berganda</t>
+          <t>Perancangan Sistem Rekomendasi Pelatihan Karyawan Berbasis Pembelajaran Mesin untuk Peningkatan Kompetensi</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
@@ -62078,12 +62078,12 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Pelatihan Python untuk Analisis Data dan Visualisasi</t>
         </is>
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Certificate (Google / Coursera)</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -62093,22 +62093,22 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Staf Analis Data</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Bertanggung jawab mengumpulkan, mengolah, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi dan laporan berbasis data menggunakan alat analisis statistik. Bekerja sama dengan tim produk dan manajemen untuk mengidentifikasi tren dan peluang peningkatan kinerja perusahaan.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan pemrosesan data dari berbagai sumber untuk kebutuhan analisis. Menganalisis data menggunakan Python dan library terkait, membuat visualisasi serta laporan untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim lintas fungsi untuk menyusun insight dan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>2 tahun 11 bulan 0 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Python, SQL, R, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Machine Learning, Problem Solving, Communication, Teamwork, Critical Thinking</t>
+          <t>Python, Pandas, NumPy, Matplotlib, Seaborn, MySQL, PostgreSQL, Tableau, Power BI, Data Cleaning, Data Visualization, Machine Learning, Statistik, Git, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
@@ -62133,7 +62133,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Business Intelligence untuk Optimalisasi Pengambilan Keputusan pada Perusahaan Retail</t>
+          <t>Penerapan Algoritma Machine Learning untuk Prediksi Churn Pelanggan pada Platform E-commerce Berbasis Python</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
@@ -62143,12 +62143,12 @@
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan SQL</t>
+          <t>Pelatihan Data Analytics dengan Python dan Structured Query Language (SQL)</t>
         </is>
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -62158,22 +62158,22 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Analis Business Intelligence</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, menganalisis, dan menginterpretasi data bisnis untuk menghasilkan laporan dan dashboard analitik. Mengembangkan model data serta bekerja sama dengan tim manajemen dalam pengambilan keputusan berbasis data. Melakukan optimalisasi proses bisnis melalui implementasi solusi Business Intelligence.</t>
+          <t>Mengumpulkan, membersihkan, dan melakukan pra-pemrosesan data dari berbagai sumber untuk keperluan analisis. Membangun dan mengevaluasi model statistik dan machine learning, membuat visualisasi serta laporan hasil analisis untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk mengimplementasikan insight dan automasi laporan.</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Data Visualization, Data Analysis, Microsoft Excel, Communication, Problem Solving, Teamwork, Critical Thinking, ETL Tools</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Matplotlib, Seaborn, Tableau, Machine Learning, Data Cleaning, Data Preprocessing, Git, Communication, Problem Solving</t>
         </is>
       </c>
       <c r="L950" t="inlineStr">
@@ -62193,12 +62193,12 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Business Intelligence untuk Pengambilan Keputusan Penjualan</t>
+          <t>Implementasi Model Machine Learning untuk Prediksi Penjualan pada Platform E-Commerce Berbasis Python dan SQL</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
@@ -62208,17 +62208,17 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst dengan Python dan SQL</t>
+          <t>Data Analytics with Python and Structured Query Language (SQL)</t>
         </is>
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
@@ -62228,17 +62228,17 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan laporan dan wawasan bisnis yang akurat. Membuat visualisasi data interaktif menggunakan Power BI dan Tableau. Berkolaborasi dengan tim manajemen untuk membantu pengambilan keputusan berbasis data.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan Structured Query Language (SQL). Membuat visualisasi data dan dashboard interaktif untuk mendukung pengambilan keputusan bisnis serta menyusun laporan temuan untuk stakeholder. Berkolaborasi dengan tim produk dan pemasaran untuk mengidentifikasi kebutuhan analitik dan mengimplementasikan model Machine Learning sederhana.</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>2 tahun 8 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Data Visualization, Data Cleaning, Analytical Thinking, Communication, Problem Solving, Excel Advanced, Teamwork, Time Management</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, scikit-learn, Data Visualization, Tableau, Power BI, MySQL, Git, Machine Learning, Statistik, Problem Solving, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L951" t="inlineStr">
@@ -62253,57 +62253,57 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Informasi Pengelolaan Data Pelatihan Berbasis Web pada Lembaga Kursus Komputer</t>
+          <t>Sistem Informasi Analitik Penjualan Berbasis Web Menggunakan Python dan Machine Learning</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>Pengoperasian Komputer dan Aplikasi Perkantoran</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>Pelatihan Operator Komputer Madya BNSP</t>
+          <t>Fundamental Data Science</t>
         </is>
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>Operator Komputer Madya (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (IBM)</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>Teknologi Informasi dan Aplikasi Perkantoran</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Operator Komputer dan Administrasi Data</t>
+          <t>Staff Analis Data</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengoperasian perangkat komputer dan pengelolaan data administrasi menggunakan aplikasi perkantoran. Melakukan input, pemrosesan, dan penyimpanan data secara terstruktur serta memastikan keamanan dan ketepatan informasi yang dikelola. Mendukung kegiatan administrasi serta koordinasi dengan tim untuk kelancaran operasional kantor.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Membangun dan memelihara dashboard laporan serta visualisasi menggunakan tools seperti Tableau atau Power BI. Berkolaborasi dengan tim lintas fungsi untuk menerjemahkan hasil analisis menjadi rekomendasi yang dapat diimplementasikan.</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>2 tahun 7 bulan 12 hari</t>
+          <t>1 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
         <is>
-          <t>Microsoft Word, Microsoft Excel, Microsoft PowerPoint, Database Management, Data Entry, Administration, Communication, Problem Solving, Time Management, Teamwork</t>
+          <t>Python, SQL, R, Pandas, NumPy, Machine Learning, Data Visualization, Tableau, Power BI, Git, Data Cleaning, Problem Solving, Teamwork, Communication, RESTful API</t>
         </is>
       </c>
       <c r="L952" t="inlineStr">
@@ -62323,12 +62323,12 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Ekonomi Pembangunan</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Analisis Faktor yang Mempengaruhi Kepuasan Pelanggan Menggunakan Metode Regresi Linier Berganda pada Perusahaan Ritel</t>
+          <t>Analisis Pengaruh Investasi Infrastruktur terhadap Pertumbuhan Ekonomi Daerah dengan Pendekatan Data Panel (Studi Kasus Provinsi X)</t>
         </is>
       </c>
       <c r="D953" t="inlineStr">
@@ -62338,37 +62338,37 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics oleh Digital Talent Scholarship</t>
+          <t>Power BI Data Analyst (Pelatihan Microsoft Power BI untuk Analisis dan Visualisasi Data)</t>
         </is>
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Business Intelligence dan Analisis Data</t>
         </is>
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staff Analis Data</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan perangkat lunak statistik. Menginterpretasikan hasil analisis untuk mendukung pengambilan keputusan strategis perusahaan serta membuat visualisasi data yang mudah dipahami oleh pemangku kepentingan.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan menganalisis data menggunakan Power BI dan SQL untuk mendukung pengambilan keputusan bisnis. Membuat dashboard interaktif dan laporan berkala yang komunikatif untuk stakeholder. Berkolaborasi dengan tim lintas fungsi untuk menyederhanakan proses pelaporan dan meningkatkan kualitas data.</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Problem Solving, Communication, Critical Thinking, Time Management</t>
+          <t>Power BI, DAX, SQL, Python, Microsoft Excel, Data Visualization, ETL, Statistical Analysis, Business Intelligence, Problem Solving, Communication, Teamwork, Analytical Thinking</t>
         </is>
       </c>
       <c r="L953" t="inlineStr">
@@ -62388,52 +62388,52 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>Perencanaan Wilayah dan Kota</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Analisis Implementasi Konsep Kota Cerdas Berbasis SNI ISO 37122:2019 di Kota Bandung</t>
+          <t>Sistem Prediksi Churn Pelanggan Menggunakan Algoritma Machine Learning pada Platform E-commerce</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>Analis Kota Cerdas SNI ISO 37122:2019</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>Pelatihan Analis Kota Cerdas Berdasarkan Standar Nasional Indonesia ISO 37122:2019</t>
+          <t>Pelatihan Wawasan Karir dan Praktik Data Analytics dengan Python</t>
         </is>
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>Certified Smart City Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>Analisis dan Pengembangan Kota Cerdas</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Analis Kota Cerdas</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Melakukan analisis terhadap indikator kota cerdas berdasarkan standar SNI ISO 37122:2019. Menyusun laporan evaluasi kinerja kota dalam aspek lingkungan, infrastruktur, teknologi, dan tata kelola. Berkolaborasi dengan tim pemerintah daerah untuk memberikan rekomendasi pengembangan kebijakan berbasis data.</t>
+          <t>Mengumpulkan, membersihkan, dan menganalisis dataset menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Membangun model statistik dan machine learning untuk prediksi serta membuat visualisasi data untuk menyajikan insight kepada pemangku kepentingan. Berkolaborasi dengan tim produk dan pemasaran untuk menerjemahkan temuan menjadi rekomendasi operasional.</t>
         </is>
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Analisis Data, Perencanaan Kota, Geographic Information System, Microsoft Excel, Komunikasi, Kerja Tim, Manajemen Proyek, Problem Solving, Penelitian Lapangan, Urban Governance</t>
+          <t>Python, SQL, Machine Learning, Statistical Analysis, Data Visualization, Pandas, NumPy, Scikit-learn, Tableau, Git, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
@@ -62453,12 +62453,12 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Analisis Data Penjualan Menggunakan Metode Data Mining untuk Prediksi Tren Produk</t>
+          <t>Analisis Sentimen Ulasan Produk Berbasis Machine Learning untuk Sistem Rekomendasi</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
@@ -62468,37 +62468,37 @@
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics Menggunakan Python dan SQL</t>
+          <t>Fundamental Data Science: Python, Machine Learning, dan Visualisasi Data</t>
         </is>
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>IBM Data Science Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Data Science</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan berbagai teknik statistik dan pemrograman. Membuat visualisasi data untuk mendukung pengambilan keputusan strategis perusahaan. Berkolaborasi dengan tim bisnis untuk mengidentifikasi pola dan tren guna meningkatkan efisiensi operasional.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan pra-pemrosesan data untuk analisis. Melaksanakan eksplorasi data, pembangunan model machine learning sederhana, serta evaluasi performa model untuk kebutuhan tim. Menyusun laporan hasil analisis dan berkolaborasi dengan tim dalam penyajian insight untuk pengambilan keputusan.</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Machine Learning</t>
+          <t>Python, Machine Learning, Data Cleaning, Data Visualization, Pandas, NumPy, Scikit-learn, Structured Query Language (SQL), Git, Jupyter Notebook, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L955" t="inlineStr">
@@ -62518,52 +62518,52 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Fisika</t>
+          <t>Manajemen</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Analisis Pengolahan Data Sensor Menggunakan Metode Statistik untuk Pemantauan Lingkungan</t>
+          <t>Analisis Penerapan Data Analytics untuk Meningkatkan Efektivitas Fungsi Corporate Affairs pada Perusahaan Swasta</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>Training of Trainer (ToT) Data Analytics untuk Pelajar Sekolah Menengah</t>
+          <t>Fundamental Data Science untuk Analisis Bisnis</t>
         </is>
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>Data Analyst Associate Certification (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Staff Teknologi Informasi</t>
+          <t>Staf Corporate Affairs</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Mengelola infrastruktur sistem teknologi informasi organisasi, termasuk instalasi, konfigurasi, dan pemeliharaan perangkat keras dan perangkat lunak. Melakukan analisis data untuk mendukung pengambilan keputusan serta memberikan dukungan teknis kepada pengguna internal. Berkoordinasi dengan tim lain untuk memastikan keamanan dan efisiensi sistem yang digunakan.</t>
+          <t>Bertanggung jawab mengelola komunikasi perusahaan dan hubungan dengan pemangku kepentingan, termasuk penyusunan siaran pers dan koordinasi dengan media. Melakukan pemantauan media dan analisis data untuk mendukung pengambilan keputusan strategis serta penyusunan laporan berkala. Berkolaborasi lintas divisi untuk memastikan kepatuhan terhadap kebijakan perusahaan dan peningkatan citra korporat.</t>
         </is>
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>0 tahun 3 bulan 29 hari</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Power BI, Data Visualization, Statistical Analysis, Communication, Problem Solving, Time Management, Teamwork</t>
+          <t>Python, SQL, Data Visualization (Tableau), Microsoft Excel, Data Cleaning, Stakeholder Management, Corporate Communications, Report Writing, Media Monitoring, Public Relations, Teamwork, Communication, Critical Thinking</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
@@ -62583,12 +62583,12 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Ilmu Ekonomi Pembangunan</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Analisis Pengaruh Investasi dan Tenaga Kerja terhadap Pertumbuhan Ekonomi di Indonesia</t>
+          <t>Penerapan Pembelajaran Mesin untuk Prediksi Kinerja Akademik Mahasiswa Berbasis Data Historis</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
@@ -62598,37 +62598,37 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>Fundamental Data Science dengan Python dan Statistik Terapan</t>
+          <t>Fundamental Data Science: Dasar Analisis Data dan Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Dasar-Dasar Implementasi Kecerdasan Buatan (Micro Skill)</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>Analisis Data dan Statistik</t>
+          <t>Kecerdasan Buatan</t>
         </is>
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Desainer Grafis Magang</t>
+          <t>Asisten Riset Data</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Mendesain materi visual untuk kampanye digital seperti poster, infografis, dan konten media sosial sesuai panduan merek perusahaan. Berkolaborasi dengan tim pemasaran untuk memastikan desain mendukung tujuan komunikasi dan strategi promosi. Membantu dalam penyusunan konsep visual dan melakukan revisi berdasarkan umpan balik tim kreatif.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memproses data untuk keperluan penelitian. Melakukan analisis statistik dan pemodelan data, menyusun laporan hasil analisis, serta mendukung tim riset dalam interpretasi temuan dan penyusunan dokumentasi penelitian.</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>0 tahun 2 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Adobe Photoshop, Adobe Illustrator, Canva, Desain Visual, Kreativitas, Komunikasi, Kerja Tim, Manajemen Waktu, Analisis Data, Presentasi</t>
+          <t>Python, R, SQL, Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, Machine Learning, Data Cleaning, Statistical Analysis, Git, Communication, Teamwork, Research Methodology</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -62643,57 +62643,57 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Rancang Bangun Sistem Informasi Manajemen Data Karyawan Menggunakan Microsoft Access dan Visual Basic</t>
+          <t>Sistem Informasi Manajemen Inventaris Berbasis Web dengan Optimalisasi Basis Data Menggunakan MySQL</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>Administrasi Sistem Komputer</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>Pelatihan Operator Komputer Madya BNSP</t>
+          <t>Pelatihan Desain Basis Data dan Pemrograman Basis Data dengan SQL</t>
         </is>
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>Junior Office Operator (BNSP)</t>
+          <t>Oracle Database SQL Certified Associate (Oracle University)</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>Administrasi Perkantoran Digital</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Operator Komputer dan Administrasi Sistem</t>
+          <t>Administrator Basis Data Junior</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengoperasikan, memelihara, dan mengelola sistem komputer serta perangkat lunak administrasi. Melakukan input, pemrosesan, serta pengarsipan data secara digital dengan prosedur keamanan data yang baik. Berkolaborasi dengan tim administrasi untuk memastikan kelancaran operasional kantor dan integritas data perusahaan.</t>
+          <t>Bertanggung jawab merancang dan mengimplementasikan skema basis data serta menulis kueri dan prosedur tersimpan menggunakan Structured Query Language. Melakukan optimasi performa kueri, pengaturan indeks, serta backup dan recovery basis data untuk memastikan ketersediaan data. Bekerja sama dengan tim pengembang aplikasi untuk integrasi basis data dan dokumentasi struktur data.</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>2 tahun 8 bulan 12 hari</t>
+          <t>1 tahun 8 bulan 12 hari</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
         <is>
-          <t>Microsoft Office, Database Management, Data Entry, Microsoft Access, Problem Solving, Communication, Teamwork, Time Management, Digital Filing, Office Administration</t>
+          <t>Structured Query Language (SQL), Desain Basis Data, Normalisasi dan Pemodelan Entitas-Relasi, MySQL, PostgreSQL, Oracle Database, Pembuatan Stored Procedure dan Trigger, Optimasi Kueri dan Tuning Performa Basis Data, Backup dan Recovery Basis Data, Database Programming with SQL, Git untuk Version Control, Problem Solving, Teamwork, Communication, Dokumentasi Teknis</t>
         </is>
       </c>
       <c r="L958" t="inlineStr">
@@ -62713,12 +62713,12 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Tableau untuk Pengambilan Keputusan Bisnis</t>
+          <t>Penerapan Metode Regresi dan Klasifikasi untuk Analisis Data Akademik pada Program Studi Matematika</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
@@ -62728,37 +62728,37 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (Google)</t>
+          <t>Google Data Analytics Professional Certificate - Google / Coursera</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Asisten Dosen Mata Kuliah Komputasi Dasar</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data perusahaan untuk mendukung pengambilan keputusan strategis. Menggunakan alat analisis seperti SQL, Python, dan Tableau untuk menghasilkan laporan dan visualisasi data yang informatif. Berkolaborasi dengan tim bisnis dan pengembangan untuk mengidentifikasi peluang peningkatan kinerja perusahaan.</t>
+          <t>Bertugas membantu dosen utama dalam menyusun dan menyampaikan materi praktikum Komputasi Dasar, termasuk persiapan soal, modul praktikum, dan demonstrasi penggunaan bahasa pemrograman Python. Melaksanakan asistensi laboratorium, membimbing mahasiswa dalam pengerjaan tugas dan proyek kecil, serta membantu penilaian dan pemberian umpan balik. Berkolaborasi dengan tim pengajar untuk mengembangkan materi pembelajaran berbasis data dan evaluasi hasil belajar.</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Communication, Critical Thinking, Problem Solving, Team Collaboration, Power BI, Data Cleaning</t>
+          <t>Python, R, Statistik, Machine Learning, Data Cleaning, Data Visualization, NumPy, Pandas, Matplotlib, SQL, Git, Pengajaran, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
@@ -62778,12 +62778,12 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Model Regresi Linear Berganda Berbasis Python</t>
+          <t>Penerapan Metode Regresi dan Pembelajaran Mesin untuk Prediksi Performa Akademik Mahasiswa</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
@@ -62793,12 +62793,12 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Fundamental Data Science</t>
         </is>
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -62808,22 +62808,22 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Data Science</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data bisnis untuk menghasilkan insight yang berguna bagi pengambilan keputusan. Membuat visualisasi data interaktif dan laporan rutin kepada manajemen. Berkolaborasi dengan tim produk dan pemasaran untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Bertanggung jawab melakukan pembersihan dan pemrosesan data serta analisis eksploratori untuk mendukung pengambilan keputusan. Mengembangkan dan mengevaluasi model pembelajaran mesin sederhana serta membuat visualisasi dan laporan hasil analisis. Berkolaborasi dengan tim produk untuk mengimplementasikan temuan dan meningkatkan kualitas data.</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>2 tahun 7 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Machine Learning, Problem Solving, Communication, Critical Thinking, Statistical Analysis</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Scikit-learn, Matplotlib, Seaborn, Data Visualization, Data Cleaning, Statistik, Git, Problem Solving, Teamwork, Communication</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
@@ -62848,47 +62848,47 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Pengolahan Data Besar Menggunakan Bahasa Pemrograman Python</t>
+          <t>Sistem Informasi Manajemen Inventaris Berbasis Web dengan Perancangan Basis Data Relasional dan Implementasi SQL</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Database Management</t>
         </is>
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>Pelatihan Big Data Analysis using Python</t>
+          <t>Pelatihan Desain Database dan Pemrograman Database dengan SQL</t>
         </is>
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Oracle Database SQL Certified Associate (Oracle University)</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Pengembang Basis Data</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk mendukung pengambilan keputusan strategis. Mengembangkan model analitik dan visualisasi data menggunakan Python serta menyajikan hasil analisis kepada manajemen dalam bentuk laporan informatif.</t>
+          <t>Bertanggung jawab merancang skema basis data relasional dan membuat query SQL serta prosedur tersimpan untuk mendukung aplikasi. Melakukan optimasi performa query, backup dan pemulihan data, serta berkolaborasi dengan tim pengembang untuk integrasi data dan implementasi fitur baru.</t>
         </is>
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 15 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Machine Learning, Data Visualization, Statistics, Communication, Problem Solving, Team Collaboration, Critical Thinking</t>
+          <t>SQL, Perancangan Basis Data, MySQL, PostgreSQL, Oracle Database, Stored Procedures, Query Optimization, Entity Relationship Modeling, Git, Python, RESTful API, Problem Solving, Teamwork, Komunikasi</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
@@ -62908,12 +62908,12 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Fisika</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Implementasi Algoritma Pengolahan Citra untuk Navigasi Robot Otonom Menggunakan Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -62923,37 +62923,37 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Pelatihan Power BI Data Analyst (Microsoft Power Platform)</t>
         </is>
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Microsoft Certified: Data Analyst Associate (Power BI) - Microsoft</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Business Intelligence dan Analisis Data</t>
         </is>
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Anggota Tim Robotika</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna mendukung pengambilan keputusan strategis perusahaan. Mengembangkan dashboard interaktif menggunakan Power BI untuk memvisualisasikan performa bisnis. Berkolaborasi dengan tim pengembangan dan manajer produk untuk mengidentifikasi peluang optimasi berbasis data.</t>
+          <t>Bertanggung jawab merancang, merakit, dan menguji subsistem robotik termasuk perangkat keras dan perangkat lunak kontrol. Melakukan pengolahan serta analisis data sensor menggunakan Microsoft Power BI untuk pembuatan dashboard performa, serta berkolaborasi dengan tim dalam perbaikan desain dan penyusunan dokumentasi teknis.</t>
         </is>
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 11 bulan 0 hari</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Excel, Machine Learning, Data Visualization, Communication, Teamwork, Problem Solving, Statistical Analysis, Pandas, NumPy</t>
+          <t>Python, C++, Robot Operating System (Robot Operating System/ROS), Microsoft Power BI, Pengolahan Citra, Pembelajaran Mesin, Embedded Systems, Arduino, MATLAB, Desain Elektronika Papan Sirkuit Cetak, Integrasi Sensor, Git, Pemecahan Masalah, Kerja Tim, Komunikasi Teknis, Analisis Data</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
@@ -62973,12 +62973,12 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Data Penjualan Menggunakan Machine Learning</t>
+          <t>Penerapan Metode Regresi dan Time Series untuk Prediksi Penjualan pada Sektor Retail</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
@@ -62988,12 +62988,12 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science Fundamental dengan Python dan Machine Learning</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -63003,22 +63003,22 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Staff Magang Analisis Data</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan laporan berbasis data. Membuat visualisasi interaktif untuk mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim produk dan pengembang untuk menentukan metrik performa dan meningkatkan efisiensi proses bisnis.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan validasi data untuk mendukung kebutuhan analisis. Melaksanakan analisis eksploratori dan mengembangkan model statistik serta machine learning sederhana untuk prediksi; menyajikan hasil melalui visualisasi dan dashboard. Berkolaborasi dengan tim lintas fungsi untuk menerjemahkan kebutuhan bisnis menjadi solusi berbasis data.</t>
         </is>
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, Machine Learning, Statistics, Problem Solving, Communication, Teamwork, Pandas, Tableau, Data Cleaning, Critical Thinking</t>
+          <t>Python, R, SQL, Pandas, NumPy, Scikit-learn, Matplotlib, Seaborn, Tableau, Git, Data Cleaning, Exploratory Data Analysis, Machine Learning, Statistical Modeling, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
@@ -63038,12 +63038,12 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Business Intelligence Berbasis Web</t>
+          <t>Analisis Perilaku Pelanggan Menggunakan Metode Klasterisasi K-Means pada Data Penjualan E-Commerce</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -63053,37 +63053,37 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst dengan Python dan SQL</t>
+          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Junior Data Analyst</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber menggunakan alat analisis seperti Python dan SQL. Menyusun laporan visual menggunakan dashboard untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim manajemen dan pengembang untuk mengoptimalkan strategi berbasis data.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan Structured Query Language (SQL) untuk menghasilkan insight bisnis. Membangun visualisasi dan dashboard interaktif menggunakan Tableau atau Power BI serta menyusun laporan analitis untuk pemangku kepentingan. Berkolaborasi dengan tim produk dan pemasaran untuk menerjemahkan kebutuhan bisnis menjadi metrik dan model analitik.</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 10 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Excel, Machine Learning, Time Management</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Tableau, Power BI, Machine Learning, Data Visualization, Statistical Analysis, Git, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
@@ -63103,12 +63103,12 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Informasi Manajemen Data Big Data Menggunakan Python</t>
+          <t>Analisis Data Besar untuk Prediksi Perilaku Konsumen Menggunakan Metode Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -63118,37 +63118,37 @@
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>Pelatihan Analisis Data Besar menggunakan Python</t>
+          <t>Big Data Using Python (Hands-on)</t>
         </is>
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>Data Science Professional Certification (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Magang Data Analyst</t>
+          <t>Staff Pemasaran</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengumpulan, pembersihan, dan analisis data menggunakan Python dan alat analisis data lainnya. Membuat visualisasi data untuk mendukung keputusan bisnis dan bekerja sama dengan tim pengembangan untuk mengoptimalkan proses analisis data.</t>
+          <t>Merencanakan dan melaksanakan kampanye pemasaran digital untuk meningkatkan brand awareness dan konversi. Menganalisis data pelanggan dan hasil kampanye menggunakan Python dan Google Analytics untuk mengoptimalkan strategi pemasaran serta berkolaborasi dengan tim penjualan dan desain untuk implementasi promosi.</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Python, Pandas, NumPy, SQL, Data Visualization, Problem Solving, Communication, Teamwork, Analytical Thinking, Machine Learning</t>
+          <t>Python, Analisis Data, Pengolahan Big Data, Machine Learning, SQL, Google Analytics, Tableau, Microsoft Excel, Digital Marketing, Komunikasi, Kerja Tim, Pemecahan Masalah</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
@@ -63168,52 +63168,52 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Manajemen</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Informasi Administrasi Kepegawaian Berbasis Web di PT Maju Bersama</t>
+          <t>Analisis Pengaruh Pengendalian Internal dan Kepatuhan Perpajakan terhadap Kualitas Laporan Keuangan pada Perusahaan Menengah</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>Desain Pengalaman Pengguna</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>Pelatihan UX Design Profesional Bersertifikat BNSP</t>
+          <t>Data Analytics untuk Pelaporan Keuangan</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>Certified UX Designer (BNSP)</t>
+          <t>Brevet A dan B - Perpajakan (Lembaga Pelatihan Perpajakan Indonesia)</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>Desain Pengalaman Pengguna</t>
+          <t>Perpajakan</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Staf Administrasi</t>
+          <t>Staf Akuntansi Keuangan dan Perpajakan</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengelolaan dokumen administrasi dan data perusahaan, memastikan kelengkapan dan akurasi data. Menyusun laporan administrasi rutin, mengelola arsip digital, serta berkoordinasi dengan bagian lain untuk kelancaran operasional kantor.</t>
+          <t>Bertanggung jawab menyusun dan menganalisis laporan keuangan bulanan serta melakukan rekonsiliasi akun untuk memastikan akurasi data keuangan. Mengelola perhitungan dan pelaporan pajak sesuai regulasi, menyiapkan dokumentasi untuk audit, serta berkoordinasi dengan tim keuangan dan konsultan pajak untuk memastikan kepatuhan dan efisiensi pajak perusahaan.</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>1 tahun 10 bulan 29 hari</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Microsoft Word, Data Entry, Manajemen Arsip, Komunikasi, Ketelitian, Problem Solving, Teamwork, Administrasi Perkantoran, Time Management</t>
+          <t>Akuntansi Keuangan, Pelaporan Keuangan, Perpajakan, Rekonsiliasi Bank, Microsoft Excel tingkat lanjut, Analisis Data, Python untuk Analisis Data, Structured Query Language (SQL), Penganggaran, Pengendalian Internal, Audit Support, Komunikasi, Kerja Tim, Penyelesaian Masalah, Manajemen Waktu, Perencanaan Pajak</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
@@ -63233,52 +63233,52 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Akuntansi</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Kinerja Bisnis Menggunakan Business Intelligence Tools</t>
+          <t>Analisis Pengaruh Pengendalian Internal terhadap Kualitas Laporan Keuangan pada Perusahaan Manufaktur di Indonesia</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>Analitik dan Optimalisasi Bisnis</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>Pelatihan Analitik dan Optimalisasi Bisnis Tingkat Madya</t>
+          <t>Enhancing Women's Digital Talents: Mastering Generative Artificial Intelligence</t>
         </is>
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>Business Analyst Professional Certification (BNSP)</t>
+          <t>Brevet Pajak A dan B (Ikatan Konsultan Pajak Indonesia)</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>Analisis Data dan Optimalisasi Bisnis</t>
+          <t>Perpajakan</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Analis Bisnis dan Data</t>
+          <t>Staff Keuangan</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Melakukan analisis data operasional untuk mengidentifikasi peluang peningkatan efisiensi dan profitabilitas perusahaan. Mengembangkan model analitik untuk mendukung pengambilan keputusan strategis. Berkolaborasi dengan tim lintas fungsi untuk mengimplementasikan solusi optimal berbasis data.</t>
+          <t>Bertanggung jawab untuk mencatat dan mengelola transaksi keuangan harian serta melakukan rekonsiliasi bank. Menyusun laporan keuangan periodik, membantu proses penganggaran dan pelaporan pajak, serta berkoordinasi dengan auditor internal dan tim terkait untuk memastikan kepatuhan dan akurasi data keuangan.</t>
         </is>
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>1 tahun 8 bulan 0 hari</t>
         </is>
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Data Analysis, SQL, Python, Power BI, Excel, Business Process Improvement, Critical Thinking, Communication, Problem Solving, Team Collaboration, Project Management, Data Visualization</t>
+          <t>Akuntansi Keuangan, Analisis Laporan Keuangan, Perpajakan, Microsoft Excel Lanjutan, Sistem Informasi Akuntansi, Penganggaran, Rekonsiliasi Bank, Pengelolaan Kas, Audit Internal, Microsoft Power BI, Komunikasi, Problem Solving</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -63298,52 +63298,52 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Business Intelligence Tools</t>
+          <t>Perancangan dan Implementasi Sistem Manajemen Basis Data Relasional untuk Aplikasi Inventori Berbasis Web</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Manajemen Basis Data</t>
         </is>
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Analisis Data Menggunakan Python</t>
+          <t>Pelatihan Desain Basis Data dan Pemrograman SQL</t>
         </is>
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Sertifikasi Administrator Basis Data MySQL - Oracle</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Administrator Basis Data</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data perusahaan guna memberikan wawasan strategis kepada manajemen. Mengembangkan laporan interaktif menggunakan dashboard dan melakukan visualisasi data dengan tools seperti Tableau dan Power BI. Berkolaborasi dengan tim bisnis untuk mengidentifikasi tren dan peluang perbaikan kinerja operasional.</t>
+          <t>Merancang dan mengimplementasikan struktur basis data serta memastikan integritas data pada aplikasi. Mengembangkan dan mengoptimalkan query SQL, melakukan pemeliharaan rutin termasuk backup dan recovery, serta kolaborasi dengan tim pengembang untuk integrasi dan performa sistem. Melakukan dokumentasi teknis dan troubleshooting terkait masalah basis data.</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Data Cleaning, Statistical Analysis, Communication, Problem Solving, Teamwork, Microsoft Excel</t>
+          <t>Structured Query Language (SQL), Desain Basis Data, Pemrograman Basis Data dengan SQL, MySQL, PostgreSQL, Optimisasi Performa Basis Data, Backup dan Recovery Basis Data, Stored Procedure dan Triggers, Entity-Relationship Modeling, Git, Pemecahan Masalah, Kerja Tim, Komunikasi</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -63363,52 +63363,52 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Proses Bisnis Menggunakan Business Intelligence Framework</t>
+          <t>Analisis dan Visualisasi Data Pelanggan untuk Optimalisasi Strategi Pemasaran menggunakan Python</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>Analitik dan Optimalisasi Bisnis</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>Pelatihan Analitik dan Optimalisasi Bisnis Tingkat Madya</t>
+          <t>Pelatihan Wawasan Karir Data Analytics dan Dasar Python untuk Analisis Data</t>
         </is>
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>Business Data Analytics Professional (BNSP)</t>
+          <t>Google Data Analytics Certificate (Google)</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>Analisis Data dan Strategi Bisnis</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Analis Bisnis dan Data</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam menganalisis kebutuhan bisnis dan mengelola data untuk memberikan rekomendasi berbasis data. Melakukan visualisasi data, membuat laporan analitis, serta berkolaborasi dengan tim manajemen dalam pengambilan keputusan strategis. Mengoptimalkan proses bisnis melalui analitik dan otomatisasi.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memproses data dari berbagai sumber menggunakan Python dan SQL. Melakukan analisis statistik serta pembuatan visualisasi interaktif menggunakan Tableau dan Matplotlib untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim pemasaran dan manajemen produk untuk menyusun laporan insight dan rekomendasi berbasis data.</t>
         </is>
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>2 tahun 8 bulan 12 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Data Analysis, SQL, Python, Tableau, Microsoft Excel, Critical Thinking, Business Process Optimization, Problem Solving, Teamwork, Communication</t>
+          <t>Python, SQL, Pandas, NumPy, Data Visualization, Tableau, Microsoft Excel, Scikit-learn, Git, Statistical Analysis, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -63433,22 +63433,22 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Prediksi Penjualan Menggunakan Metode Regresi Linier Berbasis Python</t>
+          <t>Implementasi Model Prediksi Permintaan Produk Berbasis Pembelajaran Mesin pada Platform E-Commerce</t>
         </is>
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Pelatihan Wawasan Karir dalam Analisis Data dan Dasar-dasar Python untuk Analisis Data</t>
         </is>
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -63458,22 +63458,22 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Anggota Tim Pengembangan Bisnis</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam menganalisis data pasar dan tren penjualan untuk mendukung pengambilan keputusan strategis. Melakukan riset pelanggan, menyiapkan laporan bisnis, serta berkolaborasi dengan tim pemasaran dan produk untuk mengembangkan peluang bisnis baru. Mendukung proses perencanaan dan evaluasi inisiatif pengembangan bisnis.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan Structured Query Language untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi serta laporan interaktif menggunakan Microsoft Power BI atau Tableau dan berkolaborasi dengan tim produk serta pemangku kepentingan untuk menyampaikan insight yang dapat ditindaklanjuti.</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Business Analysis, Communication, Teamwork, Problem Solving, Critical Thinking, Google Sheets, Data Cleaning</t>
+          <t>Python, Structured Query Language (SQL), Pandas, NumPy, Microsoft Power BI, Tableau, Microsoft Excel, Statistik, Visualisasi Data, Machine Learning, Git, Problem Solving, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -63498,7 +63498,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Model Prediksi Harga Properti Menggunakan Algoritma Machine Learning</t>
+          <t>Sistem Pendukung Keputusan untuk Pengembangan Sumber Daya Manusia Berbasis Analisis Data pada Perusahaan</t>
         </is>
       </c>
       <c r="D971" t="inlineStr">
@@ -63508,37 +63508,37 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science Fundamental dengan Python dan Machine Learning</t>
+          <t>Pelatihan Data Analytics dengan Python dan SQL untuk Pengambilan Keputusan Bisnis</t>
         </is>
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G971" t="inlineStr">
         <is>
-          <t>Data Analysis dan Machine Learning</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Pengembangan Organisasi</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan bahasa pemrograman Python. Mengembangkan model prediksi dan visualisasi data untuk mendukung pengambilan keputusan manajerial. Berkolaborasi dengan tim lintas departemen untuk mengoptimalkan proses bisnis berbasis data.</t>
+          <t>Mendukung tim pengembangan organisasi dalam pengumpulan, pembersihan, dan analisis data karyawan untuk mengidentifikasi kebutuhan pelatihan dan perbaikan proses. Menyusun laporan hasil analisis dan rekomendasi, serta berkolaborasi dengan tim HR untuk membantu implementasi dan evaluasi program pengembangan.</t>
         </is>
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Python, SQL, Machine Learning, Data Visualization, Statistical Analysis, Communication, Teamwork, Problem Solving, Pandas, NumPy, Tableau, Critical Thinking</t>
+          <t>Python, SQL, Pandas, NumPy, Power BI, Tableau, Microsoft Excel, Statistik Terapan, Machine Learning, Analisis Data, Git, Komunikasi, Kerja Tim, Pemecahan Masalah, Presentasi</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
@@ -63558,12 +63558,12 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Teknik Geofisika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Analisis Struktur Bawah Permukaan Menggunakan Metode Seismik Refraksi di Daerah Prospek Geotermal</t>
+          <t>Sistem Informasi Analitik untuk Prediksi Penjualan Berbasis Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
@@ -63573,37 +63573,37 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>Pelatihan Data Science dan Machine Learning dengan Python</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>Data Analysis</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Anggota Lapangan Proyek oleh Grab</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan data lapangan terkait operasional mitra transportasi Grab. Memastikan akurasi data lokasi dan aktivitas pengguna di area proyek. Berkoordinasi dengan tim analisis untuk memberikan laporan berkala mengenai hasil pengumpulan data dan rekomendasi perbaikan operasional.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan Python dan SQL. Membuat visualisasi data dan dashboard menggunakan Tableau atau alat serupa untuk mendukung pengambilan keputusan bisnis serta menyusun laporan insight yang mudah dipahami. Berkolaborasi dengan tim produk dan pemangku kepentingan untuk mengidentifikasi kebutuhan data dan meningkatkan kualitas dataset.</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Python, Data Analysis, SQL, Microsoft Excel, Communication, Problem Solving, Teamwork, Attention to Detail, Time Management, Data Visualization</t>
+          <t>Python, SQL, Pandas, NumPy, Visualisasi Data, Tableau, Microsoft Excel, Pembelajaran Mesin, Analisis Statistik, Pembersihan Data, Pembuatan Dashboard, Git, Pemecahan Masalah, Komunikasi, Kerja Tim</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
@@ -63623,52 +63623,52 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>Pendidikan Agama Islam</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Pengaruh Pembelajaran Digital terhadap Efektivitas Pendidikan Agama Islam di Sekolah Menengah</t>
+          <t>Prediksi Churn Pelanggan Menggunakan Algoritma Random Forest pada Perusahaan E-commerce</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>Pembelajaran Digital</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>Pelatihan Fasilitator Pembelajaran Digital Tingkat Menengah</t>
+          <t>Pelatihan Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>Sertifikat Fasilitator Pembelajaran Digital (Kemendikbud)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>Pembelajaran Digital dan Teknologi Pendidikan</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Operator Sekolah</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Bertanggung jawab terhadap pengelolaan data sekolah pada sistem manajemen sekolah digital. Menginput, memperbarui, dan memverifikasi data siswa, guru, serta sarana prasarana. Membantu pelaksanaan administrasi berbasis teknologi dan mendukung kegiatan pembelajaran daring.</t>
+          <t>Bertanggung jawab mengumpulkan, membersihkan, dan memproses data dari berbagai sumber untuk keperluan analisis. Mengembangkan model prediktif menggunakan Python dan scikit-learn serta membuat visualisasi dan dashboard untuk menyajikan insight kepada pemangku kepentingan. Berkolaborasi dengan tim produk dan pemasaran untuk menerjemahkan temuan data menjadi rekomendasi yang dapat diimplementasikan.</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>1 tahun 0 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Microsoft Word, Manajemen Data, Administrasi Pendidikan, Pengelolaan Sistem Informasi Sekolah, Komunikasi Efektif, Problem Solving, Teamwork, Penggunaan Aplikasi Pembelajaran Digital, Manajemen Waktu</t>
+          <t>Python, Bahasa Pemrograman R, SQL, Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, Matplotlib, Git, Machine Learning, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -63683,57 +63683,57 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Teknik Elektro Mekanika</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Pemantauan Kinerja Motor Listrik Berbasis Internet of Things pada Proses Produksi Industri</t>
+          <t>Analisis Prediktif Penjualan Berbasis Machine Learning pada Platform E-Commerce</t>
         </is>
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Pengenalan Data Analytics</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Mahasiswa Magang di Bagian Operasi dan Perawatan Reaktor</t>
+          <t>Magang Staf Administrasi</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Membantu tim operasi dalam melakukan pemantauan kondisi sistem reaktor dan perawatan rutin peralatan. Melakukan pengumpulan serta analisis data operasional untuk mendukung efisiensi proses dan dokumentasi keselamatan kerja. Berkolaborasi dengan insinyur senior dalam memastikan seluruh prosedur berjalan sesuai standar keselamatan industri.</t>
+          <t>Sebagai Magang Staf Administrasi, bertanggung jawab melakukan entri data harian, verifikasi dan pemeliharaan basis data, serta penyusunan laporan administrasi menggunakan Microsoft Excel dan Google Sheets. Melakukan pembersihan data dasar dan pembuatan visualisasi sederhana untuk mendukung tim analitik. Berkoordinasi dengan tim untuk memastikan kelancaran proses administrasi dan dokumentasi.</t>
         </is>
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Python, Data Visualization, SQL, Power BI, Analisis Statistik, Problem Solving, Teamwork, Communication, Technical Reporting</t>
+          <t>Microsoft Excel, Google Sheets, SQL, Python, Data Cleaning, Data Visualization (Tableau), Pelaporan Data, Microsoft Office, Komunikasi, Kerja Tim, Pemecahan Masalah, Ketelitian</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
@@ -63753,12 +63753,12 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Hukum Ekonomi Syariah</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Model Regresi Linear Berganda pada Perusahaan Ritel</t>
+          <t>Perlindungan Hukum terhadap Transaksi Keuangan Syariah Berbasis Digital di Indonesia</t>
         </is>
       </c>
       <c r="D975" t="inlineStr">
@@ -63768,12 +63768,12 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Pengenalan Data Analytics dengan Python</t>
+          <t>Fundamental Data Science dengan Python dan Machine Learning</t>
         </is>
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate (Google melalui Coursera)</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -63783,22 +63783,22 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Magang Analis Data</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna memberikan wawasan bisnis yang dapat ditindaklanjuti. Membuat visualisasi data serta laporan interaktif menggunakan Power BI dan Python. Berkolaborasi dengan tim lintas departemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Melakukan pembersihan, pengolahan, dan analisis dataset menggunakan Python serta library terkait untuk mendukung pengambilan keputusan. Membuat visualisasi dan laporan hasil analisis untuk disampaikan kepada tim produk dan manajemen. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi kebutuhan data dan mengimplementasikan insight yang dapat diukur.</t>
         </is>
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 5 bulan 21 hari</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Machine Learning, Problem Solving, Communication, Statistical Analysis, Teamwork</t>
+          <t>Python, Statistik, Machine Learning, Data Cleaning, Data Visualization, Structured Query Language (SQL), Git, Pandas, NumPy, Scikit-Learn, Tableau, Pemecahan Masalah, Kolaborasi Tim, Komunikasi</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
@@ -63823,47 +63823,47 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Prediksi Penjualan Menggunakan Algoritma Machine Learning Berbasis Python</t>
+          <t>Perancangan dan Implementasi Sistem Manajemen Basis Data Penjualan Berbasis Web Menggunakan MySQL</t>
         </is>
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analytics dengan Python dan SQL</t>
+          <t>Pelatihan Desain Basis Data dan Pemrograman SQL (Database Design &amp; Database Programming with SQL)</t>
         </is>
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Oracle Database SQL Certified Associate (Oracle University)</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Administrasi Basis Data</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Staff Pengolahan Data dan Analisis</t>
+          <t>Administrator Basis Data Junior</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Melakukan pengolahan dan analisis data menggunakan alat bantu seperti Excel, Python, dan SQL. Membuat visualisasi data untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim untuk menyusun laporan hasil analisis serta memberikan rekomendasi berbasis data.</t>
+          <t>Bertanggung jawab dalam perancangan, implementasi, dan pemeliharaan basis data termasuk pembuatan skema, normalisasi, dan optimasi query SQL. Melakukan backup dan pemulihan data, monitoring performa basis data, serta berkolaborasi dengan tim pengembang untuk integrasi dan troubleshooting aplikasi berbasis data.</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Data Visualization, Power BI, Problem Solving, Communication, Teamwork, Statistical Analysis, Machine Learning</t>
+          <t>SQL (Structured Query Language), Database Design, MySQL, PostgreSQL, Oracle Database, Stored Procedures, Query Optimization, Entity-Relationship Modeling, Database Normalization, Backup and Recovery, Git, Problem Solving, Communication, Teamwork, Analytical Thinking</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -63883,12 +63883,12 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Ilmu Perpustakaan dan Informasi Islam</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Peminjaman Koleksi Digital di Perpustakaan Perguruan Tinggi Islam Menggunakan Framework Django</t>
+          <t>Analisis Sentimen Media Sosial untuk Prediksi Kepuasan Pelanggan Menggunakan Metode Pembelajaran Mesin</t>
         </is>
       </c>
       <c r="D977" t="inlineStr">
@@ -63898,12 +63898,12 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>Pelatihan Big Data Analysis Using Python</t>
+          <t>Python for Data Analysis and Visualization</t>
         </is>
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate (Coursera)</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -63913,22 +63913,22 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Pustakawan</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengelolaan koleksi digital dan fisik perpustakaan, termasuk katalogisasi, klasifikasi, dan pemeliharaan sistem informasi perpustakaan. Mengembangkan inovasi digital library yang memudahkan akses pengguna terhadap sumber informasi. Berkolaborasi dengan staf teknologi informasi untuk memastikan optimalisasi sistem database perpustakaan.</t>
+          <t>Bertanggung jawab melakukan pengumpulan, pembersihan, dan analisis data menggunakan Python dan SQL untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi dan dashboard interaktif menggunakan Tableau dan Matplotlib untuk menyampaikan insight kepada tim lintas fungsi. Berkolaborasi dengan tim produk untuk menerjemahkan kebutuhan bisnis menjadi analisis yang dapat ditindaklanjuti.</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 14 hari</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Analysis, Microsoft Excel, Library Management, Information Retrieval, Communication, Teamwork, Problem Solving, Digital Literacy</t>
+          <t>Python, R, SQL (Structured Query Language), Pandas, NumPy, Scikit-learn, Data Visualization, Tableau, MySQL, Git, Statistical Analysis, Machine Learning, Communication, Teamwork, Problem Solving</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
@@ -63943,57 +63943,57 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Manajemen Informatika</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Business Intelligence untuk Optimalisasi Pengambilan Keputusan Penjualan</t>
+          <t>Sistem Informasi Pengelolaan Data Pelatihan Berbasis Web</t>
         </is>
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Komputer dan Jaringan</t>
         </is>
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Analyst dengan Power BI dan SQL</t>
+          <t>Pelatihan Operator Komputer Madya BNSP</t>
         </is>
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>Certified Business Intelligence Professional (CBIP)</t>
+          <t>Sertifikasi Operator Komputer Madya (BNSP)</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>Business Intelligence dan Analisis Data</t>
+          <t>Operasional Komputer</t>
         </is>
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Analis Business Intelligence</t>
+          <t>Staf Administrasi Data</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data untuk menghasilkan laporan yang mendukung keputusan strategis perusahaan. Mengembangkan dashboard interaktif menggunakan Power BI dan SQL. Bekerja sama dengan tim bisnis untuk mengidentifikasi peluang peningkatan proses melalui analisis data.</t>
+          <t>Bertanggung jawab untuk mengoperasikan perangkat lunak perkantoran dan mengelola data. Melakukan input data, pemeliharaan database sederhana, dan pembuatan laporan rutin. Memastikan kelancaran operasional harian terkait penggunaan komputer.</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 2 bulan 15 hari</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Microsoft Power BI, SQL, Python, Data Visualization, Data Warehousing, Analytical Thinking, Communication, Problem Solving, Teamwork, Microsoft Excel, ETL Process, Business Analysis</t>
+          <t>Microsoft Office, Pengelolaan Data, Administrasi Perkantoran, Komunikasi Efektif, Pemecahan Masalah, Ketelitian, Kerja Tim, Pengoperasian Komputer</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
@@ -64013,12 +64013,12 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Ilmu Komputer</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Python dan Power BI untuk Mendukung Pengambilan Keputusan Bisnis</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Algoritma Machine Learning</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
@@ -64028,12 +64028,12 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Python for Data Analytics and Visualization</t>
         </is>
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (Microsoft Certified)</t>
+          <t>Certified Data Analyst (CDA) oleh Google</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -64043,22 +64043,22 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan dan insight bisnis. Mengembangkan visualisasi data yang interaktif menggunakan Power BI dan Python. Berkolaborasi dengan tim manajemen untuk mendukung pengambilan keputusan berbasis data.</t>
+          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk mengidentifikasi tren dan pola. Membuat laporan dan visualisasi data yang informatif untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim pengembangan produk untuk mengimplementasikan solusi berbasis data.</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>1 tahun 2 bulan 15 hari</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Problem Solving, Communication, Team Collaboration, Critical Thinking, Data Cleaning, Machine Learning</t>
+          <t>Python, SQL, R, Tableau, Power BI, Machine Learning, Statistik, Visualisasi Data, Pembersihan Data, Komunikasi, Pemecahan Masalah, Berpikir Analitis</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
@@ -64073,17 +64073,17 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Manajemen Informatika</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Algoritma Naive Bayes</t>
         </is>
       </c>
       <c r="D980" t="inlineStr">
@@ -64093,12 +64093,12 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>Data Analyst Associate (Microsoft Certified)</t>
+          <t>Certified Data Analyst (CDA) oleh BNSP</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -64108,22 +64108,22 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Internship Data Analyst</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data interaktif menggunakan Power BI dan mengembangkan model prediktif untuk mengidentifikasi tren dan peluang. Berkolaborasi dengan tim lintas divisi untuk memastikan hasil analisis dapat diterapkan secara efektif.</t>
+          <t>Membantu tim dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat laporan dan visualisasi data yang informatif menggunakan berbagai tools. Berpartisipasi dalam proyek-proyek analisis data untuk mengidentifikasi tren dan pola.</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 2 bulan 0 hari</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Power BI, Tableau, Data Visualization, Statistical Analysis, Machine Learning, Communication, Teamwork</t>
+          <t>SQL, Python, Microsoft Excel, Tableau, Data Cleaning, Data Visualization, Statistik, Problem Solving, Komunikasi, Analisis Bisnis</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
@@ -64143,52 +64143,52 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>Pendidikan Sistem dan Teknologi Informasi</t>
+          <t>Manajemen</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Analisis Penerapan Pembelajaran Berbasis Proyek untuk Meningkatkan Kompetensi Mahasiswa pada Mata Kuliah Pemrograman Dasar</t>
+          <t>Analisis Pengaruh Kualitas Pelayanan dan Harga Terhadap Kepuasan Pelanggan pada Perusahaan Ritel</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Kecerdasan Buatan</t>
         </is>
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>Fundamental Data Science</t>
+          <t>Menskalakan AI di Organisasi Anda</t>
         </is>
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Certified Business Analyst Professional (CBAP)</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Analisis Bisnis</t>
         </is>
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Administrator Bisnis</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk merancang dan menjalankan strategi pemasaran digital melalui berbagai kanal seperti media sosial, email marketing, dan kampanye berbayar. Melakukan analisis data perilaku konsumen untuk meningkatkan efektivitas kampanye dan mengoptimalkan anggaran pemasaran. Berkolaborasi dengan tim konten dan desain dalam pembuatan materi promosi yang menarik.</t>
+          <t>Bertanggung jawab untuk mengelola operasional harian kantor, termasuk penjadwalan, korespondensi, dan pengarsipan dokumen. Mendukung tim manajemen dalam persiapan laporan dan presentasi. Memastikan kelancaran alur kerja administratif dan koordinasi antar departemen.</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>0 tahun 3 bulan 0 hari</t>
+          <t>1 tahun 7 bulan 14 hari</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Search Engine Optimization, Google Analytics, Social Media Marketing, Content Strategy, Data Analysis, Communication, Teamwork, Problem Solving, Copywriting, Digital Advertising</t>
+          <t>Microsoft Office Suite, Administrasi Kantor, Manajemen Data, Komunikasi Efektif, Problem Solving, Organisasi, Time Management, Analisis Bisnis, Pelaporan, Presentasi</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
@@ -64203,57 +64203,57 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Budidaya Ikan</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Analisis Potensi Budidaya Ikan Nila di Perairan Tawar</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Teknologi Keuangan</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Analisis Data Menggunakan Python</t>
+          <t>Fintech Foundation Program Flex</t>
         </is>
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Certified Fintech Professional (CFP)</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Teknologi Keuangan</t>
         </is>
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Intern Field Assistant</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, mengolah, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat laporan visual menggunakan dashboard interaktif dan memberikan rekomendasi berbasis data kepada manajemen.</t>
+          <t>Membantu dalam pengumpulan data lapangan terkait proyek budidaya ikan. Melakukan pencatatan dan pelaporan hasil observasi. Berkoordinasi dengan tim lapangan untuk memastikan kelancaran operasional.</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 10 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Problem Solving, Communication, Critical Thinking, Teamwork</t>
+          <t>Pengumpulan Data, Analisis Data, Komunikasi, Kerjasama Tim, Microsoft Excel, Observasi, Pelaporan, Manajemen Waktu</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
@@ -64273,12 +64273,12 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Ekonomi Pembangunan</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Analisis Faktor yang Mempengaruhi Tingkat Kepuasan Pelanggan Menggunakan Regresi Linear Berganda</t>
+          <t>Analisis Dampak Kebijakan Moneter Terhadap Pertumbuhan Ekonomi Indonesia</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
@@ -64288,37 +64288,37 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>Wawasan Karir dalam Bidang Data Analytics</t>
+          <t>Fundamental Data Science</t>
         </is>
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>RevoU Tech Academy - Learn Data Analytics &amp; Software Development With AI</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Pemrograman &amp; Pengembangan Perangkat Lunak</t>
         </is>
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staff Financial Accounting</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan berbagai alat analisis seperti Python dan SQL. Menyusun visualisasi data untuk mendukung pengambilan keputusan bisnis dan berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi tren serta peluang peningkatan performa.</t>
+          <t>Bertanggung jawab dalam menyusun laporan keuangan bulanan dan tahunan. Melakukan verifikasi transaksi keuangan dan memastikan kepatuhan terhadap standar akuntansi. Berkolaborasi dengan tim audit untuk proses audit internal dan eksternal.</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 10 bulan 0 hari</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Data Visualization, Statistical Analysis, Problem Solving, Communication, Machine Learning, Teamwork</t>
+          <t>Microsoft Excel, Akuntansi Keuangan, Analisis Data, Pembukuan, Laporan Keuangan, Komunikasi, Problem Solving, Ketelitian, SQL, Python</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -64338,12 +64338,12 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Analisis dan Perancangan Sistem Informasi Penjualan Berbasis Web</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -64353,12 +64353,12 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Analisis Data Menggunakan Python</t>
+          <t>Fundamental Data Science</t>
         </is>
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>Associate Data Analyst (BNSP)</t>
+          <t>Certified Data Analyst (CDA)</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -64368,22 +64368,22 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data bisnis menggunakan alat seperti Python dan SQL. Membuat visualisasi data interaktif serta menyusun laporan untuk mendukung pengambilan keputusan manajemen. Berkolaborasi dengan tim lintas departemen untuk menyelesaikan permasalahan berbasis data.</t>
+          <t>Membantu tim dalam mengumpulkan, membersihkan, dan menganalisis data untuk mengidentifikasi tren dan pola. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berpartisipasi dalam pengembangan model prediktif sederhana.</t>
         </is>
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Microsoft Excel, Data Visualization, Machine Learning, Statistical Analysis, Critical Thinking, Problem Solving, Communication, Teamwork, Data Cleaning</t>
+          <t>Python, SQL, Microsoft Excel, Tableau, Data Cleaning, Data Visualization, Statistik, Problem Solving, Komunikasi, Analisis Data</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
@@ -64403,27 +64403,27 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Analitik Data Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Perancangan Sistem Informasi Akademik Berbasis Web Menggunakan Framework Laravel</t>
         </is>
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Pengembangan Database</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>Pelatihan Data Analyst Using Python and SQL</t>
+          <t>Database Design &amp; Database Programming with SQL</t>
         </is>
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -64433,22 +64433,22 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, membersihkan, dan menganalisis data untuk menghasilkan insight yang mendukung pengambilan keputusan bisnis. Mengembangkan dashboard interaktif dan laporan menggunakan tools analitik seperti Power BI dan Python. Berkolaborasi dengan tim manajemen untuk mengidentifikasi tren dan peluang bisnis berdasarkan data.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan berbagai alat. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim untuk mengidentifikasi tren dan pola data yang relevan.</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Microsoft Excel, Data Visualization, Machine Learning, Communication, Problem Solving, Analytical Thinking, Teamwork</t>
+          <t>SQL, Python, R, Tableau, Google Sheets, Data Cleaning, Data Visualization, Problem Solving, Communication, Critical Thinking, Microsoft Excel, Statistik</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
@@ -64463,57 +64463,57 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>SMK</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Elektronika Industri</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Analisis dan Perancangan Sistem Business Intelligence untuk Pengambilan Keputusan Penjualan pada Perusahaan Retail</t>
+          <t>Tidak ada tugas akhir (tingkat SMK)</t>
         </is>
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>Business Intelligence dan Data Analytics</t>
+          <t>Keamanan Siber</t>
         </is>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Engineer dengan Power BI dan SQL</t>
+          <t>Alibaba Cloud Security Associate Training</t>
         </is>
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>Certified Business Intelligence Professional (CBIP)</t>
+          <t>Alibaba Cloud Certified Associate - Security</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Keamanan Cloud</t>
         </is>
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Business Intelligence Engineer</t>
+          <t>Administrator Olah Data</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengembangkan, mengelola, dan memelihara sistem Business Intelligence perusahaan. Mengumpulkan dan memproses data dari berbagai sumber untuk menghasilkan laporan analisis yang akurat. Berkolaborasi dengan tim data dan manajemen untuk memberikan insight strategis berdasarkan data.</t>
+          <t>Bertanggung jawab untuk mengelola dan memelihara basis data perusahaan. Melakukan input, verifikasi, dan pembersihan data secara berkala. Membuat laporan data untuk mendukung pengambilan keputusan manajemen.</t>
         </is>
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>5 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>SQL, Power BI, Tableau, Python, Data Warehousing, ETL Process, Analytical Thinking, Communication, Teamwork, Problem Solving</t>
+          <t>Manajemen Basis Data, Microsoft Excel, Analisis Data, Pembersihan Data, Integritas Data, Problem Solving, Komunikasi Efektif, Ketelitian</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -64538,47 +64538,47 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Perancangan Dashboard Business Intelligence untuk Analisis Kinerja Penjualan Menggunakan Power BI</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Metode Machine Learning</t>
         </is>
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>Business Intelligence dan Analisis Data</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>Pelatihan Business Intelligence Engineer Sertifikasi BNSP</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>Microsoft Certified: Data Analyst Associate</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>Analisis Data dan Business Intelligence</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Business Intelligence Engineer</t>
+          <t>Analis Data Junior</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, memproses, dan menganalisis data bisnis guna menghasilkan laporan dan dashboard interaktif. Mengoptimalkan proses ekstraksi data dari berbagai sumber dan mengembangkan model data untuk mendukung pengambilan keputusan strategis. Bekerja sama dengan tim manajemen dan pengembang untuk memastikan keakuratan dan relevansi data secara berkelanjutan.</t>
+          <t>Menganalisis data penjualan dan perilaku pelanggan untuk mengidentifikasi tren dan pola. Membuat laporan dan visualisasi data yang informatif untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim lintas fungsi untuk memahami kebutuhan data dan memberikan insight yang relevan.</t>
         </is>
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>1 tahun 0 bulan 0 hari</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>SQL, Python, Power BI, Tableau, Data Warehousing, ETL Development, Analytical Thinking, Problem Solving, Communication, Data Visualization, Microsoft Excel, Teamwork</t>
+          <t>SQL, Python, R, Tableau, Microsoft Excel, Data Visualization, Statistical Analysis, Problem Solving, Communication, Critical Thinking, Machine Learning, Data Cleaning</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -64593,57 +64593,57 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>SMK</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Rekayasa Perangkat Lunak</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Perancangan Aplikasi Manajemen Data Karyawan Berbasis Web Menggunakan PHP dan MySQL</t>
+          <t>Tidak ada tugas akhir (tingkat SMK)</t>
         </is>
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>Administrasi Sistem Komputer</t>
+          <t>Operator Komputer</t>
         </is>
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>Pelatihan Operator Komputer Madya BNSP</t>
+          <t>Operator Komputer Madya</t>
         </is>
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>Junior Office Operator (BNSP)</t>
+          <t>Sertifikasi Kompetensi Operator Komputer (BNSP)</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>Administrasi Perkantoran dan Komputer</t>
+          <t>Komputer dan Jaringan</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Operator Komputer</t>
+          <t>Staff Administrasi Data</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengoperasian sistem komputer untuk mendukung kegiatan administrasi dan pengolahan data. Melakukan input, pemeliharaan, serta pembaruan data pada berbagai aplikasi perkantoran. Berkoordinasi dengan tim administrasi dan teknisi jaringan untuk memastikan sistem berjalan dengan lancar.</t>
+          <t>Bertanggung jawab untuk mengelola dan memelihara data perusahaan. Melakukan input data, verifikasi, dan memastikan akurasi informasi. Mendukung operasional harian dengan menyediakan laporan data yang dibutuhkan.</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>4 tahun 9 bulan 0 hari</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Microsoft Word, Microsoft Excel, Microsoft PowerPoint, Database Management, Data Entry, Internet Browsing, Communication, Teamwork, Time Management, Problem Solving</t>
+          <t>Microsoft Office, Pengelolaan Data, Administrasi Perkantoran, Komunikasi Efektif, Pemecahan Masalah, Ketelitian, Manajemen Waktu, Pengoperasian Komputer</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
@@ -64658,57 +64658,57 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Manajemen Sumber Daya Manusia</t>
+          <t>Matematika</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Analisis Pengaruh Pelatihan dan Pengembangan Karyawan terhadap Kinerja di PT Astra Internasional Tbk.</t>
+          <t>Analisis Regresi Logistik untuk Prediksi Keberhasilan Pemasaran Produk Digital</t>
         </is>
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>Kecerdasan Buatan Terapan</t>
+          <t>Kewirausahaan Digital</t>
         </is>
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>Pelatihan AI Intermediate: Application Development Track oleh elevAIte</t>
+          <t>Kewirausahaan Digital Dasar</t>
         </is>
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Sertifikasi Kewirausahaan Digital (BNSP)</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>Analisis Data dan Kecerdasan Buatan</t>
+          <t>Kewirausahaan</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Staf Administrasi Intern</t>
+          <t>Administrasi Grosir</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Melakukan pengelolaan dan pengarsipan dokumen perusahaan, membantu proses administrasi operasional harian, serta menyusun laporan kegiatan internal. Berkoordinasi dengan tim HR dan keuangan untuk kelancaran proses administrasi dan dukungan data yang diperlukan.</t>
+          <t>Bertanggung jawab atas pengelolaan data penjualan dan inventaris grosir. Melakukan pencatatan transaksi harian, rekonsiliasi stok barang, dan penyusunan laporan keuangan sederhana. Berkoordinasi dengan tim penjualan dan logistik untuk memastikan kelancaran operasional.</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>0 tahun 9 bulan 0 hari</t>
+          <t>2 tahun 10 bulan 0 hari</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Microsoft Excel, Microsoft Word, Data Entry, Manajemen Dokumen, Komunikasi, Kerja Tim, Problem Solving, Administrasi Perkantoran, Analisis Data, Penggunaan Sistem Informasi Manajemen</t>
+          <t>Manajemen Data, Microsoft Excel, Analisis Data, Komunikasi, Pemecahan Masalah, Ketelitian, Pengelolaan Inventaris, Pelaporan Keuangan, Kewirausahaan, Pemasaran Digital</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -64728,22 +64728,22 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>Statistika</t>
+          <t>Teknologi Informasi</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Analisis Prediksi Penjualan Menggunakan Metode Regresi Linear Berganda Berbasis Python</t>
+          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Python dan Tableau</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Aplikasi Data Analytics Menggunakan Python</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F990" t="inlineStr">
@@ -64753,27 +64753,27 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>IT Operation Intern</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data menggunakan bahasa pemrograman Python dan SQL. Membuat visualisasi data interaktif untuk mendukung pengambilan keputusan dan menyusun laporan analisis yang mudah dipahami oleh manajemen.</t>
+          <t>Membantu dalam pemantauan sistem dan jaringan untuk memastikan operasional berjalan lancar. Melakukan troubleshooting dasar pada masalah perangkat keras dan perangkat lunak. Mendukung tim IT dalam pengelolaan inventaris aset teknologi.</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Tableau, Power BI, Data Visualization, Machine Learning, Communication, Problem Solving, Statistical Analysis</t>
+          <t>SQL, Python, Microsoft Excel, Tableau, Google Sheets, Problem Solving, Komunikasi, Manajemen Waktu, Pemantauan Sistem, Jaringan Komputer</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -64793,52 +64793,52 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Sistem Informasi Kelautan</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Kelautan untuk Prediksi Kondisi Ekosistem Laut Menggunakan Metode Data Mining</t>
+          <t>Analisis dan Perancangan Sistem Informasi Penjualan Berbasis Web</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>Pelatihan Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Certified Data Analyst (CDA)</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
         <is>
-          <t>Data Analisis</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Magang Proyek Berbasis Virtual sebagai SEO Outreach di Niagahoster</t>
+          <t>Asisten Analis Data</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Melakukan riset kata kunci dan analisis tren pencarian untuk meningkatkan peringkat halaman web di mesin pencari. Mengelola kampanye outreach dengan mitra website, menulis konten yang dioptimalkan SEO, dan memantau kinerja backlink serta traffic situs menggunakan alat analisis web.</t>
+          <t>Membantu tim analis data dalam mengumpulkan, membersihkan, dan menganalisis data. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berpartisipasi dalam proyek-proyek analisis data untuk mengidentifikasi tren dan pola.</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>0 tahun 1 bulan 0 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Search Engine Optimization, Data Analysis, Google Analytics, Keyword Research, Content Writing, Excel, Communication, Teamwork, Problem Solving, Digital Marketing</t>
+          <t>Microsoft Excel, SQL, Python, Data Visualization, Data Cleaning, Problem Solving, Communication, Teamwork, Critical Thinking, Data Interpretation</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -64858,17 +64858,17 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Ilmu Politik dan Pemerintahan</t>
+          <t>Ekonomi Pembangunan</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>Analisis Implementasi Kebijakan Pemerintah Daerah dalam Pengembangan Sektor Teknologi Informasi</t>
+          <t>Analisis Dampak Pelatihan Data Analytics Terhadap Peningkatan Produktivitas Karyawan</t>
         </is>
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Analisis Data</t>
         </is>
       </c>
       <c r="E992" t="inlineStr">
@@ -64878,32 +64878,32 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>Google Data Analytics Professional Certificate</t>
+          <t>Introduction to DevOps on Alibaba Cloud</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Tata Kelola dan Manajemen Teknologi Informasi</t>
         </is>
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Data Engineering Fellowship</t>
+          <t>Spesialis Pemasaran Digital dan Desain Grafis</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengelola pipeline data dari berbagai sumber untuk mendukung proses analisis dan pelaporan. Melakukan transformasi data menggunakan bahasa pemrograman Python dan SQL. Berkolaborasi dengan tim data untuk memastikan kualitas, integritas, dan efisiensi manajemen data perusahaan.</t>
+          <t>Bertanggung jawab untuk merancang dan mengimplementasikan strategi pemasaran digital. Membuat konten visual dan grafis untuk berbagai platform media sosial dan kampanye iklan. Menganalisis performa kampanye dan mengoptimalkan hasilnya.</t>
         </is>
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>0 tahun 4 bulan 0 hari</t>
+          <t>1 tahun 6 bulan 0 hari</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, ETL (Extract Transform Load), Google BigQuery, Statistics, Problem Solving, Communication, Analytical Thinking, Teamwork</t>
+          <t>Pemasaran Digital, Desain Grafis, SEO, SEM, Google Analytics, Adobe Photoshop, Adobe Illustrator, Content Creation, Social Media Marketing, Komunikasi, Problem Solving, Kreativitas</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -64918,57 +64918,57 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Manajemen Informatika</t>
+          <t>Teknik Elektro</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Informasi Manajemen Data Karyawan Berbasis Web pada PT Nusantara Data Solusi</t>
+          <t>Analisis dan Perancangan Sistem Monitoring Konsumsi Energi Listrik Berbasis IoT</t>
         </is>
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>Pengoperasian Komputer dan Aplikasi Perkantoran</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>Pelatihan Operator Komputer Madya BNSP</t>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
         </is>
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>Junior Office Operator (BNSP)</t>
+          <t>Google Data Analytics Professional Certificate</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>Pengoperasian Komputer dan Administrasi Perkantoran</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Operator Komputer dan Administrasi Data</t>
+          <t>Internship Data Analyst</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam pengelolaan data administrasi menggunakan aplikasi perkantoran seperti Microsoft Excel dan Word. Melaksanakan input, pengolahan, dan pelaporan data secara akurat serta membantu departemen lain dalam tugas administratif yang membutuhkan dukungan teknologi komputer.</t>
+          <t>Membantu tim dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat laporan dan visualisasi data menggunakan berbagai tools. Berpartisipasi dalam proyek-proyek analisis data untuk mengidentifikasi tren dan pola.</t>
         </is>
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 10 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Microsoft Word, Microsoft Excel, Microsoft PowerPoint, Data Entry, File Management, Communication, Teamwork, Problem Solving, Time Management, Attention to Detail</t>
+          <t>SQL, Python, R, Tableau, Microsoft Excel, Data Cleaning, Data Visualization, Statistical Analysis, Problem Solving, Communication</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -64988,52 +64988,52 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Fisika</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Python dan Tableau</t>
+          <t>Analisis Pengaruh Parameter Fisika Terhadap Kinerja Sistem Kontrol Otomatis</t>
         </is>
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Keamanan Siber</t>
         </is>
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
+          <t>Dasar-dasar Keamanan AI</t>
         </is>
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Certified Data Scientist (CDS) oleh Global Science Institute</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Data Management System</t>
         </is>
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Asisten Laboratorium Sistem Kontrol</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Melakukan pengumpulan, pembersihan, dan analisis data untuk mendukung pengambilan keputusan bisnis. Membuat visualisasi data menggunakan Python, Tableau, dan Power BI. Berkolaborasi dengan tim manajemen untuk mengidentifikasi pola dan tren dari hasil analisis data.</t>
+          <t>Membantu dalam perancangan dan pengujian sistem kontrol. Melakukan kalibrasi peralatan laboratorium dan analisis data eksperimen. Mendukung kegiatan penelitian dan pengembangan di bidang sistem kontrol.</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Microsoft Excel, Data Visualization, Statistical Analysis, Machine Learning, Problem Solving, Communication</t>
+          <t>Analisis Data, Pemrograman Python, MATLAB, Sistem Kontrol, Pengujian Sistem, Kalibrasi, Pemecahan Masalah, Kerja Tim, Komunikasi Efektif, Microsoft Office, Riset, Dokumentasi Teknis</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
@@ -65053,52 +65053,52 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Metode Business Intelligence pada Perusahaan Retail</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Algoritma Support Vector Machine</t>
         </is>
       </c>
       <c r="D995" t="inlineStr">
         <is>
+          <t>Data Science</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>Wawasan Karir dalam Bidang Data Analytics</t>
+        </is>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>Google Data Analytics Professional Certificate</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
           <t>Data Analytics</t>
         </is>
       </c>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>Women in Tech Bootcamp Data Analytics</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr">
-        <is>
-          <t>Google Data Analytics Professional Certificate</t>
-        </is>
-      </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>Analisis Data</t>
-        </is>
-      </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Intern Data Analyst</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data guna menghasilkan insight bisnis. Mengembangkan dashboard interaktif menggunakan Google Data Studio dan Tableau. Berkolaborasi dengan tim pemasaran dan keuangan dalam pembuatan laporan mingguan serta rekomendasi berbasis data.</t>
+          <t>Membantu tim dalam mengumpulkan, membersihkan, dan menganalisis data untuk mendukung pengambilan keputusan bisnis. Membuat laporan dan visualisasi data menggunakan berbagai tools untuk menyajikan insight yang relevan.</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Python, SQL, Data Visualization, Power BI, Tableau, Microsoft Excel, Statistical Analysis, Google Sheets, Communication, Problem Solving, Teamwork, Critical Thinking</t>
+          <t>SQL, Python, R, Tableau, Microsoft Excel, Data Cleaning, Data Visualization, Statistical Analysis, Problem Solving, Communication, Teamwork, Critical Thinking</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
@@ -65118,52 +65118,52 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknologi Informasi</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Metode Business Intelligence Berbasis Web</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Algoritma Naive Bayes</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Etika Digital dan Literasi Media</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>Pelatihan Wawasan Karir dan Pengembangan Kompetensi dalam Data Analytics</t>
+          <t>Etis Bermedia Sosial Berbasis Nilai Lokal</t>
         </is>
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Certified Digital Ethics Professional (CDEP)</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Etika Digital</t>
         </is>
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Staf Administrasi Data</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengolah, menganalisis, dan memvisualisasikan data untuk mendukung pengambilan keputusan bisnis. Mengembangkan laporan dan dashboard interaktif menggunakan alat analisis data. Bekerja sama dengan tim lintas fungsi untuk memahami kebutuhan bisnis serta mengoptimalkan proses berbasis data.</t>
+          <t>Bertanggung jawab untuk mengelola dan memelihara database perusahaan. Melakukan input data, verifikasi, dan memastikan integritas data. Berkolaborasi dengan tim IT untuk pengembangan sistem informasi.</t>
         </is>
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 3 bulan 0 hari</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Python, SQL, Power BI, Tableau, Excel Lanjutan, Statistik, Data Visualization, Problem Solving, Communication, Teamwork, Critical Thinking, Time Management</t>
+          <t>Manajemen Data, Microsoft Excel, SQL, Analisis Data, Komunikasi Efektif, Pemecahan Masalah, Kerja Tim, Etika Profesional</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -65183,52 +65183,52 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Ilmu Komunikasi</t>
+          <t>Teknologi Sains Data</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Analisis Strategi Pemasaran Digital Melalui Media Sosial pada Brand Fashion Lokal</t>
+          <t>Analisis Sentimen Ulasan Produk Menggunakan Algoritma Machine Learning</t>
         </is>
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>Analisis Media Sosial dan Pemasaran Digital</t>
+          <t>Basis Data</t>
         </is>
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>Pelatihan Profesional Social Media Analyst oleh Digital Marketing Institute</t>
+          <t>Database Design &amp; Database Programming with SQL</t>
         </is>
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>Certified Social Media Analyst (Digital Marketing Institute)</t>
+          <t>Oracle Certified Associate, Java SE 8 Programmer</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
         <is>
-          <t>Analisis Data dan Pemasaran Digital</t>
+          <t>Pengembangan Perangkat Lunak</t>
         </is>
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Analis Media Sosial</t>
+          <t>Staff Analis Data</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Melakukan analisis mendalam terhadap performa kampanye media sosial menggunakan data engagement dan reach. Mengembangkan strategi konten berdasarkan tren audiens dan hasil analisis data. Berkolaborasi dengan tim pemasaran untuk meningkatkan efektivitas kampanye digital.</t>
+          <t>Menganalisis data untuk mengidentifikasi tren dan pola yang relevan dengan kebutuhan bisnis. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan strategis. Berkolaborasi dengan tim pengembang untuk mengimplementasikan solusi berbasis data.</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>2 tahun 5 bulan 12 hari</t>
+          <t>0 tahun 1 bulan 0 hari</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Social Media Analytics, Digital Marketing Strategy, Data Interpretation, Google Analytics, Content Planning, Communication, Teamwork, Problem Solving, Copywriting, Campaign Performance Evaluation</t>
+          <t>SQL, Python, R, Data Analysis, Data Visualization, Machine Learning, Problem Solving, Communication, Teamwork, Microsoft Excel, Tableau, Power BI</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -65248,12 +65248,12 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Analisis dan Visualisasi Data Penjualan Menggunakan Metode Business Intelligence</t>
+          <t>Analisis dan Implementasi Sistem Rekomendasi Berbasis Collaborative Filtering untuk E-commerce</t>
         </is>
       </c>
       <c r="D998" t="inlineStr">
@@ -65263,37 +65263,37 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>Pelatihan Python for Data Analysis Intensif</t>
+          <t>Pengenalan Data Science dan Pemanfaatannya di Berbagai Sektor</t>
         </is>
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Sertifikat Kompetensi - Software Engineer (BNSP)</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Information System &amp; Technology Development</t>
         </is>
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Analis Data</t>
+          <t>Mahasiswa Studi Independen Bersertifikat - Data Analyst Student</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis data dari berbagai sumber untuk menghasilkan laporan berbasis data. Melakukan visualisasi data menggunakan tools seperti Tableau dan Power BI. Bekerja sama dengan tim manajemen untuk mengidentifikasi pola dan wawasan yang dapat meningkatkan strategi bisnis.</t>
+          <t>Menganalisis data untuk mengidentifikasi tren dan pola yang relevan dengan bisnis. Membuat laporan dan visualisasi data untuk mendukung pengambilan keputusan. Berkolaborasi dengan tim untuk mengembangkan solusi berbasis data.</t>
         </is>
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Python, SQL, Tableau, Power BI, Excel, Data Visualization, Communication, Problem Solving, Machine Learning, Teamwork</t>
+          <t>Python, SQL, Data Cleaning, Data Visualization, Machine Learning, Microsoft Excel, Problem Solving, Critical Thinking, Communication, Teamwork</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
@@ -65313,52 +65313,52 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Statistika</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Analisis Data Menggunakan Bahasa Pemrograman Python</t>
+          <t>Analisis Regresi Logistik untuk Prediksi Kepuasan Pelanggan E-commerce</t>
         </is>
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Analisis Data dan Pemasaran Digital</t>
         </is>
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>Pelatihan Python untuk Analisis Data dan Otomasi</t>
+          <t>Google Analytics dan SEO</t>
         </is>
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>Python Programming Certification by BNSP</t>
+          <t>Google Analytics Individual Qualification (GAIQ)</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>Pemrograman dan Analisis Data</t>
+          <t>Analisis Web</t>
         </is>
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Programmer Aplikasi dan Analisis Data</t>
+          <t>Research dan Product Analyst</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengembangkan aplikasi berbasis Python untuk pengolahan dan analisis data. Melakukan integrasi data dari berbagai sumber, pembuatan script otomatisasi proses bisnis, serta berkolaborasi dengan tim pengembang untuk meningkatkan efisiensi sistem yang ada.</t>
+          <t>Melakukan analisis data produk untuk mengidentifikasi tren dan peluang peningkatan. Merancang dan mengimplementasikan strategi SEO untuk meningkatkan visibilitas produk. Berkolaborasi dengan tim pengembangan produk untuk mengoptimalkan fitur berdasarkan insight data.</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 15 hari</t>
+          <t>0 tahun 4 bulan 0 hari</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Python, Pandas, NumPy, SQL, Git, Data Visualization, Problem Solving, Teamwork, Communication, RESTful API, Machine Learning, Agile Methodology</t>
+          <t>Statistika, Analisis Data, Google Analytics, SEO, Riset Pasar, SQL, Python, Microsoft Excel, Komunikasi, Pemecahan Masalah, Presentasi, Manajemen Proyek</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
@@ -65378,52 +65378,52 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>Teknik Informatika</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Analisis dan Optimalisasi Proses Bisnis Menggunakan Business Intelligence Tools pada Perusahaan Ritel</t>
+          <t>Analisis dan Implementasi Algoritma Machine Learning untuk Prediksi Harga Saham</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>Analitik dan Optimalisasi Bisnis</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>Pelatihan Analitik dan Optimalisasi Bisnis Tingkat Madya</t>
+          <t>Big Data using Python for Data Analysis and Machine Learning</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Certified Associate in Python Programming (PCEP)</t>
         </is>
       </c>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>Analisis Data dan Manajemen Bisnis</t>
+          <t>Pemrograman Python</t>
         </is>
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Analis Data Bisnis</t>
+          <t>Analis Data</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Bertanggung jawab dalam mengumpulkan, menganalisis, dan menginterpretasikan data bisnis untuk mendukung pengambilan keputusan strategis. Mengembangkan laporan dan dashboard interaktif menggunakan alat analitik untuk memantau kinerja perusahaan. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi peluang peningkatan efisiensi operasional.</t>
+          <t>Bertanggung jawab untuk mengumpulkan, membersihkan, dan menganalisis dataset besar menggunakan Python. Mengembangkan model prediktif dan visualisasi data untuk mendukung pengambilan keputusan bisnis. Berkolaborasi dengan tim lintas fungsi untuk mengidentifikasi kebutuhan data dan memberikan insight yang relevan.</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>2 tahun 4 bulan 12 hari</t>
+          <t>2 tahun 6 bulan 15 hari</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Python, SQL, Microsoft Excel, Power BI, Tableau, Business Process Analysis, Data Visualization, Communication, Problem Solving, Teamwork, Critical Thinking, Statistical Analysis</t>
+          <t>Python, SQL, Pandas, NumPy, Scikit-learn, Matplotlib, Seaborn, Big Data Processing, Machine Learning, Data Visualization, Problem Solving, Communication, Critical Thinking, Data Storytelling</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
@@ -65443,52 +65443,52 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Teknik Informatika</t>
+          <t>Teknik Geofisika</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Analisis dan Implementasi Sistem Big Data Menggunakan Python untuk Prediksi Penjualan</t>
+          <t>Analisis Data Seismik untuk Identifikasi Struktur Bawah Permukaan Menggunakan Metode Inversi</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Pengembangan Database</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>Pelatihan Big Data Using Python</t>
+          <t>Database Design &amp; Database Programming with SQL</t>
         </is>
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>Certified Data Analyst (BNSP)</t>
+          <t>Oracle Certified Associate, Java SE 8 Programmer</t>
         </is>
       </c>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>Analisis Data</t>
+          <t>Pengembangan Perangkat Lunak</t>
         </is>
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Asisten Dosen</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Bertanggung jawab melakukan pengumpulan, pembersihan, dan analisis data besar menggunakan Python. Menyusun laporan visualisasi data untuk kebutuhan bisnis dan memberikan rekomendasi berdasarkan hasil analisis. Bekerja sama dengan tim pengembang untuk mengoptimalkan proses pengolahan data perusahaan.</t>
+          <t>Membantu dosen dalam persiapan materi perkuliahan dan praktikum. Memberikan bimbingan kepada mahasiswa terkait tugas dan proyek. Melakukan evaluasi dan penilaian hasil belajar mahasiswa.</t>
         </is>
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>2 tahun 6 bulan 12 hari</t>
+          <t>0 tahun 5 bulan 0 hari</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Python, SQL, Pandas, NumPy, Matplotlib, Data Visualization, Machine Learning, Problem Solving, Communication, Teamwork</t>
+          <t>SQL, Database Design, Python, MATLAB, Data Analysis, Problem Solving, Public Speaking, Teamwork, Microsoft Office, Data Visualization</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
